--- a/Trabajo práctico final/2024 ADMISIÓN_ANONIMIZADA.xlsx
+++ b/Trabajo práctico final/2024 ADMISIÓN_ANONIMIZADA.xlsx
@@ -1,18 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cargillonline-my.sharepoint.com/personal/alfonsina_badin_cargill_com/Documents/Documents/Alfon Facultad/bioestadistica2024/Trabajo práctico final/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_19425736926C5318F6AEAB9A2E00EBF2B64EE95B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AB0FCCA-4A99-4FC5-AC9F-1674EEE361CE}"/>
   <bookViews>
-    <workbookView xWindow="393" yWindow="563" windowWidth="17005" windowHeight="5446"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro admisiones" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Registro admisiones'!$A$1:$AA$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Registro admisiones'!$A$1:$AA$181</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -532,7 +551,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="d/m"/>
     <numFmt numFmtId="165" formatCode="dd/mm"/>
@@ -929,6 +948,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1130,46 +1152,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AL991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C124"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="8.375" customWidth="1"/>
-    <col min="9" max="9" width="10.125" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="12" width="11.75" customWidth="1"/>
-    <col min="13" max="13" width="5.25" customWidth="1"/>
-    <col min="14" max="14" width="12.5" customWidth="1"/>
-    <col min="16" max="16" width="11.125" customWidth="1"/>
-    <col min="17" max="19" width="14.125" customWidth="1"/>
-    <col min="20" max="20" width="12.125" customWidth="1"/>
-    <col min="21" max="21" width="10.75" customWidth="1"/>
-    <col min="22" max="22" width="12.125" customWidth="1"/>
-    <col min="23" max="23" width="11.5" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="19" width="14.140625" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
     <col min="24" max="24" width="11" customWidth="1"/>
-    <col min="25" max="25" width="12.5" customWidth="1"/>
-    <col min="26" max="26" width="13.25" customWidth="1"/>
-    <col min="27" max="27" width="51.875" customWidth="1"/>
-    <col min="28" max="28" width="23.5" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" customWidth="1"/>
+    <col min="27" max="27" width="51.85546875" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="26.2" customHeight="1">
+    <row r="1" spans="1:38" ht="26.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1285,7 @@
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
     </row>
-    <row r="2" spans="1:38" ht="26.2">
+    <row r="2" spans="1:38" ht="25.5">
       <c r="A2" s="12"/>
       <c r="B2" s="17">
         <v>99000400</v>
@@ -1321,7 +1343,7 @@
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
     </row>
-    <row r="3" spans="1:38" ht="26.2">
+    <row r="3" spans="1:38" ht="25.5">
       <c r="A3" s="12"/>
       <c r="B3" s="17">
         <v>99000401</v>
@@ -1397,7 +1419,7 @@
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
     </row>
-    <row r="4" spans="1:38" ht="26.2">
+    <row r="4" spans="1:38" ht="25.5">
       <c r="A4" s="18"/>
       <c r="B4" s="17">
         <v>99000402</v>
@@ -1473,7 +1495,7 @@
       <c r="AK4" s="20"/>
       <c r="AL4" s="20"/>
     </row>
-    <row r="5" spans="1:38" ht="26.2">
+    <row r="5" spans="1:38" ht="25.5">
       <c r="A5" s="12"/>
       <c r="B5" s="17">
         <v>99000403</v>
@@ -1553,7 +1575,7 @@
       <c r="AK5" s="20"/>
       <c r="AL5" s="20"/>
     </row>
-    <row r="6" spans="1:38" ht="26.2">
+    <row r="6" spans="1:38" ht="25.5">
       <c r="A6" s="12"/>
       <c r="B6" s="17">
         <v>99000404</v>
@@ -1629,7 +1651,7 @@
       <c r="AK6" s="20"/>
       <c r="AL6" s="20"/>
     </row>
-    <row r="7" spans="1:38" ht="26.2">
+    <row r="7" spans="1:38" ht="25.5">
       <c r="A7" s="12"/>
       <c r="B7" s="17">
         <v>99000405</v>
@@ -1689,7 +1711,7 @@
       <c r="AK7" s="20"/>
       <c r="AL7" s="20"/>
     </row>
-    <row r="8" spans="1:38" ht="39.299999999999997">
+    <row r="8" spans="1:38" ht="38.25">
       <c r="A8" s="12"/>
       <c r="B8" s="17">
         <v>99000406</v>
@@ -1751,7 +1773,7 @@
       <c r="AK8" s="20"/>
       <c r="AL8" s="20"/>
     </row>
-    <row r="9" spans="1:38" ht="26.2">
+    <row r="9" spans="1:38" ht="25.5">
       <c r="A9" s="12"/>
       <c r="B9" s="17">
         <v>99000407</v>
@@ -1813,7 +1835,7 @@
       <c r="AK9" s="20"/>
       <c r="AL9" s="20"/>
     </row>
-    <row r="10" spans="1:38" ht="39.299999999999997">
+    <row r="10" spans="1:38" ht="38.25">
       <c r="A10" s="18"/>
       <c r="B10" s="17">
         <v>99000408</v>
@@ -1873,7 +1895,7 @@
       <c r="AK10" s="20"/>
       <c r="AL10" s="20"/>
     </row>
-    <row r="11" spans="1:38" ht="26.2">
+    <row r="11" spans="1:38" ht="25.5">
       <c r="A11" s="14"/>
       <c r="B11" s="17">
         <v>99000409</v>
@@ -1949,7 +1971,7 @@
       <c r="AK11" s="20"/>
       <c r="AL11" s="20"/>
     </row>
-    <row r="12" spans="1:38" ht="26.2">
+    <row r="12" spans="1:38" ht="25.5">
       <c r="A12" s="26"/>
       <c r="B12" s="17">
         <v>99000410</v>
@@ -2029,7 +2051,7 @@
       <c r="AK12" s="20"/>
       <c r="AL12" s="20"/>
     </row>
-    <row r="13" spans="1:38" ht="26.2">
+    <row r="13" spans="1:38" ht="25.5">
       <c r="A13" s="14"/>
       <c r="B13" s="17">
         <v>99000411</v>
@@ -2107,7 +2129,7 @@
       <c r="AK13" s="20"/>
       <c r="AL13" s="20"/>
     </row>
-    <row r="14" spans="1:38" ht="26.2">
+    <row r="14" spans="1:38" ht="25.5">
       <c r="A14" s="26"/>
       <c r="B14" s="17">
         <v>99000412</v>
@@ -2185,7 +2207,7 @@
       <c r="AK14" s="20"/>
       <c r="AL14" s="20"/>
     </row>
-    <row r="15" spans="1:38" ht="26.2">
+    <row r="15" spans="1:38" ht="38.25">
       <c r="A15" s="14"/>
       <c r="B15" s="17">
         <v>99000413</v>
@@ -2263,7 +2285,7 @@
       <c r="AK15" s="20"/>
       <c r="AL15" s="20"/>
     </row>
-    <row r="16" spans="1:38" ht="26.2">
+    <row r="16" spans="1:38" ht="38.25">
       <c r="A16" s="14"/>
       <c r="B16" s="17">
         <v>99000414</v>
@@ -2343,7 +2365,7 @@
       <c r="AK16" s="20"/>
       <c r="AL16" s="20"/>
     </row>
-    <row r="17" spans="1:38" ht="26.2">
+    <row r="17" spans="1:38" ht="25.5">
       <c r="A17" s="26"/>
       <c r="B17" s="17">
         <v>99000415</v>
@@ -2421,7 +2443,7 @@
       <c r="AK17" s="20"/>
       <c r="AL17" s="20"/>
     </row>
-    <row r="18" spans="1:38" ht="26.2">
+    <row r="18" spans="1:38" ht="25.5">
       <c r="A18" s="14"/>
       <c r="B18" s="17">
         <v>99000416</v>
@@ -2491,7 +2513,7 @@
       <c r="AK18" s="20"/>
       <c r="AL18" s="20"/>
     </row>
-    <row r="19" spans="1:38" ht="26.2">
+    <row r="19" spans="1:38" ht="25.5">
       <c r="A19" s="14"/>
       <c r="B19" s="17">
         <v>99000417</v>
@@ -2565,7 +2587,7 @@
       <c r="AK19" s="20"/>
       <c r="AL19" s="20"/>
     </row>
-    <row r="20" spans="1:38" ht="26.2">
+    <row r="20" spans="1:38" ht="25.5">
       <c r="A20" s="14"/>
       <c r="B20" s="17">
         <v>99000418</v>
@@ -2647,7 +2669,7 @@
       <c r="AK20" s="20"/>
       <c r="AL20" s="20"/>
     </row>
-    <row r="21" spans="1:38" ht="26.2">
+    <row r="21" spans="1:38" ht="25.5">
       <c r="A21" s="14"/>
       <c r="B21" s="17">
         <v>99000419</v>
@@ -2725,7 +2747,7 @@
       <c r="AK21" s="20"/>
       <c r="AL21" s="20"/>
     </row>
-    <row r="22" spans="1:38" ht="26.2">
+    <row r="22" spans="1:38" ht="25.5">
       <c r="A22" s="26"/>
       <c r="B22" s="17">
         <v>99000420</v>
@@ -2805,7 +2827,7 @@
       <c r="AK22" s="20"/>
       <c r="AL22" s="20"/>
     </row>
-    <row r="23" spans="1:38" ht="26.2">
+    <row r="23" spans="1:38" ht="25.5">
       <c r="A23" s="14"/>
       <c r="B23" s="17">
         <v>99000421</v>
@@ -2879,7 +2901,7 @@
       <c r="AK23" s="20"/>
       <c r="AL23" s="20"/>
     </row>
-    <row r="24" spans="1:38" ht="39.299999999999997">
+    <row r="24" spans="1:38" ht="38.25">
       <c r="A24" s="14"/>
       <c r="B24" s="17">
         <v>99000422</v>
@@ -2957,7 +2979,7 @@
       <c r="AK24" s="20"/>
       <c r="AL24" s="20"/>
     </row>
-    <row r="25" spans="1:38" ht="26.2">
+    <row r="25" spans="1:38" ht="25.5">
       <c r="A25" s="14"/>
       <c r="B25" s="17">
         <v>99000423</v>
@@ -3035,7 +3057,7 @@
       <c r="AK25" s="20"/>
       <c r="AL25" s="20"/>
     </row>
-    <row r="26" spans="1:38" ht="26.2">
+    <row r="26" spans="1:38" ht="25.5">
       <c r="A26" s="14"/>
       <c r="B26" s="17">
         <v>99000424</v>
@@ -3109,7 +3131,7 @@
       <c r="AK26" s="20"/>
       <c r="AL26" s="20"/>
     </row>
-    <row r="27" spans="1:38" ht="26.2">
+    <row r="27" spans="1:38" ht="25.5">
       <c r="A27" s="14"/>
       <c r="B27" s="17">
         <v>99000425</v>
@@ -3185,7 +3207,7 @@
       <c r="AK27" s="20"/>
       <c r="AL27" s="20"/>
     </row>
-    <row r="28" spans="1:38" ht="26.2">
+    <row r="28" spans="1:38" ht="25.5">
       <c r="A28" s="14"/>
       <c r="B28" s="17">
         <v>99000426</v>
@@ -3259,7 +3281,7 @@
       <c r="AK28" s="20"/>
       <c r="AL28" s="20"/>
     </row>
-    <row r="29" spans="1:38" ht="26.2">
+    <row r="29" spans="1:38" ht="25.5">
       <c r="A29" s="14"/>
       <c r="B29" s="17">
         <v>99000427</v>
@@ -3327,7 +3349,7 @@
       <c r="AK29" s="20"/>
       <c r="AL29" s="20"/>
     </row>
-    <row r="30" spans="1:38" ht="26.2">
+    <row r="30" spans="1:38" ht="25.5">
       <c r="A30" s="14"/>
       <c r="B30" s="17">
         <v>99000428</v>
@@ -3401,7 +3423,7 @@
       <c r="AK30" s="20"/>
       <c r="AL30" s="20"/>
     </row>
-    <row r="31" spans="1:38" ht="26.2">
+    <row r="31" spans="1:38" ht="25.5">
       <c r="A31" s="14"/>
       <c r="B31" s="17">
         <v>99000429</v>
@@ -3471,7 +3493,7 @@
       <c r="AK31" s="20"/>
       <c r="AL31" s="20"/>
     </row>
-    <row r="32" spans="1:38" ht="26.2">
+    <row r="32" spans="1:38" ht="25.5">
       <c r="A32" s="14"/>
       <c r="B32" s="17">
         <v>99000430</v>
@@ -3547,7 +3569,7 @@
       <c r="AK32" s="20"/>
       <c r="AL32" s="20"/>
     </row>
-    <row r="33" spans="1:38" ht="26.2">
+    <row r="33" spans="1:38" ht="25.5">
       <c r="A33" s="14"/>
       <c r="B33" s="17">
         <v>99000431</v>
@@ -3623,7 +3645,7 @@
       <c r="AK33" s="20"/>
       <c r="AL33" s="20"/>
     </row>
-    <row r="34" spans="1:38" ht="39.299999999999997">
+    <row r="34" spans="1:38" ht="38.25">
       <c r="A34" s="14"/>
       <c r="B34" s="17">
         <v>99000432</v>
@@ -3701,7 +3723,7 @@
       <c r="AK34" s="20"/>
       <c r="AL34" s="20"/>
     </row>
-    <row r="35" spans="1:38" ht="52.4">
+    <row r="35" spans="1:38" ht="51">
       <c r="A35" s="14"/>
       <c r="B35" s="17">
         <v>99000433</v>
@@ -3781,7 +3803,7 @@
       <c r="AK35" s="20"/>
       <c r="AL35" s="20"/>
     </row>
-    <row r="36" spans="1:38" ht="26.2">
+    <row r="36" spans="1:38" ht="25.5">
       <c r="A36" s="14"/>
       <c r="B36" s="17">
         <v>99000434</v>
@@ -3859,7 +3881,7 @@
       <c r="AK36" s="20"/>
       <c r="AL36" s="20"/>
     </row>
-    <row r="37" spans="1:38" ht="26.2">
+    <row r="37" spans="1:38" ht="25.5">
       <c r="A37" s="14"/>
       <c r="B37" s="17">
         <v>99000435</v>
@@ -3937,7 +3959,7 @@
       <c r="AK37" s="20"/>
       <c r="AL37" s="20"/>
     </row>
-    <row r="38" spans="1:38" ht="26.2">
+    <row r="38" spans="1:38" ht="25.5">
       <c r="A38" s="14"/>
       <c r="B38" s="17">
         <v>99000436</v>
@@ -4013,7 +4035,7 @@
       <c r="AK38" s="20"/>
       <c r="AL38" s="20"/>
     </row>
-    <row r="39" spans="1:38" ht="26.2">
+    <row r="39" spans="1:38" ht="38.25">
       <c r="A39" s="14"/>
       <c r="B39" s="17">
         <v>99000437</v>
@@ -4091,7 +4113,7 @@
       <c r="AK39" s="20"/>
       <c r="AL39" s="20"/>
     </row>
-    <row r="40" spans="1:38" ht="26.2">
+    <row r="40" spans="1:38" ht="25.5">
       <c r="A40" s="14"/>
       <c r="B40" s="17">
         <v>99000438</v>
@@ -4165,7 +4187,7 @@
       <c r="AK40" s="20"/>
       <c r="AL40" s="20"/>
     </row>
-    <row r="41" spans="1:38" ht="39.299999999999997">
+    <row r="41" spans="1:38" ht="38.25">
       <c r="A41" s="14"/>
       <c r="B41" s="17">
         <v>99000439</v>
@@ -4243,7 +4265,7 @@
       <c r="AK41" s="20"/>
       <c r="AL41" s="20"/>
     </row>
-    <row r="42" spans="1:38" ht="26.2">
+    <row r="42" spans="1:38" ht="25.5">
       <c r="A42" s="14"/>
       <c r="B42" s="17">
         <v>99000440</v>
@@ -4311,7 +4333,7 @@
       <c r="AK42" s="20"/>
       <c r="AL42" s="20"/>
     </row>
-    <row r="43" spans="1:38" ht="26.2">
+    <row r="43" spans="1:38" ht="25.5">
       <c r="A43" s="14"/>
       <c r="B43" s="17">
         <v>99000441</v>
@@ -4383,7 +4405,7 @@
       <c r="AK43" s="20"/>
       <c r="AL43" s="20"/>
     </row>
-    <row r="44" spans="1:38" ht="26.2">
+    <row r="44" spans="1:38" ht="25.5">
       <c r="A44" s="14"/>
       <c r="B44" s="17">
         <v>99000442</v>
@@ -4461,7 +4483,7 @@
       <c r="AK44" s="20"/>
       <c r="AL44" s="20"/>
     </row>
-    <row r="45" spans="1:38" ht="26.2">
+    <row r="45" spans="1:38" ht="25.5">
       <c r="A45" s="14"/>
       <c r="B45" s="17">
         <v>99000443</v>
@@ -4539,7 +4561,7 @@
       <c r="AK45" s="20"/>
       <c r="AL45" s="20"/>
     </row>
-    <row r="46" spans="1:38" ht="26.2">
+    <row r="46" spans="1:38" ht="38.25">
       <c r="A46" s="14"/>
       <c r="B46" s="17">
         <v>99000444</v>
@@ -4617,7 +4639,7 @@
       <c r="AK46" s="20"/>
       <c r="AL46" s="20"/>
     </row>
-    <row r="47" spans="1:38" ht="26.2">
+    <row r="47" spans="1:38" ht="25.5">
       <c r="A47" s="14"/>
       <c r="B47" s="17">
         <v>99000445</v>
@@ -4697,7 +4719,7 @@
       <c r="AK47" s="20"/>
       <c r="AL47" s="20"/>
     </row>
-    <row r="48" spans="1:38" ht="26.2">
+    <row r="48" spans="1:38" ht="25.5">
       <c r="A48" s="26"/>
       <c r="B48" s="17">
         <v>99000446</v>
@@ -4775,7 +4797,7 @@
       <c r="AK48" s="20"/>
       <c r="AL48" s="20"/>
     </row>
-    <row r="49" spans="1:38" ht="39.299999999999997">
+    <row r="49" spans="1:38" ht="38.25">
       <c r="A49" s="14"/>
       <c r="B49" s="17">
         <v>99000447</v>
@@ -4853,7 +4875,7 @@
       <c r="AK49" s="20"/>
       <c r="AL49" s="20"/>
     </row>
-    <row r="50" spans="1:38" ht="26.2">
+    <row r="50" spans="1:38" ht="25.5">
       <c r="A50" s="14"/>
       <c r="B50" s="17">
         <v>99000448</v>
@@ -4921,7 +4943,7 @@
       <c r="AK50" s="20"/>
       <c r="AL50" s="20"/>
     </row>
-    <row r="51" spans="1:38" ht="26.2">
+    <row r="51" spans="1:38" ht="38.25">
       <c r="A51" s="14"/>
       <c r="B51" s="17">
         <v>99000449</v>
@@ -4999,7 +5021,7 @@
       <c r="AK51" s="20"/>
       <c r="AL51" s="20"/>
     </row>
-    <row r="52" spans="1:38" ht="26.2">
+    <row r="52" spans="1:38" ht="25.5">
       <c r="A52" s="14"/>
       <c r="B52" s="17">
         <v>99000450</v>
@@ -5069,7 +5091,7 @@
       <c r="AK52" s="20"/>
       <c r="AL52" s="20"/>
     </row>
-    <row r="53" spans="1:38" ht="26.2">
+    <row r="53" spans="1:38" ht="25.5">
       <c r="A53" s="14"/>
       <c r="B53" s="17">
         <v>99000451</v>
@@ -5147,7 +5169,7 @@
       <c r="AK53" s="20"/>
       <c r="AL53" s="20"/>
     </row>
-    <row r="54" spans="1:38" ht="26.2">
+    <row r="54" spans="1:38" ht="25.5">
       <c r="A54" s="14"/>
       <c r="B54" s="17">
         <v>99000452</v>
@@ -5215,7 +5237,7 @@
       <c r="AK54" s="20"/>
       <c r="AL54" s="20"/>
     </row>
-    <row r="55" spans="1:38" ht="26.2">
+    <row r="55" spans="1:38" ht="25.5">
       <c r="A55" s="14"/>
       <c r="B55" s="17">
         <v>99000453</v>
@@ -5291,7 +5313,7 @@
       <c r="AK55" s="20"/>
       <c r="AL55" s="20"/>
     </row>
-    <row r="56" spans="1:38" ht="26.2">
+    <row r="56" spans="1:38" ht="25.5">
       <c r="A56" s="14"/>
       <c r="B56" s="17">
         <v>99000454</v>
@@ -5369,7 +5391,7 @@
       <c r="AK56" s="20"/>
       <c r="AL56" s="20"/>
     </row>
-    <row r="57" spans="1:38" ht="39.299999999999997">
+    <row r="57" spans="1:38" ht="38.25">
       <c r="A57" s="14"/>
       <c r="B57" s="17">
         <v>99000455</v>
@@ -5447,7 +5469,7 @@
       <c r="AK57" s="20"/>
       <c r="AL57" s="20"/>
     </row>
-    <row r="58" spans="1:38" ht="26.2">
+    <row r="58" spans="1:38" ht="25.5">
       <c r="A58" s="14"/>
       <c r="B58" s="17">
         <v>99000456</v>
@@ -5517,7 +5539,7 @@
       <c r="AK58" s="20"/>
       <c r="AL58" s="20"/>
     </row>
-    <row r="59" spans="1:38" ht="26.2">
+    <row r="59" spans="1:38" ht="25.5">
       <c r="A59" s="26"/>
       <c r="B59" s="17">
         <v>99000457</v>
@@ -5593,7 +5615,7 @@
       <c r="AK59" s="20"/>
       <c r="AL59" s="20"/>
     </row>
-    <row r="60" spans="1:38" ht="26.2">
+    <row r="60" spans="1:38" ht="25.5">
       <c r="A60" s="14"/>
       <c r="B60" s="17">
         <v>99000458</v>
@@ -5671,7 +5693,7 @@
       <c r="AK60" s="20"/>
       <c r="AL60" s="20"/>
     </row>
-    <row r="61" spans="1:38" ht="26.2">
+    <row r="61" spans="1:38" ht="25.5">
       <c r="A61" s="14"/>
       <c r="B61" s="17">
         <v>99000459</v>
@@ -5743,7 +5765,7 @@
       <c r="AK61" s="20"/>
       <c r="AL61" s="20"/>
     </row>
-    <row r="62" spans="1:38" ht="26.2">
+    <row r="62" spans="1:38" ht="25.5">
       <c r="A62" s="14"/>
       <c r="B62" s="17">
         <v>99000460</v>
@@ -5811,7 +5833,7 @@
       <c r="AK62" s="20"/>
       <c r="AL62" s="20"/>
     </row>
-    <row r="63" spans="1:38" ht="26.2">
+    <row r="63" spans="1:38" ht="25.5">
       <c r="A63" s="14"/>
       <c r="B63" s="17">
         <v>99000461</v>
@@ -5889,7 +5911,7 @@
       <c r="AK63" s="20"/>
       <c r="AL63" s="20"/>
     </row>
-    <row r="64" spans="1:38" ht="26.2">
+    <row r="64" spans="1:38" ht="25.5">
       <c r="A64" s="14"/>
       <c r="B64" s="17">
         <v>99000462</v>
@@ -5967,7 +5989,7 @@
       <c r="AK64" s="20"/>
       <c r="AL64" s="20"/>
     </row>
-    <row r="65" spans="1:38" ht="26.2">
+    <row r="65" spans="1:38" ht="25.5">
       <c r="A65" s="14"/>
       <c r="B65" s="17">
         <v>99000463</v>
@@ -6031,7 +6053,7 @@
       <c r="AK65" s="20"/>
       <c r="AL65" s="20"/>
     </row>
-    <row r="66" spans="1:38" ht="26.2">
+    <row r="66" spans="1:38" ht="25.5">
       <c r="A66" s="14"/>
       <c r="B66" s="17">
         <v>99000464</v>
@@ -6097,7 +6119,7 @@
       <c r="AK66" s="20"/>
       <c r="AL66" s="20"/>
     </row>
-    <row r="67" spans="1:38" ht="26.2">
+    <row r="67" spans="1:38" ht="25.5">
       <c r="A67" s="14"/>
       <c r="B67" s="17">
         <v>99000465</v>
@@ -6165,7 +6187,7 @@
       <c r="AK67" s="20"/>
       <c r="AL67" s="20"/>
     </row>
-    <row r="68" spans="1:38" ht="26.2">
+    <row r="68" spans="1:38" ht="25.5">
       <c r="A68" s="14"/>
       <c r="B68" s="17">
         <v>99000466</v>
@@ -6243,7 +6265,7 @@
       <c r="AK68" s="20"/>
       <c r="AL68" s="20"/>
     </row>
-    <row r="69" spans="1:38" ht="26.2">
+    <row r="69" spans="1:38" ht="25.5">
       <c r="A69" s="14"/>
       <c r="B69" s="17">
         <v>99000467</v>
@@ -6323,7 +6345,7 @@
       <c r="AK69" s="20"/>
       <c r="AL69" s="20"/>
     </row>
-    <row r="70" spans="1:38" ht="26.2">
+    <row r="70" spans="1:38" ht="25.5">
       <c r="A70" s="14"/>
       <c r="B70" s="17">
         <v>99000468</v>
@@ -6401,7 +6423,7 @@
       <c r="AK70" s="20"/>
       <c r="AL70" s="20"/>
     </row>
-    <row r="71" spans="1:38" ht="26.2">
+    <row r="71" spans="1:38" ht="25.5">
       <c r="A71" s="14"/>
       <c r="B71" s="17">
         <v>99000469</v>
@@ -6467,7 +6489,7 @@
       <c r="AK71" s="20"/>
       <c r="AL71" s="20"/>
     </row>
-    <row r="72" spans="1:38" ht="26.2">
+    <row r="72" spans="1:38" ht="25.5">
       <c r="A72" s="14"/>
       <c r="B72" s="17">
         <v>99000470</v>
@@ -6539,7 +6561,7 @@
       <c r="AK72" s="20"/>
       <c r="AL72" s="20"/>
     </row>
-    <row r="73" spans="1:38" ht="26.2">
+    <row r="73" spans="1:38" ht="25.5">
       <c r="A73" s="34"/>
       <c r="B73" s="17">
         <v>99000471</v>
@@ -6617,7 +6639,7 @@
       <c r="AK73" s="20"/>
       <c r="AL73" s="20"/>
     </row>
-    <row r="74" spans="1:38" ht="26.2">
+    <row r="74" spans="1:38" ht="25.5">
       <c r="A74" s="14"/>
       <c r="B74" s="17">
         <v>99000472</v>
@@ -6693,7 +6715,7 @@
       <c r="AK74" s="20"/>
       <c r="AL74" s="20"/>
     </row>
-    <row r="75" spans="1:38" ht="65.45">
+    <row r="75" spans="1:38" ht="76.5">
       <c r="A75" s="14"/>
       <c r="B75" s="17">
         <v>99000473</v>
@@ -6765,7 +6787,7 @@
       <c r="AK75" s="20"/>
       <c r="AL75" s="20"/>
     </row>
-    <row r="76" spans="1:38" ht="26.2">
+    <row r="76" spans="1:38" ht="25.5">
       <c r="A76" s="14"/>
       <c r="B76" s="17">
         <v>99000474</v>
@@ -6843,7 +6865,7 @@
       <c r="AK76" s="20"/>
       <c r="AL76" s="20"/>
     </row>
-    <row r="77" spans="1:38" ht="26.2">
+    <row r="77" spans="1:38" ht="25.5">
       <c r="A77" s="14"/>
       <c r="B77" s="17">
         <v>99000475</v>
@@ -6913,7 +6935,7 @@
       <c r="AK77" s="20"/>
       <c r="AL77" s="20"/>
     </row>
-    <row r="78" spans="1:38" ht="26.2">
+    <row r="78" spans="1:38" ht="25.5">
       <c r="A78" s="14"/>
       <c r="B78" s="17">
         <v>99000476</v>
@@ -6991,7 +7013,7 @@
       <c r="AK78" s="20"/>
       <c r="AL78" s="20"/>
     </row>
-    <row r="79" spans="1:38" ht="26.2">
+    <row r="79" spans="1:38" ht="25.5">
       <c r="A79" s="14"/>
       <c r="B79" s="17">
         <v>99000477</v>
@@ -7063,7 +7085,7 @@
       <c r="AK79" s="20"/>
       <c r="AL79" s="20"/>
     </row>
-    <row r="80" spans="1:38" ht="26.2">
+    <row r="80" spans="1:38" ht="25.5">
       <c r="A80" s="14"/>
       <c r="B80" s="17">
         <v>99000478</v>
@@ -7141,7 +7163,7 @@
       <c r="AK80" s="20"/>
       <c r="AL80" s="20"/>
     </row>
-    <row r="81" spans="1:38" ht="26.2">
+    <row r="81" spans="1:38" ht="25.5">
       <c r="A81" s="14"/>
       <c r="B81" s="17">
         <v>99000479</v>
@@ -7211,7 +7233,7 @@
       <c r="AK81" s="20"/>
       <c r="AL81" s="20"/>
     </row>
-    <row r="82" spans="1:38" ht="26.2">
+    <row r="82" spans="1:38" ht="25.5">
       <c r="A82" s="14"/>
       <c r="B82" s="17">
         <v>99000480</v>
@@ -7279,7 +7301,7 @@
       <c r="AK82" s="20"/>
       <c r="AL82" s="20"/>
     </row>
-    <row r="83" spans="1:38" ht="26.2">
+    <row r="83" spans="1:38" ht="25.5">
       <c r="A83" s="14"/>
       <c r="B83" s="17">
         <v>99000481</v>
@@ -7359,7 +7381,7 @@
       <c r="AK83" s="20"/>
       <c r="AL83" s="20"/>
     </row>
-    <row r="84" spans="1:38" ht="26.2">
+    <row r="84" spans="1:38" ht="25.5">
       <c r="A84" s="14"/>
       <c r="B84" s="17">
         <v>99000482</v>
@@ -7427,7 +7449,7 @@
       <c r="AK84" s="20"/>
       <c r="AL84" s="20"/>
     </row>
-    <row r="85" spans="1:38" ht="39.299999999999997">
+    <row r="85" spans="1:38" ht="38.25">
       <c r="A85" s="14"/>
       <c r="B85" s="17">
         <v>99000483</v>
@@ -7516,7 +7538,7 @@
       <c r="AK85" s="20"/>
       <c r="AL85" s="20"/>
     </row>
-    <row r="86" spans="1:38" ht="39.299999999999997">
+    <row r="86" spans="1:38" ht="38.25">
       <c r="A86" s="14"/>
       <c r="B86" s="17">
         <v>99000484</v>
@@ -7601,7 +7623,7 @@
       <c r="AK86" s="20"/>
       <c r="AL86" s="20"/>
     </row>
-    <row r="87" spans="1:38" ht="26.2">
+    <row r="87" spans="1:38" ht="25.5">
       <c r="A87" s="14"/>
       <c r="B87" s="17">
         <v>99000485</v>
@@ -7680,7 +7702,7 @@
       <c r="AK87" s="20"/>
       <c r="AL87" s="20"/>
     </row>
-    <row r="88" spans="1:38" ht="26.2">
+    <row r="88" spans="1:38" ht="25.5">
       <c r="A88" s="14"/>
       <c r="B88" s="17">
         <v>99000486</v>
@@ -7761,7 +7783,7 @@
       <c r="AK88" s="20"/>
       <c r="AL88" s="20"/>
     </row>
-    <row r="89" spans="1:38" ht="39.299999999999997">
+    <row r="89" spans="1:38" ht="38.25">
       <c r="A89" s="14"/>
       <c r="B89" s="17">
         <v>99000487</v>
@@ -7850,7 +7872,7 @@
       <c r="AK89" s="20"/>
       <c r="AL89" s="20"/>
     </row>
-    <row r="90" spans="1:38" ht="26.2">
+    <row r="90" spans="1:38" ht="25.5">
       <c r="A90" s="14"/>
       <c r="B90" s="17">
         <v>99000488</v>
@@ -7933,7 +7955,7 @@
       <c r="AK90" s="20"/>
       <c r="AL90" s="20"/>
     </row>
-    <row r="91" spans="1:38" ht="26.2">
+    <row r="91" spans="1:38" ht="25.5">
       <c r="A91" s="14"/>
       <c r="B91" s="17">
         <v>99000489</v>
@@ -8018,7 +8040,7 @@
       <c r="AK91" s="20"/>
       <c r="AL91" s="20"/>
     </row>
-    <row r="92" spans="1:38" ht="39.299999999999997">
+    <row r="92" spans="1:38" ht="38.25">
       <c r="A92" s="14"/>
       <c r="B92" s="17">
         <v>99000490</v>
@@ -8099,7 +8121,7 @@
       <c r="AK92" s="20"/>
       <c r="AL92" s="20"/>
     </row>
-    <row r="93" spans="1:38" ht="39.299999999999997">
+    <row r="93" spans="1:38" ht="38.25">
       <c r="A93" s="14"/>
       <c r="B93" s="17">
         <v>99000491</v>
@@ -8178,7 +8200,7 @@
       <c r="AK93" s="20"/>
       <c r="AL93" s="20"/>
     </row>
-    <row r="94" spans="1:38" ht="39.299999999999997">
+    <row r="94" spans="1:38" ht="38.25">
       <c r="A94" s="14"/>
       <c r="B94" s="17">
         <v>99000492</v>
@@ -8257,7 +8279,7 @@
       <c r="AK94" s="20"/>
       <c r="AL94" s="20"/>
     </row>
-    <row r="95" spans="1:38" ht="39.299999999999997">
+    <row r="95" spans="1:38" ht="38.25">
       <c r="A95" s="43"/>
       <c r="B95" s="17">
         <v>99000493</v>
@@ -8340,7 +8362,7 @@
       <c r="AK95" s="20"/>
       <c r="AL95" s="20"/>
     </row>
-    <row r="96" spans="1:38" ht="39.299999999999997">
+    <row r="96" spans="1:38" ht="38.25">
       <c r="A96" s="14"/>
       <c r="B96" s="17">
         <v>99000494</v>
@@ -8417,7 +8439,7 @@
       <c r="AK96" s="20"/>
       <c r="AL96" s="20"/>
     </row>
-    <row r="97" spans="1:38" ht="39.299999999999997">
+    <row r="97" spans="1:38" ht="38.25">
       <c r="A97" s="14"/>
       <c r="B97" s="17">
         <v>99000495</v>
@@ -8492,7 +8514,7 @@
       <c r="AK97" s="20"/>
       <c r="AL97" s="20"/>
     </row>
-    <row r="98" spans="1:38" ht="26.2">
+    <row r="98" spans="1:38" ht="25.5">
       <c r="A98" s="14"/>
       <c r="B98" s="17">
         <v>99000496</v>
@@ -8575,7 +8597,7 @@
       <c r="AK98" s="20"/>
       <c r="AL98" s="20"/>
     </row>
-    <row r="99" spans="1:38" ht="13.1">
+    <row r="99" spans="1:38" ht="12.75">
       <c r="A99" s="19"/>
       <c r="B99" s="32"/>
       <c r="C99" s="19"/>
@@ -8618,7 +8640,7 @@
       <c r="AK99" s="20"/>
       <c r="AL99" s="20"/>
     </row>
-    <row r="100" spans="1:38" ht="13.1">
+    <row r="100" spans="1:38" ht="12.75">
       <c r="A100" s="19"/>
       <c r="B100" s="32"/>
       <c r="C100" s="19"/>
@@ -8661,7 +8683,7 @@
       <c r="AK100" s="20"/>
       <c r="AL100" s="20"/>
     </row>
-    <row r="101" spans="1:38" ht="13.1">
+    <row r="101" spans="1:38" ht="12.75">
       <c r="A101" s="19"/>
       <c r="B101" s="32"/>
       <c r="C101" s="19"/>
@@ -8704,7 +8726,7 @@
       <c r="AK101" s="20"/>
       <c r="AL101" s="20"/>
     </row>
-    <row r="102" spans="1:38" ht="13.1">
+    <row r="102" spans="1:38" ht="12.75">
       <c r="A102" s="19"/>
       <c r="B102" s="32"/>
       <c r="C102" s="19"/>
@@ -8747,7 +8769,7 @@
       <c r="AK102" s="20"/>
       <c r="AL102" s="20"/>
     </row>
-    <row r="103" spans="1:38" ht="13.1">
+    <row r="103" spans="1:38" ht="12.75">
       <c r="A103" s="19"/>
       <c r="B103" s="32"/>
       <c r="C103" s="19"/>
@@ -8790,7 +8812,7 @@
       <c r="AK103" s="20"/>
       <c r="AL103" s="20"/>
     </row>
-    <row r="104" spans="1:38" ht="13.1">
+    <row r="104" spans="1:38" ht="12.75">
       <c r="A104" s="19"/>
       <c r="B104" s="32"/>
       <c r="C104" s="19"/>
@@ -8833,7 +8855,7 @@
       <c r="AK104" s="20"/>
       <c r="AL104" s="20"/>
     </row>
-    <row r="105" spans="1:38" ht="13.1">
+    <row r="105" spans="1:38" ht="12.75">
       <c r="A105" s="19"/>
       <c r="B105" s="32"/>
       <c r="C105" s="19"/>
@@ -8876,7 +8898,7 @@
       <c r="AK105" s="20"/>
       <c r="AL105" s="20"/>
     </row>
-    <row r="106" spans="1:38" ht="13.1">
+    <row r="106" spans="1:38" ht="12.75">
       <c r="A106" s="19"/>
       <c r="B106" s="32"/>
       <c r="C106" s="19"/>
@@ -8919,7 +8941,7 @@
       <c r="AK106" s="20"/>
       <c r="AL106" s="20"/>
     </row>
-    <row r="107" spans="1:38" ht="13.1">
+    <row r="107" spans="1:38" ht="12.75">
       <c r="A107" s="19"/>
       <c r="B107" s="32"/>
       <c r="C107" s="19"/>
@@ -8962,7 +8984,7 @@
       <c r="AK107" s="20"/>
       <c r="AL107" s="20"/>
     </row>
-    <row r="108" spans="1:38" ht="13.1">
+    <row r="108" spans="1:38" ht="12.75">
       <c r="A108" s="19"/>
       <c r="B108" s="32"/>
       <c r="C108" s="19"/>
@@ -9005,7 +9027,7 @@
       <c r="AK108" s="20"/>
       <c r="AL108" s="20"/>
     </row>
-    <row r="109" spans="1:38" ht="13.1">
+    <row r="109" spans="1:38" ht="12.75">
       <c r="A109" s="19"/>
       <c r="B109" s="32"/>
       <c r="C109" s="19"/>
@@ -9048,7 +9070,7 @@
       <c r="AK109" s="20"/>
       <c r="AL109" s="20"/>
     </row>
-    <row r="110" spans="1:38" ht="13.1">
+    <row r="110" spans="1:38" ht="12.75">
       <c r="A110" s="19"/>
       <c r="B110" s="32"/>
       <c r="C110" s="19"/>
@@ -9091,7 +9113,7 @@
       <c r="AK110" s="20"/>
       <c r="AL110" s="20"/>
     </row>
-    <row r="111" spans="1:38" ht="13.1">
+    <row r="111" spans="1:38" ht="12.75">
       <c r="A111" s="19"/>
       <c r="B111" s="32"/>
       <c r="C111" s="19"/>
@@ -9134,7 +9156,7 @@
       <c r="AK111" s="20"/>
       <c r="AL111" s="20"/>
     </row>
-    <row r="112" spans="1:38" ht="13.1">
+    <row r="112" spans="1:38" ht="12.75">
       <c r="A112" s="19"/>
       <c r="B112" s="32"/>
       <c r="C112" s="19"/>
@@ -9177,7 +9199,7 @@
       <c r="AK112" s="20"/>
       <c r="AL112" s="20"/>
     </row>
-    <row r="113" spans="1:38" ht="13.1">
+    <row r="113" spans="1:38" ht="12.75">
       <c r="A113" s="19"/>
       <c r="B113" s="32"/>
       <c r="C113" s="19"/>
@@ -9220,7 +9242,7 @@
       <c r="AK113" s="20"/>
       <c r="AL113" s="20"/>
     </row>
-    <row r="114" spans="1:38" ht="13.1">
+    <row r="114" spans="1:38" ht="12.75">
       <c r="A114" s="19"/>
       <c r="B114" s="32"/>
       <c r="C114" s="19"/>
@@ -9263,7 +9285,7 @@
       <c r="AK114" s="20"/>
       <c r="AL114" s="20"/>
     </row>
-    <row r="115" spans="1:38" ht="13.1">
+    <row r="115" spans="1:38" ht="12.75">
       <c r="A115" s="19"/>
       <c r="B115" s="32"/>
       <c r="C115" s="19"/>
@@ -9306,7 +9328,7 @@
       <c r="AK115" s="20"/>
       <c r="AL115" s="20"/>
     </row>
-    <row r="116" spans="1:38" ht="13.1">
+    <row r="116" spans="1:38" ht="12.75">
       <c r="A116" s="19"/>
       <c r="B116" s="32"/>
       <c r="C116" s="19"/>
@@ -9349,7 +9371,7 @@
       <c r="AK116" s="20"/>
       <c r="AL116" s="20"/>
     </row>
-    <row r="117" spans="1:38" ht="13.1">
+    <row r="117" spans="1:38" ht="12.75">
       <c r="A117" s="19"/>
       <c r="B117" s="32"/>
       <c r="C117" s="19"/>
@@ -9392,7 +9414,7 @@
       <c r="AK117" s="20"/>
       <c r="AL117" s="20"/>
     </row>
-    <row r="118" spans="1:38" ht="13.1">
+    <row r="118" spans="1:38" ht="12.75">
       <c r="A118" s="19"/>
       <c r="B118" s="32"/>
       <c r="C118" s="19"/>
@@ -9435,7 +9457,7 @@
       <c r="AK118" s="20"/>
       <c r="AL118" s="20"/>
     </row>
-    <row r="119" spans="1:38" ht="13.1">
+    <row r="119" spans="1:38" ht="12.75">
       <c r="A119" s="19"/>
       <c r="B119" s="32"/>
       <c r="C119" s="19"/>
@@ -9478,7 +9500,7 @@
       <c r="AK119" s="20"/>
       <c r="AL119" s="20"/>
     </row>
-    <row r="120" spans="1:38" ht="13.1">
+    <row r="120" spans="1:38" ht="12.75">
       <c r="A120" s="19"/>
       <c r="B120" s="32"/>
       <c r="C120" s="19"/>
@@ -9521,7 +9543,7 @@
       <c r="AK120" s="20"/>
       <c r="AL120" s="20"/>
     </row>
-    <row r="121" spans="1:38" ht="13.1">
+    <row r="121" spans="1:38" ht="12.75">
       <c r="A121" s="19"/>
       <c r="B121" s="32"/>
       <c r="C121" s="19"/>
@@ -9564,7 +9586,7 @@
       <c r="AK121" s="20"/>
       <c r="AL121" s="20"/>
     </row>
-    <row r="122" spans="1:38" ht="13.1">
+    <row r="122" spans="1:38" ht="12.75">
       <c r="A122" s="32"/>
       <c r="B122" s="32"/>
       <c r="C122" s="32"/>
@@ -9607,7 +9629,7 @@
       <c r="AK122" s="11"/>
       <c r="AL122" s="11"/>
     </row>
-    <row r="123" spans="1:38" ht="13.1">
+    <row r="123" spans="1:38" ht="12.75">
       <c r="A123" s="32"/>
       <c r="B123" s="32"/>
       <c r="C123" s="32"/>
@@ -9650,7 +9672,7 @@
       <c r="AK123" s="11"/>
       <c r="AL123" s="11"/>
     </row>
-    <row r="124" spans="1:38" ht="13.1">
+    <row r="124" spans="1:38" ht="12.75">
       <c r="A124" s="32"/>
       <c r="B124" s="32"/>
       <c r="C124" s="32"/>
@@ -9693,7 +9715,7 @@
       <c r="AK124" s="11"/>
       <c r="AL124" s="11"/>
     </row>
-    <row r="125" spans="1:38" ht="13.1">
+    <row r="125" spans="1:38" ht="12.75">
       <c r="A125" s="32"/>
       <c r="B125" s="32"/>
       <c r="C125" s="32"/>
@@ -9736,7 +9758,7 @@
       <c r="AK125" s="11"/>
       <c r="AL125" s="11"/>
     </row>
-    <row r="126" spans="1:38" ht="13.1">
+    <row r="126" spans="1:38" ht="12.75">
       <c r="A126" s="32"/>
       <c r="B126" s="32"/>
       <c r="C126" s="32"/>
@@ -9779,7 +9801,7 @@
       <c r="AK126" s="11"/>
       <c r="AL126" s="11"/>
     </row>
-    <row r="127" spans="1:38" ht="13.1">
+    <row r="127" spans="1:38" ht="12.75">
       <c r="A127" s="32"/>
       <c r="B127" s="32"/>
       <c r="C127" s="32"/>
@@ -9822,7 +9844,7 @@
       <c r="AK127" s="11"/>
       <c r="AL127" s="11"/>
     </row>
-    <row r="128" spans="1:38" ht="13.1">
+    <row r="128" spans="1:38" ht="12.75">
       <c r="A128" s="32"/>
       <c r="B128" s="32"/>
       <c r="C128" s="32"/>
@@ -9865,7 +9887,7 @@
       <c r="AK128" s="11"/>
       <c r="AL128" s="11"/>
     </row>
-    <row r="129" spans="1:38" ht="13.1">
+    <row r="129" spans="1:38" ht="12.75">
       <c r="A129" s="32"/>
       <c r="B129" s="32"/>
       <c r="C129" s="32"/>
@@ -9908,7 +9930,7 @@
       <c r="AK129" s="11"/>
       <c r="AL129" s="11"/>
     </row>
-    <row r="130" spans="1:38" ht="13.1">
+    <row r="130" spans="1:38" ht="12.75">
       <c r="A130" s="32"/>
       <c r="B130" s="32"/>
       <c r="C130" s="32"/>
@@ -9951,7 +9973,7 @@
       <c r="AK130" s="11"/>
       <c r="AL130" s="11"/>
     </row>
-    <row r="131" spans="1:38" ht="13.1">
+    <row r="131" spans="1:38" ht="12.75">
       <c r="A131" s="32"/>
       <c r="B131" s="32"/>
       <c r="C131" s="32"/>
@@ -9994,7 +10016,7 @@
       <c r="AK131" s="11"/>
       <c r="AL131" s="11"/>
     </row>
-    <row r="132" spans="1:38" ht="13.1">
+    <row r="132" spans="1:38" ht="12.75">
       <c r="A132" s="32"/>
       <c r="B132" s="32"/>
       <c r="C132" s="32"/>
@@ -10037,7 +10059,7 @@
       <c r="AK132" s="11"/>
       <c r="AL132" s="11"/>
     </row>
-    <row r="133" spans="1:38" ht="13.1">
+    <row r="133" spans="1:38" ht="12.75">
       <c r="A133" s="32"/>
       <c r="B133" s="32"/>
       <c r="C133" s="32"/>
@@ -10080,7 +10102,7 @@
       <c r="AK133" s="11"/>
       <c r="AL133" s="11"/>
     </row>
-    <row r="134" spans="1:38" ht="13.1">
+    <row r="134" spans="1:38" ht="12.75">
       <c r="A134" s="32"/>
       <c r="B134" s="32"/>
       <c r="C134" s="32"/>
@@ -10123,7 +10145,7 @@
       <c r="AK134" s="11"/>
       <c r="AL134" s="11"/>
     </row>
-    <row r="135" spans="1:38" ht="13.1">
+    <row r="135" spans="1:38" ht="12.75">
       <c r="A135" s="32"/>
       <c r="B135" s="32"/>
       <c r="C135" s="32"/>
@@ -10166,7 +10188,7 @@
       <c r="AK135" s="11"/>
       <c r="AL135" s="11"/>
     </row>
-    <row r="136" spans="1:38" ht="13.1">
+    <row r="136" spans="1:38" ht="12.75">
       <c r="A136" s="32"/>
       <c r="B136" s="32"/>
       <c r="C136" s="32"/>
@@ -10209,7 +10231,7 @@
       <c r="AK136" s="11"/>
       <c r="AL136" s="11"/>
     </row>
-    <row r="137" spans="1:38" ht="13.1">
+    <row r="137" spans="1:38" ht="12.75">
       <c r="A137" s="32"/>
       <c r="B137" s="32"/>
       <c r="C137" s="32"/>
@@ -10252,7 +10274,7 @@
       <c r="AK137" s="11"/>
       <c r="AL137" s="11"/>
     </row>
-    <row r="138" spans="1:38" ht="13.1">
+    <row r="138" spans="1:38" ht="12.75">
       <c r="A138" s="32"/>
       <c r="B138" s="32"/>
       <c r="C138" s="32"/>
@@ -10295,7 +10317,7 @@
       <c r="AK138" s="11"/>
       <c r="AL138" s="11"/>
     </row>
-    <row r="139" spans="1:38" ht="13.1">
+    <row r="139" spans="1:38" ht="12.75">
       <c r="A139" s="32"/>
       <c r="B139" s="32"/>
       <c r="C139" s="32"/>
@@ -10338,7 +10360,7 @@
       <c r="AK139" s="11"/>
       <c r="AL139" s="11"/>
     </row>
-    <row r="140" spans="1:38" ht="13.1">
+    <row r="140" spans="1:38" ht="12.75">
       <c r="A140" s="32"/>
       <c r="B140" s="32"/>
       <c r="C140" s="32"/>
@@ -10381,7 +10403,7 @@
       <c r="AK140" s="11"/>
       <c r="AL140" s="11"/>
     </row>
-    <row r="141" spans="1:38" ht="13.1">
+    <row r="141" spans="1:38" ht="12.75">
       <c r="A141" s="32"/>
       <c r="B141" s="32"/>
       <c r="C141" s="32"/>
@@ -10424,7 +10446,7 @@
       <c r="AK141" s="11"/>
       <c r="AL141" s="11"/>
     </row>
-    <row r="142" spans="1:38" ht="13.1">
+    <row r="142" spans="1:38" ht="12.75">
       <c r="A142" s="32"/>
       <c r="B142" s="32"/>
       <c r="C142" s="32"/>
@@ -10467,7 +10489,7 @@
       <c r="AK142" s="11"/>
       <c r="AL142" s="11"/>
     </row>
-    <row r="143" spans="1:38" ht="13.1">
+    <row r="143" spans="1:38" ht="12.75">
       <c r="A143" s="32"/>
       <c r="B143" s="32"/>
       <c r="C143" s="32"/>
@@ -10510,7 +10532,7 @@
       <c r="AK143" s="11"/>
       <c r="AL143" s="11"/>
     </row>
-    <row r="144" spans="1:38" ht="13.1">
+    <row r="144" spans="1:38" ht="12.75">
       <c r="A144" s="32"/>
       <c r="B144" s="32"/>
       <c r="C144" s="32"/>
@@ -10553,7 +10575,7 @@
       <c r="AK144" s="11"/>
       <c r="AL144" s="11"/>
     </row>
-    <row r="145" spans="1:38" ht="13.1">
+    <row r="145" spans="1:38" ht="12.75">
       <c r="A145" s="32"/>
       <c r="B145" s="32"/>
       <c r="C145" s="32"/>
@@ -10596,7 +10618,7 @@
       <c r="AK145" s="11"/>
       <c r="AL145" s="11"/>
     </row>
-    <row r="146" spans="1:38" ht="13.1">
+    <row r="146" spans="1:38" ht="12.75">
       <c r="A146" s="32"/>
       <c r="B146" s="32"/>
       <c r="C146" s="32"/>
@@ -10639,7 +10661,7 @@
       <c r="AK146" s="11"/>
       <c r="AL146" s="11"/>
     </row>
-    <row r="147" spans="1:38" ht="13.1">
+    <row r="147" spans="1:38" ht="12.75">
       <c r="A147" s="32"/>
       <c r="B147" s="32"/>
       <c r="C147" s="32"/>
@@ -10682,7 +10704,7 @@
       <c r="AK147" s="11"/>
       <c r="AL147" s="11"/>
     </row>
-    <row r="148" spans="1:38" ht="13.1">
+    <row r="148" spans="1:38" ht="12.75">
       <c r="A148" s="32"/>
       <c r="B148" s="32"/>
       <c r="C148" s="32"/>
@@ -10725,7 +10747,7 @@
       <c r="AK148" s="11"/>
       <c r="AL148" s="11"/>
     </row>
-    <row r="149" spans="1:38" ht="13.1">
+    <row r="149" spans="1:38" ht="12.75">
       <c r="A149" s="32"/>
       <c r="B149" s="32"/>
       <c r="C149" s="32"/>
@@ -10768,7 +10790,7 @@
       <c r="AK149" s="11"/>
       <c r="AL149" s="11"/>
     </row>
-    <row r="150" spans="1:38" ht="13.1">
+    <row r="150" spans="1:38" ht="12.75">
       <c r="A150" s="32"/>
       <c r="B150" s="32"/>
       <c r="C150" s="32"/>
@@ -10811,7 +10833,7 @@
       <c r="AK150" s="11"/>
       <c r="AL150" s="11"/>
     </row>
-    <row r="151" spans="1:38" ht="13.1">
+    <row r="151" spans="1:38" ht="12.75">
       <c r="A151" s="32"/>
       <c r="B151" s="32"/>
       <c r="C151" s="32"/>
@@ -10854,7 +10876,7 @@
       <c r="AK151" s="11"/>
       <c r="AL151" s="11"/>
     </row>
-    <row r="152" spans="1:38" ht="13.1">
+    <row r="152" spans="1:38" ht="12.75">
       <c r="A152" s="32"/>
       <c r="B152" s="32"/>
       <c r="C152" s="32"/>
@@ -10897,7 +10919,7 @@
       <c r="AK152" s="11"/>
       <c r="AL152" s="11"/>
     </row>
-    <row r="153" spans="1:38" ht="13.1">
+    <row r="153" spans="1:38" ht="12.75">
       <c r="A153" s="32"/>
       <c r="B153" s="32"/>
       <c r="C153" s="32"/>
@@ -10940,7 +10962,7 @@
       <c r="AK153" s="11"/>
       <c r="AL153" s="11"/>
     </row>
-    <row r="154" spans="1:38" ht="13.1">
+    <row r="154" spans="1:38" ht="12.75">
       <c r="A154" s="32"/>
       <c r="B154" s="32"/>
       <c r="C154" s="32"/>
@@ -10983,7 +11005,7 @@
       <c r="AK154" s="11"/>
       <c r="AL154" s="11"/>
     </row>
-    <row r="155" spans="1:38" ht="13.1">
+    <row r="155" spans="1:38" ht="12.75">
       <c r="A155" s="32"/>
       <c r="B155" s="32"/>
       <c r="C155" s="32"/>
@@ -11026,7 +11048,7 @@
       <c r="AK155" s="11"/>
       <c r="AL155" s="11"/>
     </row>
-    <row r="156" spans="1:38" ht="13.1">
+    <row r="156" spans="1:38" ht="12.75">
       <c r="A156" s="32"/>
       <c r="B156" s="32"/>
       <c r="C156" s="32"/>
@@ -11069,7 +11091,7 @@
       <c r="AK156" s="11"/>
       <c r="AL156" s="11"/>
     </row>
-    <row r="157" spans="1:38" ht="13.1">
+    <row r="157" spans="1:38" ht="12.75">
       <c r="A157" s="32"/>
       <c r="B157" s="32"/>
       <c r="C157" s="32"/>
@@ -11112,7 +11134,7 @@
       <c r="AK157" s="11"/>
       <c r="AL157" s="11"/>
     </row>
-    <row r="158" spans="1:38" ht="13.1">
+    <row r="158" spans="1:38" ht="12.75">
       <c r="A158" s="32"/>
       <c r="B158" s="32"/>
       <c r="C158" s="32"/>
@@ -11155,7 +11177,7 @@
       <c r="AK158" s="11"/>
       <c r="AL158" s="11"/>
     </row>
-    <row r="159" spans="1:38" ht="13.1">
+    <row r="159" spans="1:38" ht="12.75">
       <c r="A159" s="32"/>
       <c r="B159" s="32"/>
       <c r="C159" s="32"/>
@@ -11198,7 +11220,7 @@
       <c r="AK159" s="11"/>
       <c r="AL159" s="11"/>
     </row>
-    <row r="160" spans="1:38" ht="13.1">
+    <row r="160" spans="1:38" ht="12.75">
       <c r="A160" s="32"/>
       <c r="B160" s="32"/>
       <c r="C160" s="32"/>
@@ -11241,7 +11263,7 @@
       <c r="AK160" s="11"/>
       <c r="AL160" s="11"/>
     </row>
-    <row r="161" spans="1:38" ht="13.1">
+    <row r="161" spans="1:38" ht="12.75">
       <c r="A161" s="32"/>
       <c r="B161" s="32"/>
       <c r="C161" s="32"/>
@@ -11284,7 +11306,7 @@
       <c r="AK161" s="11"/>
       <c r="AL161" s="11"/>
     </row>
-    <row r="162" spans="1:38" ht="13.1">
+    <row r="162" spans="1:38" ht="12.75">
       <c r="A162" s="32"/>
       <c r="B162" s="32"/>
       <c r="C162" s="32"/>
@@ -11327,7 +11349,7 @@
       <c r="AK162" s="11"/>
       <c r="AL162" s="11"/>
     </row>
-    <row r="163" spans="1:38" ht="13.1">
+    <row r="163" spans="1:38" ht="12.75">
       <c r="A163" s="32"/>
       <c r="B163" s="32"/>
       <c r="C163" s="32"/>
@@ -11370,7 +11392,7 @@
       <c r="AK163" s="11"/>
       <c r="AL163" s="11"/>
     </row>
-    <row r="164" spans="1:38" ht="13.1">
+    <row r="164" spans="1:38" ht="12.75">
       <c r="A164" s="32"/>
       <c r="B164" s="32"/>
       <c r="C164" s="32"/>
@@ -11413,7 +11435,7 @@
       <c r="AK164" s="11"/>
       <c r="AL164" s="11"/>
     </row>
-    <row r="165" spans="1:38" ht="13.1">
+    <row r="165" spans="1:38" ht="12.75">
       <c r="A165" s="32"/>
       <c r="B165" s="32"/>
       <c r="C165" s="32"/>
@@ -11456,7 +11478,7 @@
       <c r="AK165" s="11"/>
       <c r="AL165" s="11"/>
     </row>
-    <row r="166" spans="1:38" ht="13.1">
+    <row r="166" spans="1:38" ht="12.75">
       <c r="A166" s="32"/>
       <c r="B166" s="32"/>
       <c r="C166" s="32"/>
@@ -11499,7 +11521,7 @@
       <c r="AK166" s="11"/>
       <c r="AL166" s="11"/>
     </row>
-    <row r="167" spans="1:38" ht="13.1">
+    <row r="167" spans="1:38" ht="12.75">
       <c r="A167" s="32"/>
       <c r="B167" s="32"/>
       <c r="C167" s="32"/>
@@ -11542,7 +11564,7 @@
       <c r="AK167" s="11"/>
       <c r="AL167" s="11"/>
     </row>
-    <row r="168" spans="1:38" ht="13.1">
+    <row r="168" spans="1:38" ht="12.75">
       <c r="A168" s="32"/>
       <c r="B168" s="32"/>
       <c r="C168" s="32"/>
@@ -11585,7 +11607,7 @@
       <c r="AK168" s="11"/>
       <c r="AL168" s="11"/>
     </row>
-    <row r="169" spans="1:38" ht="13.1">
+    <row r="169" spans="1:38" ht="12.75">
       <c r="A169" s="32"/>
       <c r="B169" s="32"/>
       <c r="C169" s="32"/>
@@ -11628,7 +11650,7 @@
       <c r="AK169" s="11"/>
       <c r="AL169" s="11"/>
     </row>
-    <row r="170" spans="1:38" ht="13.1">
+    <row r="170" spans="1:38" ht="12.75">
       <c r="A170" s="32"/>
       <c r="B170" s="32"/>
       <c r="C170" s="32"/>
@@ -11671,7 +11693,7 @@
       <c r="AK170" s="11"/>
       <c r="AL170" s="11"/>
     </row>
-    <row r="171" spans="1:38" ht="13.1">
+    <row r="171" spans="1:38" ht="12.75">
       <c r="A171" s="32"/>
       <c r="B171" s="32"/>
       <c r="C171" s="32"/>
@@ -11714,7 +11736,7 @@
       <c r="AK171" s="11"/>
       <c r="AL171" s="11"/>
     </row>
-    <row r="172" spans="1:38" ht="13.1">
+    <row r="172" spans="1:38" ht="12.75">
       <c r="A172" s="32"/>
       <c r="B172" s="32"/>
       <c r="C172" s="32"/>
@@ -11757,7 +11779,7 @@
       <c r="AK172" s="11"/>
       <c r="AL172" s="11"/>
     </row>
-    <row r="173" spans="1:38" ht="13.1">
+    <row r="173" spans="1:38" ht="12.75">
       <c r="A173" s="32"/>
       <c r="B173" s="32"/>
       <c r="C173" s="32"/>
@@ -11800,7 +11822,7 @@
       <c r="AK173" s="11"/>
       <c r="AL173" s="11"/>
     </row>
-    <row r="174" spans="1:38" ht="13.1">
+    <row r="174" spans="1:38" ht="12.75">
       <c r="A174" s="32"/>
       <c r="B174" s="32"/>
       <c r="C174" s="32"/>
@@ -11843,7 +11865,7 @@
       <c r="AK174" s="11"/>
       <c r="AL174" s="11"/>
     </row>
-    <row r="175" spans="1:38" ht="13.1">
+    <row r="175" spans="1:38" ht="12.75">
       <c r="A175" s="32"/>
       <c r="B175" s="32"/>
       <c r="C175" s="32"/>
@@ -11886,7 +11908,7 @@
       <c r="AK175" s="11"/>
       <c r="AL175" s="11"/>
     </row>
-    <row r="176" spans="1:38" ht="13.1">
+    <row r="176" spans="1:38" ht="12.75">
       <c r="A176" s="32"/>
       <c r="B176" s="32"/>
       <c r="C176" s="32"/>
@@ -11929,7 +11951,7 @@
       <c r="AK176" s="11"/>
       <c r="AL176" s="11"/>
     </row>
-    <row r="177" spans="1:38" ht="13.1">
+    <row r="177" spans="1:38" ht="12.75">
       <c r="A177" s="32"/>
       <c r="B177" s="32"/>
       <c r="C177" s="32"/>
@@ -11972,7 +11994,7 @@
       <c r="AK177" s="11"/>
       <c r="AL177" s="11"/>
     </row>
-    <row r="178" spans="1:38" ht="13.1">
+    <row r="178" spans="1:38" ht="12.75">
       <c r="A178" s="32"/>
       <c r="B178" s="32"/>
       <c r="C178" s="32"/>
@@ -12015,7 +12037,7 @@
       <c r="AK178" s="11"/>
       <c r="AL178" s="11"/>
     </row>
-    <row r="179" spans="1:38" ht="13.1">
+    <row r="179" spans="1:38" ht="12.75">
       <c r="A179" s="32"/>
       <c r="B179" s="32"/>
       <c r="C179" s="32"/>
@@ -12058,7 +12080,7 @@
       <c r="AK179" s="11"/>
       <c r="AL179" s="11"/>
     </row>
-    <row r="180" spans="1:38" ht="13.1">
+    <row r="180" spans="1:38" ht="12.75">
       <c r="A180" s="32"/>
       <c r="B180" s="32"/>
       <c r="C180" s="32"/>
@@ -12101,7 +12123,7 @@
       <c r="AK180" s="11"/>
       <c r="AL180" s="11"/>
     </row>
-    <row r="181" spans="1:38" ht="13.1">
+    <row r="181" spans="1:38" ht="12.75">
       <c r="A181" s="32"/>
       <c r="B181" s="32"/>
       <c r="C181" s="32"/>
@@ -12144,7 +12166,7 @@
       <c r="AK181" s="11"/>
       <c r="AL181" s="11"/>
     </row>
-    <row r="182" spans="1:38" ht="13.1">
+    <row r="182" spans="1:38" ht="12.75">
       <c r="A182" s="32"/>
       <c r="B182" s="32"/>
       <c r="C182" s="32"/>
@@ -12184,7 +12206,7 @@
       <c r="AK182" s="11"/>
       <c r="AL182" s="11"/>
     </row>
-    <row r="183" spans="1:38" ht="13.1">
+    <row r="183" spans="1:38" ht="12.75">
       <c r="A183" s="32"/>
       <c r="B183" s="32"/>
       <c r="C183" s="32"/>
@@ -12224,7 +12246,7 @@
       <c r="AK183" s="11"/>
       <c r="AL183" s="11"/>
     </row>
-    <row r="184" spans="1:38" ht="13.1">
+    <row r="184" spans="1:38" ht="12.75">
       <c r="A184" s="32"/>
       <c r="B184" s="32"/>
       <c r="C184" s="32"/>
@@ -12264,7 +12286,7 @@
       <c r="AK184" s="11"/>
       <c r="AL184" s="11"/>
     </row>
-    <row r="185" spans="1:38" ht="13.1">
+    <row r="185" spans="1:38" ht="12.75">
       <c r="A185" s="32"/>
       <c r="B185" s="32"/>
       <c r="C185" s="32"/>
@@ -12304,7 +12326,7 @@
       <c r="AK185" s="11"/>
       <c r="AL185" s="11"/>
     </row>
-    <row r="186" spans="1:38" ht="13.1">
+    <row r="186" spans="1:38" ht="12.75">
       <c r="A186" s="32"/>
       <c r="B186" s="32"/>
       <c r="C186" s="32"/>
@@ -12344,7 +12366,7 @@
       <c r="AK186" s="11"/>
       <c r="AL186" s="11"/>
     </row>
-    <row r="187" spans="1:38" ht="13.1">
+    <row r="187" spans="1:38" ht="12.75">
       <c r="A187" s="32"/>
       <c r="B187" s="32"/>
       <c r="C187" s="32"/>
@@ -12384,7 +12406,7 @@
       <c r="AK187" s="11"/>
       <c r="AL187" s="11"/>
     </row>
-    <row r="188" spans="1:38" ht="13.1">
+    <row r="188" spans="1:38" ht="12.75">
       <c r="A188" s="32"/>
       <c r="B188" s="32"/>
       <c r="C188" s="32"/>
@@ -12424,7 +12446,7 @@
       <c r="AK188" s="11"/>
       <c r="AL188" s="11"/>
     </row>
-    <row r="189" spans="1:38" ht="13.1">
+    <row r="189" spans="1:38" ht="12.75">
       <c r="A189" s="32"/>
       <c r="B189" s="32"/>
       <c r="C189" s="32"/>
@@ -12464,7 +12486,7 @@
       <c r="AK189" s="11"/>
       <c r="AL189" s="11"/>
     </row>
-    <row r="190" spans="1:38" ht="13.1">
+    <row r="190" spans="1:38" ht="12.75">
       <c r="A190" s="32"/>
       <c r="B190" s="32"/>
       <c r="C190" s="32"/>
@@ -12504,7 +12526,7 @@
       <c r="AK190" s="11"/>
       <c r="AL190" s="11"/>
     </row>
-    <row r="191" spans="1:38" ht="13.1">
+    <row r="191" spans="1:38" ht="12.75">
       <c r="A191" s="32"/>
       <c r="B191" s="32"/>
       <c r="C191" s="32"/>
@@ -12544,7 +12566,7 @@
       <c r="AK191" s="11"/>
       <c r="AL191" s="11"/>
     </row>
-    <row r="192" spans="1:38" ht="13.1">
+    <row r="192" spans="1:38" ht="12.75">
       <c r="A192" s="32"/>
       <c r="B192" s="32"/>
       <c r="C192" s="32"/>
@@ -12584,7 +12606,7 @@
       <c r="AK192" s="11"/>
       <c r="AL192" s="11"/>
     </row>
-    <row r="193" spans="1:38" ht="13.1">
+    <row r="193" spans="1:38" ht="12.75">
       <c r="A193" s="32"/>
       <c r="B193" s="32"/>
       <c r="C193" s="32"/>
@@ -12624,7 +12646,7 @@
       <c r="AK193" s="11"/>
       <c r="AL193" s="11"/>
     </row>
-    <row r="194" spans="1:38" ht="13.1">
+    <row r="194" spans="1:38" ht="12.75">
       <c r="A194" s="32"/>
       <c r="B194" s="32"/>
       <c r="C194" s="32"/>
@@ -12664,7 +12686,7 @@
       <c r="AK194" s="11"/>
       <c r="AL194" s="11"/>
     </row>
-    <row r="195" spans="1:38" ht="13.1">
+    <row r="195" spans="1:38" ht="12.75">
       <c r="A195" s="32"/>
       <c r="B195" s="32"/>
       <c r="C195" s="32"/>
@@ -12704,7 +12726,7 @@
       <c r="AK195" s="11"/>
       <c r="AL195" s="11"/>
     </row>
-    <row r="196" spans="1:38" ht="13.1">
+    <row r="196" spans="1:38" ht="12.75">
       <c r="A196" s="32"/>
       <c r="B196" s="32"/>
       <c r="C196" s="14"/>
@@ -12744,7 +12766,7 @@
       <c r="AK196" s="11"/>
       <c r="AL196" s="11"/>
     </row>
-    <row r="197" spans="1:38" ht="13.1">
+    <row r="197" spans="1:38" ht="12.75">
       <c r="A197" s="32"/>
       <c r="B197" s="32"/>
       <c r="C197" s="14"/>
@@ -12784,7 +12806,7 @@
       <c r="AK197" s="11"/>
       <c r="AL197" s="11"/>
     </row>
-    <row r="198" spans="1:38" ht="13.1">
+    <row r="198" spans="1:38" ht="12.75">
       <c r="A198" s="32"/>
       <c r="B198" s="32"/>
       <c r="C198" s="32"/>
@@ -12824,7 +12846,7 @@
       <c r="AK198" s="11"/>
       <c r="AL198" s="11"/>
     </row>
-    <row r="199" spans="1:38" ht="13.1">
+    <row r="199" spans="1:38" ht="12.75">
       <c r="A199" s="32"/>
       <c r="B199" s="32"/>
       <c r="C199" s="32"/>
@@ -12864,7 +12886,7 @@
       <c r="AK199" s="11"/>
       <c r="AL199" s="11"/>
     </row>
-    <row r="200" spans="1:38" ht="13.1">
+    <row r="200" spans="1:38" ht="12.75">
       <c r="A200" s="32"/>
       <c r="B200" s="32"/>
       <c r="C200" s="32"/>
@@ -12904,7 +12926,7 @@
       <c r="AK200" s="11"/>
       <c r="AL200" s="11"/>
     </row>
-    <row r="201" spans="1:38" ht="13.1">
+    <row r="201" spans="1:38" ht="12.75">
       <c r="A201" s="32"/>
       <c r="B201" s="65"/>
       <c r="C201" s="32"/>
@@ -12944,7 +12966,7 @@
       <c r="AK201" s="11"/>
       <c r="AL201" s="11"/>
     </row>
-    <row r="202" spans="1:38" ht="13.1">
+    <row r="202" spans="1:38" ht="12.75">
       <c r="A202" s="32"/>
       <c r="B202" s="65"/>
       <c r="C202" s="32"/>
@@ -12984,7 +13006,7 @@
       <c r="AK202" s="11"/>
       <c r="AL202" s="11"/>
     </row>
-    <row r="203" spans="1:38" ht="13.1">
+    <row r="203" spans="1:38" ht="12.75">
       <c r="A203" s="32"/>
       <c r="B203" s="65"/>
       <c r="C203" s="32"/>
@@ -13024,7 +13046,7 @@
       <c r="AK203" s="11"/>
       <c r="AL203" s="11"/>
     </row>
-    <row r="204" spans="1:38" ht="13.1">
+    <row r="204" spans="1:38" ht="12.75">
       <c r="A204" s="32"/>
       <c r="B204" s="65"/>
       <c r="C204" s="32"/>
@@ -13064,7 +13086,7 @@
       <c r="AK204" s="11"/>
       <c r="AL204" s="11"/>
     </row>
-    <row r="205" spans="1:38" ht="13.1">
+    <row r="205" spans="1:38" ht="12.75">
       <c r="A205" s="32"/>
       <c r="B205" s="65"/>
       <c r="C205" s="32"/>
@@ -13104,7 +13126,7 @@
       <c r="AK205" s="11"/>
       <c r="AL205" s="11"/>
     </row>
-    <row r="206" spans="1:38" ht="13.1">
+    <row r="206" spans="1:38" ht="12.75">
       <c r="A206" s="32"/>
       <c r="B206" s="65"/>
       <c r="C206" s="32"/>
@@ -13144,7 +13166,7 @@
       <c r="AK206" s="11"/>
       <c r="AL206" s="11"/>
     </row>
-    <row r="207" spans="1:38" ht="13.1">
+    <row r="207" spans="1:38" ht="12.75">
       <c r="A207" s="32"/>
       <c r="B207" s="32"/>
       <c r="C207" s="32"/>
@@ -13184,7 +13206,7 @@
       <c r="AK207" s="11"/>
       <c r="AL207" s="11"/>
     </row>
-    <row r="208" spans="1:38" ht="13.1">
+    <row r="208" spans="1:38" ht="12.75">
       <c r="A208" s="14"/>
       <c r="B208" s="17"/>
       <c r="C208" s="14"/>
@@ -13224,7 +13246,7 @@
       <c r="AK208" s="11"/>
       <c r="AL208" s="11"/>
     </row>
-    <row r="209" spans="1:38" ht="13.1">
+    <row r="209" spans="1:38" ht="12.75">
       <c r="A209" s="14"/>
       <c r="B209" s="25"/>
       <c r="C209" s="14"/>
@@ -13264,7 +13286,7 @@
       <c r="AK209" s="11"/>
       <c r="AL209" s="11"/>
     </row>
-    <row r="210" spans="1:38" ht="13.1">
+    <row r="210" spans="1:38" ht="12.75">
       <c r="A210" s="14"/>
       <c r="B210" s="25"/>
       <c r="C210" s="14"/>
@@ -13304,7 +13326,7 @@
       <c r="AK210" s="11"/>
       <c r="AL210" s="11"/>
     </row>
-    <row r="211" spans="1:38" ht="13.1">
+    <row r="211" spans="1:38" ht="12.75">
       <c r="A211" s="14"/>
       <c r="B211" s="17"/>
       <c r="C211" s="14"/>
@@ -13344,7 +13366,7 @@
       <c r="AK211" s="11"/>
       <c r="AL211" s="11"/>
     </row>
-    <row r="212" spans="1:38" ht="13.1">
+    <row r="212" spans="1:38" ht="12.75">
       <c r="A212" s="14"/>
       <c r="B212" s="17"/>
       <c r="C212" s="14"/>
@@ -13384,7 +13406,7 @@
       <c r="AK212" s="11"/>
       <c r="AL212" s="11"/>
     </row>
-    <row r="213" spans="1:38" ht="13.1">
+    <row r="213" spans="1:38" ht="12.75">
       <c r="A213" s="14"/>
       <c r="B213" s="72"/>
       <c r="C213" s="14"/>
@@ -13424,7 +13446,7 @@
       <c r="AK213" s="11"/>
       <c r="AL213" s="11"/>
     </row>
-    <row r="214" spans="1:38" ht="13.1">
+    <row r="214" spans="1:38" ht="12.75">
       <c r="A214" s="14"/>
       <c r="B214" s="17"/>
       <c r="C214" s="14"/>
@@ -13464,7 +13486,7 @@
       <c r="AK214" s="11"/>
       <c r="AL214" s="11"/>
     </row>
-    <row r="215" spans="1:38" ht="13.1">
+    <row r="215" spans="1:38" ht="12.75">
       <c r="A215" s="14"/>
       <c r="B215" s="17"/>
       <c r="C215" s="14"/>
@@ -13504,7 +13526,7 @@
       <c r="AK215" s="11"/>
       <c r="AL215" s="11"/>
     </row>
-    <row r="216" spans="1:38" ht="13.1">
+    <row r="216" spans="1:38" ht="12.75">
       <c r="A216" s="14"/>
       <c r="B216" s="17"/>
       <c r="C216" s="14"/>
@@ -13544,7 +13566,7 @@
       <c r="AK216" s="11"/>
       <c r="AL216" s="11"/>
     </row>
-    <row r="217" spans="1:38" ht="13.1">
+    <row r="217" spans="1:38" ht="12.75">
       <c r="A217" s="14"/>
       <c r="B217" s="17"/>
       <c r="C217" s="14"/>
@@ -13584,7 +13606,7 @@
       <c r="AK217" s="11"/>
       <c r="AL217" s="11"/>
     </row>
-    <row r="218" spans="1:38" ht="13.1">
+    <row r="218" spans="1:38" ht="12.75">
       <c r="A218" s="14"/>
       <c r="B218" s="17"/>
       <c r="C218" s="14"/>
@@ -13624,7 +13646,7 @@
       <c r="AK218" s="11"/>
       <c r="AL218" s="11"/>
     </row>
-    <row r="219" spans="1:38" ht="13.1">
+    <row r="219" spans="1:38" ht="12.75">
       <c r="A219" s="14"/>
       <c r="B219" s="17"/>
       <c r="C219" s="14"/>
@@ -13664,7 +13686,7 @@
       <c r="AK219" s="11"/>
       <c r="AL219" s="11"/>
     </row>
-    <row r="220" spans="1:38" ht="13.1">
+    <row r="220" spans="1:38" ht="12.75">
       <c r="A220" s="14"/>
       <c r="B220" s="17"/>
       <c r="C220" s="14"/>
@@ -13704,7 +13726,7 @@
       <c r="AK220" s="11"/>
       <c r="AL220" s="11"/>
     </row>
-    <row r="221" spans="1:38" ht="13.1">
+    <row r="221" spans="1:38" ht="12.75">
       <c r="A221" s="14"/>
       <c r="B221" s="17"/>
       <c r="C221" s="14"/>
@@ -13744,7 +13766,7 @@
       <c r="AK221" s="11"/>
       <c r="AL221" s="11"/>
     </row>
-    <row r="222" spans="1:38" ht="13.1">
+    <row r="222" spans="1:38" ht="12.75">
       <c r="A222" s="14"/>
       <c r="B222" s="17"/>
       <c r="C222" s="14"/>
@@ -13784,7 +13806,7 @@
       <c r="AK222" s="11"/>
       <c r="AL222" s="11"/>
     </row>
-    <row r="223" spans="1:38" ht="13.1">
+    <row r="223" spans="1:38" ht="12.75">
       <c r="A223" s="14"/>
       <c r="B223" s="17"/>
       <c r="C223" s="14"/>
@@ -13824,7 +13846,7 @@
       <c r="AK223" s="11"/>
       <c r="AL223" s="11"/>
     </row>
-    <row r="224" spans="1:38" ht="13.1">
+    <row r="224" spans="1:38" ht="12.75">
       <c r="A224" s="14"/>
       <c r="B224" s="17"/>
       <c r="C224" s="14"/>
@@ -13864,7 +13886,7 @@
       <c r="AK224" s="11"/>
       <c r="AL224" s="11"/>
     </row>
-    <row r="225" spans="1:38" ht="13.1">
+    <row r="225" spans="1:38" ht="12.75">
       <c r="A225" s="14"/>
       <c r="B225" s="17"/>
       <c r="C225" s="14"/>
@@ -13904,7 +13926,7 @@
       <c r="AK225" s="11"/>
       <c r="AL225" s="11"/>
     </row>
-    <row r="226" spans="1:38" ht="13.1">
+    <row r="226" spans="1:38" ht="12.75">
       <c r="A226" s="14"/>
       <c r="B226" s="17"/>
       <c r="C226" s="14"/>
@@ -13944,7 +13966,7 @@
       <c r="AK226" s="11"/>
       <c r="AL226" s="11"/>
     </row>
-    <row r="227" spans="1:38" ht="13.1">
+    <row r="227" spans="1:38" ht="12.75">
       <c r="A227" s="14"/>
       <c r="B227" s="17"/>
       <c r="C227" s="14"/>
@@ -13984,7 +14006,7 @@
       <c r="AK227" s="11"/>
       <c r="AL227" s="11"/>
     </row>
-    <row r="228" spans="1:38" ht="13.1">
+    <row r="228" spans="1:38" ht="12.75">
       <c r="A228" s="14"/>
       <c r="B228" s="17"/>
       <c r="C228" s="14"/>
@@ -14024,7 +14046,7 @@
       <c r="AK228" s="11"/>
       <c r="AL228" s="11"/>
     </row>
-    <row r="229" spans="1:38" ht="13.1">
+    <row r="229" spans="1:38" ht="12.75">
       <c r="A229" s="14"/>
       <c r="B229" s="17"/>
       <c r="C229" s="14"/>
@@ -14064,7 +14086,7 @@
       <c r="AK229" s="11"/>
       <c r="AL229" s="11"/>
     </row>
-    <row r="230" spans="1:38" ht="13.1">
+    <row r="230" spans="1:38" ht="12.75">
       <c r="A230" s="14"/>
       <c r="B230" s="17"/>
       <c r="C230" s="14"/>
@@ -14104,7 +14126,7 @@
       <c r="AK230" s="11"/>
       <c r="AL230" s="11"/>
     </row>
-    <row r="231" spans="1:38" ht="13.1">
+    <row r="231" spans="1:38" ht="12.75">
       <c r="A231" s="14"/>
       <c r="B231" s="17"/>
       <c r="C231" s="14"/>
@@ -14144,7 +14166,7 @@
       <c r="AK231" s="11"/>
       <c r="AL231" s="11"/>
     </row>
-    <row r="232" spans="1:38" ht="13.1">
+    <row r="232" spans="1:38" ht="12.75">
       <c r="A232" s="14"/>
       <c r="B232" s="17"/>
       <c r="C232" s="14"/>
@@ -14184,7 +14206,7 @@
       <c r="AK232" s="11"/>
       <c r="AL232" s="11"/>
     </row>
-    <row r="233" spans="1:38" ht="13.1">
+    <row r="233" spans="1:38" ht="12.75">
       <c r="A233" s="14"/>
       <c r="B233" s="17"/>
       <c r="C233" s="14"/>
@@ -14224,7 +14246,7 @@
       <c r="AK233" s="11"/>
       <c r="AL233" s="11"/>
     </row>
-    <row r="234" spans="1:38" ht="13.1">
+    <row r="234" spans="1:38" ht="12.75">
       <c r="A234" s="14"/>
       <c r="B234" s="17"/>
       <c r="C234" s="14"/>
@@ -14264,7 +14286,7 @@
       <c r="AK234" s="11"/>
       <c r="AL234" s="11"/>
     </row>
-    <row r="235" spans="1:38" ht="13.1">
+    <row r="235" spans="1:38" ht="12.75">
       <c r="A235" s="14"/>
       <c r="B235" s="17"/>
       <c r="C235" s="14"/>
@@ -14304,7 +14326,7 @@
       <c r="AK235" s="11"/>
       <c r="AL235" s="11"/>
     </row>
-    <row r="236" spans="1:38" ht="13.1">
+    <row r="236" spans="1:38" ht="12.75">
       <c r="A236" s="14"/>
       <c r="B236" s="17"/>
       <c r="C236" s="14"/>
@@ -14344,7 +14366,7 @@
       <c r="AK236" s="11"/>
       <c r="AL236" s="11"/>
     </row>
-    <row r="237" spans="1:38" ht="13.1">
+    <row r="237" spans="1:38" ht="12.75">
       <c r="A237" s="14"/>
       <c r="B237" s="17"/>
       <c r="C237" s="14"/>
@@ -14384,7 +14406,7 @@
       <c r="AK237" s="11"/>
       <c r="AL237" s="11"/>
     </row>
-    <row r="238" spans="1:38" ht="13.1">
+    <row r="238" spans="1:38" ht="12.75">
       <c r="A238" s="14"/>
       <c r="B238" s="17"/>
       <c r="C238" s="14"/>
@@ -14424,7 +14446,7 @@
       <c r="AK238" s="11"/>
       <c r="AL238" s="11"/>
     </row>
-    <row r="239" spans="1:38" ht="13.1">
+    <row r="239" spans="1:38" ht="12.75">
       <c r="A239" s="14"/>
       <c r="B239" s="17"/>
       <c r="C239" s="14"/>
@@ -14464,7 +14486,7 @@
       <c r="AK239" s="11"/>
       <c r="AL239" s="11"/>
     </row>
-    <row r="240" spans="1:38" ht="13.1">
+    <row r="240" spans="1:38" ht="12.75">
       <c r="A240" s="14"/>
       <c r="B240" s="17"/>
       <c r="C240" s="14"/>
@@ -14504,7 +14526,7 @@
       <c r="AK240" s="11"/>
       <c r="AL240" s="11"/>
     </row>
-    <row r="241" spans="1:38" ht="13.1">
+    <row r="241" spans="1:38" ht="12.75">
       <c r="A241" s="14"/>
       <c r="B241" s="17"/>
       <c r="C241" s="14"/>
@@ -14544,7 +14566,7 @@
       <c r="AK241" s="11"/>
       <c r="AL241" s="11"/>
     </row>
-    <row r="242" spans="1:38" ht="13.1">
+    <row r="242" spans="1:38" ht="12.75">
       <c r="A242" s="14"/>
       <c r="B242" s="17"/>
       <c r="C242" s="14"/>
@@ -14584,7 +14606,7 @@
       <c r="AK242" s="11"/>
       <c r="AL242" s="11"/>
     </row>
-    <row r="243" spans="1:38" ht="13.1">
+    <row r="243" spans="1:38" ht="12.75">
       <c r="A243" s="14"/>
       <c r="B243" s="17"/>
       <c r="C243" s="14"/>
@@ -14624,7 +14646,7 @@
       <c r="AK243" s="11"/>
       <c r="AL243" s="11"/>
     </row>
-    <row r="244" spans="1:38" ht="13.1">
+    <row r="244" spans="1:38" ht="12.75">
       <c r="A244" s="14"/>
       <c r="B244" s="17"/>
       <c r="C244" s="14"/>
@@ -14664,7 +14686,7 @@
       <c r="AK244" s="11"/>
       <c r="AL244" s="11"/>
     </row>
-    <row r="245" spans="1:38" ht="13.1">
+    <row r="245" spans="1:38" ht="12.75">
       <c r="A245" s="14"/>
       <c r="B245" s="17"/>
       <c r="C245" s="14"/>
@@ -14704,7 +14726,7 @@
       <c r="AK245" s="11"/>
       <c r="AL245" s="11"/>
     </row>
-    <row r="246" spans="1:38" ht="13.1">
+    <row r="246" spans="1:38" ht="12.75">
       <c r="A246" s="14"/>
       <c r="B246" s="17"/>
       <c r="C246" s="14"/>
@@ -14744,7 +14766,7 @@
       <c r="AK246" s="11"/>
       <c r="AL246" s="11"/>
     </row>
-    <row r="247" spans="1:38" ht="13.1">
+    <row r="247" spans="1:38" ht="12.75">
       <c r="A247" s="14"/>
       <c r="B247" s="17"/>
       <c r="C247" s="14"/>
@@ -14784,7 +14806,7 @@
       <c r="AK247" s="11"/>
       <c r="AL247" s="11"/>
     </row>
-    <row r="248" spans="1:38" ht="13.1">
+    <row r="248" spans="1:38" ht="12.75">
       <c r="A248" s="14"/>
       <c r="B248" s="17"/>
       <c r="C248" s="14"/>
@@ -14824,7 +14846,7 @@
       <c r="AK248" s="11"/>
       <c r="AL248" s="11"/>
     </row>
-    <row r="249" spans="1:38" ht="13.1">
+    <row r="249" spans="1:38" ht="12.75">
       <c r="A249" s="14"/>
       <c r="B249" s="17"/>
       <c r="C249" s="14"/>
@@ -14864,7 +14886,7 @@
       <c r="AK249" s="11"/>
       <c r="AL249" s="11"/>
     </row>
-    <row r="250" spans="1:38" ht="13.1">
+    <row r="250" spans="1:38" ht="12.75">
       <c r="A250" s="14"/>
       <c r="B250" s="17"/>
       <c r="C250" s="14"/>
@@ -14904,7 +14926,7 @@
       <c r="AK250" s="11"/>
       <c r="AL250" s="11"/>
     </row>
-    <row r="251" spans="1:38" ht="13.1">
+    <row r="251" spans="1:38" ht="12.75">
       <c r="A251" s="14"/>
       <c r="B251" s="17"/>
       <c r="C251" s="14"/>
@@ -14944,7 +14966,7 @@
       <c r="AK251" s="11"/>
       <c r="AL251" s="11"/>
     </row>
-    <row r="252" spans="1:38" ht="13.1">
+    <row r="252" spans="1:38" ht="12.75">
       <c r="A252" s="14"/>
       <c r="B252" s="17"/>
       <c r="C252" s="14"/>
@@ -14984,7 +15006,7 @@
       <c r="AK252" s="11"/>
       <c r="AL252" s="11"/>
     </row>
-    <row r="253" spans="1:38" ht="13.1">
+    <row r="253" spans="1:38" ht="12.75">
       <c r="A253" s="14"/>
       <c r="B253" s="17"/>
       <c r="C253" s="14"/>
@@ -15024,7 +15046,7 @@
       <c r="AK253" s="11"/>
       <c r="AL253" s="11"/>
     </row>
-    <row r="254" spans="1:38" ht="13.1">
+    <row r="254" spans="1:38" ht="12.75">
       <c r="A254" s="14"/>
       <c r="B254" s="17"/>
       <c r="C254" s="14"/>
@@ -15064,7 +15086,7 @@
       <c r="AK254" s="11"/>
       <c r="AL254" s="11"/>
     </row>
-    <row r="255" spans="1:38" ht="13.1">
+    <row r="255" spans="1:38" ht="12.75">
       <c r="A255" s="14"/>
       <c r="B255" s="17"/>
       <c r="C255" s="14"/>
@@ -15104,7 +15126,7 @@
       <c r="AK255" s="11"/>
       <c r="AL255" s="11"/>
     </row>
-    <row r="256" spans="1:38" ht="13.1">
+    <row r="256" spans="1:38" ht="12.75">
       <c r="A256" s="14"/>
       <c r="B256" s="17"/>
       <c r="C256" s="14"/>
@@ -15144,7 +15166,7 @@
       <c r="AK256" s="11"/>
       <c r="AL256" s="11"/>
     </row>
-    <row r="257" spans="1:38" ht="13.1">
+    <row r="257" spans="1:38" ht="12.75">
       <c r="A257" s="14"/>
       <c r="B257" s="17"/>
       <c r="C257" s="14"/>
@@ -15184,7 +15206,7 @@
       <c r="AK257" s="11"/>
       <c r="AL257" s="11"/>
     </row>
-    <row r="258" spans="1:38" ht="13.1">
+    <row r="258" spans="1:38" ht="12.75">
       <c r="A258" s="14"/>
       <c r="B258" s="25"/>
       <c r="C258" s="14"/>
@@ -15224,7 +15246,7 @@
       <c r="AK258" s="11"/>
       <c r="AL258" s="11"/>
     </row>
-    <row r="259" spans="1:38" ht="13.1">
+    <row r="259" spans="1:38" ht="12.75">
       <c r="A259" s="14"/>
       <c r="B259" s="25"/>
       <c r="C259" s="14"/>
@@ -15264,7 +15286,7 @@
       <c r="AK259" s="11"/>
       <c r="AL259" s="11"/>
     </row>
-    <row r="260" spans="1:38" ht="13.1">
+    <row r="260" spans="1:38" ht="12.75">
       <c r="A260" s="14"/>
       <c r="B260" s="25"/>
       <c r="C260" s="14"/>
@@ -15304,7 +15326,7 @@
       <c r="AK260" s="11"/>
       <c r="AL260" s="11"/>
     </row>
-    <row r="261" spans="1:38" ht="13.1">
+    <row r="261" spans="1:38" ht="12.75">
       <c r="A261" s="14"/>
       <c r="B261" s="17"/>
       <c r="C261" s="14"/>
@@ -15344,7 +15366,7 @@
       <c r="AK261" s="11"/>
       <c r="AL261" s="11"/>
     </row>
-    <row r="262" spans="1:38" ht="13.1">
+    <row r="262" spans="1:38" ht="12.75">
       <c r="A262" s="14"/>
       <c r="B262" s="17"/>
       <c r="C262" s="14"/>
@@ -15384,7 +15406,7 @@
       <c r="AK262" s="11"/>
       <c r="AL262" s="11"/>
     </row>
-    <row r="263" spans="1:38" ht="13.1">
+    <row r="263" spans="1:38" ht="12.75">
       <c r="A263" s="14"/>
       <c r="B263" s="17"/>
       <c r="C263" s="14"/>
@@ -15424,7 +15446,7 @@
       <c r="AK263" s="11"/>
       <c r="AL263" s="11"/>
     </row>
-    <row r="264" spans="1:38" ht="13.1">
+    <row r="264" spans="1:38" ht="12.75">
       <c r="A264" s="14"/>
       <c r="B264" s="25"/>
       <c r="C264" s="14"/>
@@ -15464,7 +15486,7 @@
       <c r="AK264" s="11"/>
       <c r="AL264" s="11"/>
     </row>
-    <row r="265" spans="1:38" ht="13.1">
+    <row r="265" spans="1:38" ht="12.75">
       <c r="A265" s="14"/>
       <c r="B265" s="25"/>
       <c r="C265" s="14"/>
@@ -15504,7 +15526,7 @@
       <c r="AK265" s="11"/>
       <c r="AL265" s="11"/>
     </row>
-    <row r="266" spans="1:38" ht="13.1">
+    <row r="266" spans="1:38" ht="12.75">
       <c r="A266" s="14"/>
       <c r="B266" s="17"/>
       <c r="C266" s="14"/>
@@ -15544,7 +15566,7 @@
       <c r="AK266" s="11"/>
       <c r="AL266" s="11"/>
     </row>
-    <row r="267" spans="1:38" ht="13.1">
+    <row r="267" spans="1:38" ht="12.75">
       <c r="A267" s="14"/>
       <c r="B267" s="17"/>
       <c r="C267" s="14"/>
@@ -15584,7 +15606,7 @@
       <c r="AK267" s="11"/>
       <c r="AL267" s="11"/>
     </row>
-    <row r="268" spans="1:38" ht="13.1">
+    <row r="268" spans="1:38" ht="12.75">
       <c r="A268" s="14"/>
       <c r="B268" s="17"/>
       <c r="C268" s="14"/>
@@ -15624,7 +15646,7 @@
       <c r="AK268" s="11"/>
       <c r="AL268" s="11"/>
     </row>
-    <row r="269" spans="1:38" ht="13.1">
+    <row r="269" spans="1:38" ht="12.75">
       <c r="A269" s="14"/>
       <c r="B269" s="17"/>
       <c r="C269" s="14"/>
@@ -15664,7 +15686,7 @@
       <c r="AK269" s="11"/>
       <c r="AL269" s="11"/>
     </row>
-    <row r="270" spans="1:38" ht="13.1">
+    <row r="270" spans="1:38" ht="12.75">
       <c r="A270" s="14"/>
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
@@ -15704,7 +15726,7 @@
       <c r="AK270" s="11"/>
       <c r="AL270" s="11"/>
     </row>
-    <row r="271" spans="1:38" ht="13.1">
+    <row r="271" spans="1:38" ht="12.75">
       <c r="A271" s="14"/>
       <c r="B271" s="17"/>
       <c r="C271" s="14"/>
@@ -15744,7 +15766,7 @@
       <c r="AK271" s="11"/>
       <c r="AL271" s="11"/>
     </row>
-    <row r="272" spans="1:38" ht="13.1">
+    <row r="272" spans="1:38" ht="12.75">
       <c r="A272" s="14"/>
       <c r="B272" s="17"/>
       <c r="C272" s="14"/>
@@ -15784,7 +15806,7 @@
       <c r="AK272" s="11"/>
       <c r="AL272" s="11"/>
     </row>
-    <row r="273" spans="1:38" ht="13.1">
+    <row r="273" spans="1:38" ht="12.75">
       <c r="A273" s="14"/>
       <c r="B273" s="17"/>
       <c r="C273" s="14"/>
@@ -15824,7 +15846,7 @@
       <c r="AK273" s="11"/>
       <c r="AL273" s="11"/>
     </row>
-    <row r="274" spans="1:38" ht="13.1">
+    <row r="274" spans="1:38" ht="12.75">
       <c r="A274" s="14"/>
       <c r="B274" s="17"/>
       <c r="C274" s="14"/>
@@ -15864,7 +15886,7 @@
       <c r="AK274" s="11"/>
       <c r="AL274" s="11"/>
     </row>
-    <row r="275" spans="1:38" ht="13.1">
+    <row r="275" spans="1:38" ht="12.75">
       <c r="A275" s="14"/>
       <c r="B275" s="17"/>
       <c r="C275" s="14"/>
@@ -15904,7 +15926,7 @@
       <c r="AK275" s="11"/>
       <c r="AL275" s="11"/>
     </row>
-    <row r="276" spans="1:38" ht="13.1">
+    <row r="276" spans="1:38" ht="12.75">
       <c r="A276" s="14"/>
       <c r="B276" s="17"/>
       <c r="C276" s="14"/>
@@ -15944,7 +15966,7 @@
       <c r="AK276" s="11"/>
       <c r="AL276" s="11"/>
     </row>
-    <row r="277" spans="1:38" ht="13.1">
+    <row r="277" spans="1:38" ht="12.75">
       <c r="A277" s="14"/>
       <c r="B277" s="17"/>
       <c r="C277" s="14"/>
@@ -15984,7 +16006,7 @@
       <c r="AK277" s="11"/>
       <c r="AL277" s="11"/>
     </row>
-    <row r="278" spans="1:38" ht="13.1">
+    <row r="278" spans="1:38" ht="12.75">
       <c r="A278" s="14"/>
       <c r="B278" s="17"/>
       <c r="C278" s="14"/>
@@ -16024,7 +16046,7 @@
       <c r="AK278" s="11"/>
       <c r="AL278" s="11"/>
     </row>
-    <row r="279" spans="1:38" ht="13.1">
+    <row r="279" spans="1:38" ht="12.75">
       <c r="A279" s="14"/>
       <c r="B279" s="17"/>
       <c r="C279" s="14"/>
@@ -16064,7 +16086,7 @@
       <c r="AK279" s="11"/>
       <c r="AL279" s="11"/>
     </row>
-    <row r="280" spans="1:38" ht="13.1">
+    <row r="280" spans="1:38" ht="12.75">
       <c r="A280" s="14"/>
       <c r="B280" s="17"/>
       <c r="C280" s="14"/>
@@ -16104,7 +16126,7 @@
       <c r="AK280" s="11"/>
       <c r="AL280" s="11"/>
     </row>
-    <row r="281" spans="1:38" ht="13.1">
+    <row r="281" spans="1:38" ht="12.75">
       <c r="A281" s="14"/>
       <c r="B281" s="17"/>
       <c r="C281" s="14"/>
@@ -16144,7 +16166,7 @@
       <c r="AK281" s="11"/>
       <c r="AL281" s="11"/>
     </row>
-    <row r="282" spans="1:38" ht="13.1">
+    <row r="282" spans="1:38" ht="12.75">
       <c r="A282" s="14"/>
       <c r="B282" s="25"/>
       <c r="C282" s="14"/>
@@ -16184,7 +16206,7 @@
       <c r="AK282" s="11"/>
       <c r="AL282" s="11"/>
     </row>
-    <row r="283" spans="1:38" ht="13.1">
+    <row r="283" spans="1:38" ht="12.75">
       <c r="A283" s="14"/>
       <c r="B283" s="25"/>
       <c r="C283" s="14"/>
@@ -16224,7 +16246,7 @@
       <c r="AK283" s="11"/>
       <c r="AL283" s="11"/>
     </row>
-    <row r="284" spans="1:38" ht="13.1">
+    <row r="284" spans="1:38" ht="12.75">
       <c r="A284" s="14"/>
       <c r="B284" s="76"/>
       <c r="C284" s="66"/>
@@ -16264,7 +16286,7 @@
       <c r="AK284" s="64"/>
       <c r="AL284" s="64"/>
     </row>
-    <row r="285" spans="1:38" ht="13.1">
+    <row r="285" spans="1:38" ht="12.75">
       <c r="A285" s="14"/>
       <c r="B285" s="17"/>
       <c r="C285" s="14"/>
@@ -16304,7 +16326,7 @@
       <c r="AK285" s="11"/>
       <c r="AL285" s="11"/>
     </row>
-    <row r="286" spans="1:38" ht="13.1">
+    <row r="286" spans="1:38" ht="12.75">
       <c r="A286" s="14"/>
       <c r="B286" s="17"/>
       <c r="C286" s="14"/>
@@ -16344,7 +16366,7 @@
       <c r="AK286" s="11"/>
       <c r="AL286" s="11"/>
     </row>
-    <row r="287" spans="1:38" ht="13.1">
+    <row r="287" spans="1:38" ht="12.75">
       <c r="A287" s="14"/>
       <c r="B287" s="17"/>
       <c r="C287" s="14"/>
@@ -16384,7 +16406,7 @@
       <c r="AK287" s="11"/>
       <c r="AL287" s="11"/>
     </row>
-    <row r="288" spans="1:38" ht="13.1">
+    <row r="288" spans="1:38" ht="12.75">
       <c r="A288" s="14"/>
       <c r="B288" s="17"/>
       <c r="C288" s="14"/>
@@ -16424,7 +16446,7 @@
       <c r="AK288" s="11"/>
       <c r="AL288" s="11"/>
     </row>
-    <row r="289" spans="1:38" ht="13.1">
+    <row r="289" spans="1:38" ht="12.75">
       <c r="A289" s="14"/>
       <c r="B289" s="17"/>
       <c r="C289" s="14"/>
@@ -16464,7 +16486,7 @@
       <c r="AK289" s="11"/>
       <c r="AL289" s="11"/>
     </row>
-    <row r="290" spans="1:38" ht="13.1">
+    <row r="290" spans="1:38" ht="12.75">
       <c r="A290" s="14"/>
       <c r="B290" s="17"/>
       <c r="C290" s="14"/>
@@ -16504,7 +16526,7 @@
       <c r="AK290" s="11"/>
       <c r="AL290" s="11"/>
     </row>
-    <row r="291" spans="1:38" ht="13.1">
+    <row r="291" spans="1:38" ht="12.75">
       <c r="A291" s="14"/>
       <c r="B291" s="25"/>
       <c r="C291" s="14"/>
@@ -16544,7 +16566,7 @@
       <c r="AK291" s="11"/>
       <c r="AL291" s="11"/>
     </row>
-    <row r="292" spans="1:38" ht="13.1">
+    <row r="292" spans="1:38" ht="12.75">
       <c r="A292" s="14"/>
       <c r="B292" s="17"/>
       <c r="C292" s="14"/>
@@ -16584,7 +16606,7 @@
       <c r="AK292" s="11"/>
       <c r="AL292" s="11"/>
     </row>
-    <row r="293" spans="1:38" ht="13.1">
+    <row r="293" spans="1:38" ht="12.75">
       <c r="A293" s="14"/>
       <c r="B293" s="17"/>
       <c r="C293" s="14"/>
@@ -16624,7 +16646,7 @@
       <c r="AK293" s="11"/>
       <c r="AL293" s="11"/>
     </row>
-    <row r="294" spans="1:38" ht="13.1">
+    <row r="294" spans="1:38" ht="12.75">
       <c r="A294" s="14"/>
       <c r="B294" s="17"/>
       <c r="C294" s="14"/>
@@ -16664,7 +16686,7 @@
       <c r="AK294" s="11"/>
       <c r="AL294" s="11"/>
     </row>
-    <row r="295" spans="1:38" ht="13.1">
+    <row r="295" spans="1:38" ht="12.75">
       <c r="A295" s="32"/>
       <c r="B295" s="32"/>
       <c r="C295" s="32"/>
@@ -16704,7 +16726,7 @@
       <c r="AK295" s="11"/>
       <c r="AL295" s="11"/>
     </row>
-    <row r="296" spans="1:38" ht="13.1">
+    <row r="296" spans="1:38" ht="12.75">
       <c r="A296" s="14"/>
       <c r="B296" s="84"/>
       <c r="C296" s="14"/>
@@ -16744,7 +16766,7 @@
       <c r="AK296" s="84"/>
       <c r="AL296" s="84"/>
     </row>
-    <row r="297" spans="1:38" ht="13.1">
+    <row r="297" spans="1:38" ht="12.75">
       <c r="A297" s="14"/>
       <c r="B297" s="17"/>
       <c r="C297" s="14"/>
@@ -16784,7 +16806,7 @@
       <c r="AK297" s="11"/>
       <c r="AL297" s="11"/>
     </row>
-    <row r="298" spans="1:38" ht="13.1">
+    <row r="298" spans="1:38" ht="12.75">
       <c r="A298" s="14"/>
       <c r="B298" s="17"/>
       <c r="C298" s="17"/>
@@ -16824,7 +16846,7 @@
       <c r="AK298" s="11"/>
       <c r="AL298" s="11"/>
     </row>
-    <row r="299" spans="1:38" ht="13.1">
+    <row r="299" spans="1:38" ht="12.75">
       <c r="A299" s="14"/>
       <c r="B299" s="17"/>
       <c r="C299" s="14"/>
@@ -16864,7 +16886,7 @@
       <c r="AK299" s="11"/>
       <c r="AL299" s="11"/>
     </row>
-    <row r="300" spans="1:38" ht="15.05">
+    <row r="300" spans="1:38" ht="15">
       <c r="A300" s="14"/>
       <c r="B300" s="85"/>
       <c r="C300" s="14"/>
@@ -16904,7 +16926,7 @@
       <c r="AK300" s="11"/>
       <c r="AL300" s="11"/>
     </row>
-    <row r="301" spans="1:38" ht="13.1">
+    <row r="301" spans="1:38" ht="12.75">
       <c r="A301" s="14"/>
       <c r="B301" s="17"/>
       <c r="C301" s="14"/>
@@ -16944,7 +16966,7 @@
       <c r="AK301" s="11"/>
       <c r="AL301" s="11"/>
     </row>
-    <row r="302" spans="1:38" ht="13.1">
+    <row r="302" spans="1:38" ht="12.75">
       <c r="A302" s="14"/>
       <c r="B302" s="17"/>
       <c r="C302" s="14"/>
@@ -16984,7 +17006,7 @@
       <c r="AK302" s="11"/>
       <c r="AL302" s="11"/>
     </row>
-    <row r="303" spans="1:38" ht="13.1">
+    <row r="303" spans="1:38" ht="12.75">
       <c r="A303" s="14"/>
       <c r="B303" s="17"/>
       <c r="C303" s="14"/>
@@ -17024,7 +17046,7 @@
       <c r="AK303" s="11"/>
       <c r="AL303" s="11"/>
     </row>
-    <row r="304" spans="1:38" ht="13.1">
+    <row r="304" spans="1:38" ht="12.75">
       <c r="A304" s="14"/>
       <c r="B304" s="17"/>
       <c r="C304" s="14"/>
@@ -17064,7 +17086,7 @@
       <c r="AK304" s="11"/>
       <c r="AL304" s="11"/>
     </row>
-    <row r="305" spans="1:38" ht="13.1">
+    <row r="305" spans="1:38" ht="12.75">
       <c r="A305" s="14"/>
       <c r="B305" s="17"/>
       <c r="C305" s="14"/>
@@ -17104,7 +17126,7 @@
       <c r="AK305" s="11"/>
       <c r="AL305" s="11"/>
     </row>
-    <row r="306" spans="1:38" ht="13.1">
+    <row r="306" spans="1:38" ht="12.75">
       <c r="A306" s="14"/>
       <c r="B306" s="17"/>
       <c r="C306" s="14"/>
@@ -17144,7 +17166,7 @@
       <c r="AK306" s="11"/>
       <c r="AL306" s="11"/>
     </row>
-    <row r="307" spans="1:38" ht="13.1">
+    <row r="307" spans="1:38" ht="12.75">
       <c r="A307" s="14"/>
       <c r="B307" s="17"/>
       <c r="C307" s="14"/>
@@ -17184,7 +17206,7 @@
       <c r="AK307" s="11"/>
       <c r="AL307" s="11"/>
     </row>
-    <row r="308" spans="1:38" ht="13.1">
+    <row r="308" spans="1:38" ht="12.75">
       <c r="A308" s="14"/>
       <c r="B308" s="17"/>
       <c r="C308" s="14"/>
@@ -17224,7 +17246,7 @@
       <c r="AK308" s="11"/>
       <c r="AL308" s="11"/>
     </row>
-    <row r="309" spans="1:38" ht="13.1">
+    <row r="309" spans="1:38" ht="12.75">
       <c r="A309" s="14"/>
       <c r="B309" s="17"/>
       <c r="C309" s="14"/>
@@ -17264,7 +17286,7 @@
       <c r="AK309" s="11"/>
       <c r="AL309" s="11"/>
     </row>
-    <row r="310" spans="1:38" ht="13.1">
+    <row r="310" spans="1:38" ht="12.75">
       <c r="A310" s="14"/>
       <c r="B310" s="17"/>
       <c r="C310" s="14"/>
@@ -17304,7 +17326,7 @@
       <c r="AK310" s="11"/>
       <c r="AL310" s="11"/>
     </row>
-    <row r="311" spans="1:38" ht="13.1">
+    <row r="311" spans="1:38" ht="12.75">
       <c r="A311" s="14"/>
       <c r="B311" s="17"/>
       <c r="C311" s="14"/>
@@ -17344,7 +17366,7 @@
       <c r="AK311" s="11"/>
       <c r="AL311" s="11"/>
     </row>
-    <row r="312" spans="1:38" ht="13.1">
+    <row r="312" spans="1:38" ht="12.75">
       <c r="A312" s="17"/>
       <c r="B312" s="17"/>
       <c r="C312" s="17"/>
@@ -17384,7 +17406,7 @@
       <c r="AK312" s="11"/>
       <c r="AL312" s="11"/>
     </row>
-    <row r="313" spans="1:38" ht="13.1">
+    <row r="313" spans="1:38" ht="12.75">
       <c r="A313" s="17"/>
       <c r="B313" s="17"/>
       <c r="C313" s="17"/>
@@ -17424,7 +17446,7 @@
       <c r="AK313" s="11"/>
       <c r="AL313" s="11"/>
     </row>
-    <row r="314" spans="1:38" ht="13.1">
+    <row r="314" spans="1:38" ht="12.75">
       <c r="A314" s="17"/>
       <c r="B314" s="17"/>
       <c r="C314" s="17"/>
@@ -17464,7 +17486,7 @@
       <c r="AK314" s="11"/>
       <c r="AL314" s="11"/>
     </row>
-    <row r="315" spans="1:38" ht="13.1">
+    <row r="315" spans="1:38" ht="12.75">
       <c r="A315" s="17"/>
       <c r="B315" s="17"/>
       <c r="C315" s="17"/>
@@ -17504,7 +17526,7 @@
       <c r="AK315" s="11"/>
       <c r="AL315" s="11"/>
     </row>
-    <row r="316" spans="1:38" ht="13.1">
+    <row r="316" spans="1:38" ht="12.75">
       <c r="A316" s="17"/>
       <c r="B316" s="17"/>
       <c r="C316" s="17"/>
@@ -17544,7 +17566,7 @@
       <c r="AK316" s="11"/>
       <c r="AL316" s="11"/>
     </row>
-    <row r="317" spans="1:38" ht="13.1">
+    <row r="317" spans="1:38" ht="12.75">
       <c r="A317" s="17"/>
       <c r="B317" s="17"/>
       <c r="C317" s="17"/>
@@ -17584,7 +17606,7 @@
       <c r="AK317" s="11"/>
       <c r="AL317" s="11"/>
     </row>
-    <row r="318" spans="1:38" ht="13.1">
+    <row r="318" spans="1:38" ht="12.75">
       <c r="A318" s="17"/>
       <c r="B318" s="17"/>
       <c r="C318" s="17"/>
@@ -17624,7 +17646,7 @@
       <c r="AK318" s="11"/>
       <c r="AL318" s="11"/>
     </row>
-    <row r="319" spans="1:38" ht="13.1">
+    <row r="319" spans="1:38" ht="12.75">
       <c r="A319" s="17"/>
       <c r="B319" s="17"/>
       <c r="C319" s="17"/>
@@ -17664,7 +17686,7 @@
       <c r="AK319" s="11"/>
       <c r="AL319" s="11"/>
     </row>
-    <row r="320" spans="1:38" ht="13.1">
+    <row r="320" spans="1:38" ht="12.75">
       <c r="A320" s="17"/>
       <c r="B320" s="17"/>
       <c r="C320" s="17"/>
@@ -17704,7 +17726,7 @@
       <c r="AK320" s="11"/>
       <c r="AL320" s="11"/>
     </row>
-    <row r="321" spans="1:38" ht="13.1">
+    <row r="321" spans="1:38" ht="12.75">
       <c r="A321" s="17"/>
       <c r="B321" s="17"/>
       <c r="C321" s="17"/>
@@ -17744,7 +17766,7 @@
       <c r="AK321" s="11"/>
       <c r="AL321" s="11"/>
     </row>
-    <row r="322" spans="1:38" ht="13.1">
+    <row r="322" spans="1:38" ht="12.75">
       <c r="A322" s="17"/>
       <c r="B322" s="17"/>
       <c r="C322" s="17"/>
@@ -17784,7 +17806,7 @@
       <c r="AK322" s="11"/>
       <c r="AL322" s="11"/>
     </row>
-    <row r="323" spans="1:38" ht="13.1">
+    <row r="323" spans="1:38" ht="12.75">
       <c r="A323" s="17"/>
       <c r="B323" s="17"/>
       <c r="C323" s="17"/>
@@ -17824,7 +17846,7 @@
       <c r="AK323" s="11"/>
       <c r="AL323" s="11"/>
     </row>
-    <row r="324" spans="1:38" ht="13.1">
+    <row r="324" spans="1:38" ht="12.75">
       <c r="A324" s="17"/>
       <c r="B324" s="17"/>
       <c r="C324" s="17"/>
@@ -17864,7 +17886,7 @@
       <c r="AK324" s="11"/>
       <c r="AL324" s="11"/>
     </row>
-    <row r="325" spans="1:38" ht="13.1">
+    <row r="325" spans="1:38" ht="12.75">
       <c r="A325" s="17"/>
       <c r="B325" s="17"/>
       <c r="C325" s="17"/>
@@ -17904,7 +17926,7 @@
       <c r="AK325" s="11"/>
       <c r="AL325" s="11"/>
     </row>
-    <row r="326" spans="1:38" ht="13.1">
+    <row r="326" spans="1:38" ht="12.75">
       <c r="A326" s="17"/>
       <c r="B326" s="17"/>
       <c r="C326" s="17"/>
@@ -17944,7 +17966,7 @@
       <c r="AK326" s="11"/>
       <c r="AL326" s="11"/>
     </row>
-    <row r="327" spans="1:38" ht="13.1">
+    <row r="327" spans="1:38" ht="12.75">
       <c r="A327" s="17"/>
       <c r="B327" s="17"/>
       <c r="C327" s="17"/>
@@ -17984,7 +18006,7 @@
       <c r="AK327" s="11"/>
       <c r="AL327" s="11"/>
     </row>
-    <row r="328" spans="1:38" ht="13.1">
+    <row r="328" spans="1:38" ht="12.75">
       <c r="A328" s="17"/>
       <c r="B328" s="17"/>
       <c r="C328" s="17"/>
@@ -18024,7 +18046,7 @@
       <c r="AK328" s="11"/>
       <c r="AL328" s="11"/>
     </row>
-    <row r="329" spans="1:38" ht="13.1">
+    <row r="329" spans="1:38" ht="12.75">
       <c r="A329" s="17"/>
       <c r="B329" s="17"/>
       <c r="C329" s="17"/>
@@ -18064,7 +18086,7 @@
       <c r="AK329" s="11"/>
       <c r="AL329" s="11"/>
     </row>
-    <row r="330" spans="1:38" ht="13.1">
+    <row r="330" spans="1:38" ht="12.75">
       <c r="A330" s="17"/>
       <c r="B330" s="17"/>
       <c r="C330" s="17"/>
@@ -18104,7 +18126,7 @@
       <c r="AK330" s="11"/>
       <c r="AL330" s="11"/>
     </row>
-    <row r="331" spans="1:38" ht="13.1">
+    <row r="331" spans="1:38" ht="12.75">
       <c r="A331" s="17"/>
       <c r="B331" s="17"/>
       <c r="C331" s="17"/>
@@ -18144,7 +18166,7 @@
       <c r="AK331" s="11"/>
       <c r="AL331" s="11"/>
     </row>
-    <row r="332" spans="1:38" ht="13.1">
+    <row r="332" spans="1:38" ht="12.75">
       <c r="A332" s="17"/>
       <c r="B332" s="17"/>
       <c r="C332" s="17"/>
@@ -18184,7 +18206,7 @@
       <c r="AK332" s="11"/>
       <c r="AL332" s="11"/>
     </row>
-    <row r="333" spans="1:38" ht="13.1">
+    <row r="333" spans="1:38" ht="12.75">
       <c r="A333" s="17"/>
       <c r="B333" s="17"/>
       <c r="C333" s="17"/>
@@ -18224,7 +18246,7 @@
       <c r="AK333" s="11"/>
       <c r="AL333" s="11"/>
     </row>
-    <row r="334" spans="1:38" ht="13.1">
+    <row r="334" spans="1:38" ht="12.75">
       <c r="A334" s="17"/>
       <c r="B334" s="17"/>
       <c r="C334" s="17"/>
@@ -18264,7 +18286,7 @@
       <c r="AK334" s="11"/>
       <c r="AL334" s="11"/>
     </row>
-    <row r="335" spans="1:38" ht="13.1">
+    <row r="335" spans="1:38" ht="12.75">
       <c r="A335" s="17"/>
       <c r="B335" s="17"/>
       <c r="C335" s="17"/>
@@ -18304,7 +18326,7 @@
       <c r="AK335" s="11"/>
       <c r="AL335" s="11"/>
     </row>
-    <row r="336" spans="1:38" ht="13.1">
+    <row r="336" spans="1:38" ht="12.75">
       <c r="A336" s="17"/>
       <c r="B336" s="17"/>
       <c r="C336" s="17"/>
@@ -18344,7 +18366,7 @@
       <c r="AK336" s="11"/>
       <c r="AL336" s="11"/>
     </row>
-    <row r="337" spans="1:38" ht="13.1">
+    <row r="337" spans="1:38" ht="12.75">
       <c r="A337" s="17"/>
       <c r="B337" s="17"/>
       <c r="C337" s="17"/>
@@ -18384,7 +18406,7 @@
       <c r="AK337" s="11"/>
       <c r="AL337" s="11"/>
     </row>
-    <row r="338" spans="1:38" ht="13.1">
+    <row r="338" spans="1:38" ht="12.75">
       <c r="A338" s="17"/>
       <c r="B338" s="17"/>
       <c r="C338" s="17"/>
@@ -18424,7 +18446,7 @@
       <c r="AK338" s="11"/>
       <c r="AL338" s="11"/>
     </row>
-    <row r="339" spans="1:38" ht="13.1">
+    <row r="339" spans="1:38" ht="12.75">
       <c r="A339" s="17"/>
       <c r="B339" s="17"/>
       <c r="C339" s="17"/>
@@ -18464,7 +18486,7 @@
       <c r="AK339" s="11"/>
       <c r="AL339" s="11"/>
     </row>
-    <row r="340" spans="1:38" ht="13.1">
+    <row r="340" spans="1:38" ht="12.75">
       <c r="A340" s="17"/>
       <c r="B340" s="17"/>
       <c r="C340" s="17"/>
@@ -18504,7 +18526,7 @@
       <c r="AK340" s="11"/>
       <c r="AL340" s="11"/>
     </row>
-    <row r="341" spans="1:38" ht="13.1">
+    <row r="341" spans="1:38" ht="12.75">
       <c r="A341" s="17"/>
       <c r="B341" s="17"/>
       <c r="C341" s="17"/>
@@ -18544,7 +18566,7 @@
       <c r="AK341" s="11"/>
       <c r="AL341" s="11"/>
     </row>
-    <row r="342" spans="1:38" ht="13.1">
+    <row r="342" spans="1:38" ht="12.75">
       <c r="A342" s="17"/>
       <c r="B342" s="17"/>
       <c r="C342" s="17"/>
@@ -18584,7 +18606,7 @@
       <c r="AK342" s="11"/>
       <c r="AL342" s="11"/>
     </row>
-    <row r="343" spans="1:38" ht="13.1">
+    <row r="343" spans="1:38" ht="12.75">
       <c r="A343" s="17"/>
       <c r="B343" s="17"/>
       <c r="C343" s="17"/>
@@ -18624,7 +18646,7 @@
       <c r="AK343" s="11"/>
       <c r="AL343" s="11"/>
     </row>
-    <row r="344" spans="1:38" ht="13.1">
+    <row r="344" spans="1:38" ht="12.75">
       <c r="A344" s="17"/>
       <c r="B344" s="17"/>
       <c r="C344" s="17"/>
@@ -18664,7 +18686,7 @@
       <c r="AK344" s="11"/>
       <c r="AL344" s="11"/>
     </row>
-    <row r="345" spans="1:38" ht="13.1">
+    <row r="345" spans="1:38" ht="12.75">
       <c r="A345" s="17"/>
       <c r="B345" s="17"/>
       <c r="C345" s="17"/>
@@ -18704,7 +18726,7 @@
       <c r="AK345" s="11"/>
       <c r="AL345" s="11"/>
     </row>
-    <row r="346" spans="1:38" ht="13.1">
+    <row r="346" spans="1:38" ht="12.75">
       <c r="A346" s="17"/>
       <c r="B346" s="17"/>
       <c r="C346" s="17"/>
@@ -18744,7 +18766,7 @@
       <c r="AK346" s="11"/>
       <c r="AL346" s="11"/>
     </row>
-    <row r="347" spans="1:38" ht="13.1">
+    <row r="347" spans="1:38" ht="12.75">
       <c r="A347" s="17"/>
       <c r="B347" s="17"/>
       <c r="C347" s="17"/>
@@ -18784,7 +18806,7 @@
       <c r="AK347" s="11"/>
       <c r="AL347" s="11"/>
     </row>
-    <row r="348" spans="1:38" ht="13.1">
+    <row r="348" spans="1:38" ht="12.75">
       <c r="A348" s="17"/>
       <c r="B348" s="17"/>
       <c r="C348" s="17"/>
@@ -18824,7 +18846,7 @@
       <c r="AK348" s="11"/>
       <c r="AL348" s="11"/>
     </row>
-    <row r="349" spans="1:38" ht="13.1">
+    <row r="349" spans="1:38" ht="12.75">
       <c r="A349" s="17"/>
       <c r="B349" s="17"/>
       <c r="C349" s="17"/>
@@ -18864,7 +18886,7 @@
       <c r="AK349" s="11"/>
       <c r="AL349" s="11"/>
     </row>
-    <row r="350" spans="1:38" ht="13.1">
+    <row r="350" spans="1:38" ht="12.75">
       <c r="A350" s="17"/>
       <c r="B350" s="17"/>
       <c r="C350" s="17"/>
@@ -18904,7 +18926,7 @@
       <c r="AK350" s="11"/>
       <c r="AL350" s="11"/>
     </row>
-    <row r="351" spans="1:38" ht="13.1">
+    <row r="351" spans="1:38" ht="12.75">
       <c r="A351" s="17"/>
       <c r="B351" s="17"/>
       <c r="C351" s="17"/>
@@ -18944,7 +18966,7 @@
       <c r="AK351" s="11"/>
       <c r="AL351" s="11"/>
     </row>
-    <row r="352" spans="1:38" ht="13.1">
+    <row r="352" spans="1:38" ht="12.75">
       <c r="A352" s="17"/>
       <c r="B352" s="17"/>
       <c r="C352" s="17"/>
@@ -18984,7 +19006,7 @@
       <c r="AK352" s="11"/>
       <c r="AL352" s="11"/>
     </row>
-    <row r="353" spans="1:38" ht="13.1">
+    <row r="353" spans="1:38" ht="12.75">
       <c r="A353" s="17"/>
       <c r="B353" s="17"/>
       <c r="C353" s="17"/>
@@ -19024,7 +19046,7 @@
       <c r="AK353" s="11"/>
       <c r="AL353" s="11"/>
     </row>
-    <row r="354" spans="1:38" ht="13.1">
+    <row r="354" spans="1:38" ht="12.75">
       <c r="A354" s="17"/>
       <c r="B354" s="17"/>
       <c r="C354" s="17"/>
@@ -19064,7 +19086,7 @@
       <c r="AK354" s="11"/>
       <c r="AL354" s="11"/>
     </row>
-    <row r="355" spans="1:38" ht="13.1">
+    <row r="355" spans="1:38" ht="12.75">
       <c r="A355" s="17"/>
       <c r="B355" s="17"/>
       <c r="C355" s="17"/>
@@ -19104,7 +19126,7 @@
       <c r="AK355" s="11"/>
       <c r="AL355" s="11"/>
     </row>
-    <row r="356" spans="1:38" ht="13.1">
+    <row r="356" spans="1:38" ht="12.75">
       <c r="A356" s="17"/>
       <c r="B356" s="17"/>
       <c r="C356" s="17"/>
@@ -19144,7 +19166,7 @@
       <c r="AK356" s="11"/>
       <c r="AL356" s="11"/>
     </row>
-    <row r="357" spans="1:38" ht="13.1">
+    <row r="357" spans="1:38" ht="12.75">
       <c r="A357" s="17"/>
       <c r="B357" s="17"/>
       <c r="C357" s="17"/>
@@ -19184,7 +19206,7 @@
       <c r="AK357" s="11"/>
       <c r="AL357" s="11"/>
     </row>
-    <row r="358" spans="1:38" ht="13.1">
+    <row r="358" spans="1:38" ht="12.75">
       <c r="A358" s="17"/>
       <c r="B358" s="17"/>
       <c r="C358" s="17"/>
@@ -19224,7 +19246,7 @@
       <c r="AK358" s="11"/>
       <c r="AL358" s="11"/>
     </row>
-    <row r="359" spans="1:38" ht="13.1">
+    <row r="359" spans="1:38" ht="12.75">
       <c r="A359" s="17"/>
       <c r="B359" s="17"/>
       <c r="C359" s="17"/>
@@ -19264,7 +19286,7 @@
       <c r="AK359" s="11"/>
       <c r="AL359" s="11"/>
     </row>
-    <row r="360" spans="1:38" ht="13.1">
+    <row r="360" spans="1:38" ht="12.75">
       <c r="A360" s="17"/>
       <c r="B360" s="17"/>
       <c r="C360" s="17"/>
@@ -19304,7 +19326,7 @@
       <c r="AK360" s="11"/>
       <c r="AL360" s="11"/>
     </row>
-    <row r="361" spans="1:38" ht="13.1">
+    <row r="361" spans="1:38" ht="12.75">
       <c r="A361" s="17"/>
       <c r="B361" s="17"/>
       <c r="C361" s="17"/>
@@ -19344,7 +19366,7 @@
       <c r="AK361" s="11"/>
       <c r="AL361" s="11"/>
     </row>
-    <row r="362" spans="1:38" ht="13.1">
+    <row r="362" spans="1:38" ht="12.75">
       <c r="A362" s="17"/>
       <c r="B362" s="17"/>
       <c r="C362" s="17"/>
@@ -19384,7 +19406,7 @@
       <c r="AK362" s="11"/>
       <c r="AL362" s="11"/>
     </row>
-    <row r="363" spans="1:38" ht="13.1">
+    <row r="363" spans="1:38" ht="12.75">
       <c r="A363" s="17"/>
       <c r="B363" s="17"/>
       <c r="C363" s="17"/>
@@ -19424,7 +19446,7 @@
       <c r="AK363" s="11"/>
       <c r="AL363" s="11"/>
     </row>
-    <row r="364" spans="1:38" ht="13.1">
+    <row r="364" spans="1:38" ht="12.75">
       <c r="A364" s="17"/>
       <c r="B364" s="17"/>
       <c r="C364" s="17"/>
@@ -19464,7 +19486,7 @@
       <c r="AK364" s="11"/>
       <c r="AL364" s="11"/>
     </row>
-    <row r="365" spans="1:38" ht="13.1">
+    <row r="365" spans="1:38" ht="12.75">
       <c r="A365" s="17"/>
       <c r="B365" s="17"/>
       <c r="C365" s="17"/>
@@ -19504,7 +19526,7 @@
       <c r="AK365" s="11"/>
       <c r="AL365" s="11"/>
     </row>
-    <row r="366" spans="1:38" ht="13.1">
+    <row r="366" spans="1:38" ht="12.75">
       <c r="A366" s="17"/>
       <c r="B366" s="17"/>
       <c r="C366" s="17"/>
@@ -19544,7 +19566,7 @@
       <c r="AK366" s="11"/>
       <c r="AL366" s="11"/>
     </row>
-    <row r="367" spans="1:38" ht="13.1">
+    <row r="367" spans="1:38" ht="12.75">
       <c r="A367" s="17"/>
       <c r="B367" s="17"/>
       <c r="C367" s="17"/>
@@ -19584,7 +19606,7 @@
       <c r="AK367" s="11"/>
       <c r="AL367" s="11"/>
     </row>
-    <row r="368" spans="1:38" ht="13.1">
+    <row r="368" spans="1:38" ht="12.75">
       <c r="A368" s="17"/>
       <c r="B368" s="17"/>
       <c r="C368" s="17"/>
@@ -19624,7 +19646,7 @@
       <c r="AK368" s="11"/>
       <c r="AL368" s="11"/>
     </row>
-    <row r="369" spans="1:38" ht="13.1">
+    <row r="369" spans="1:38" ht="12.75">
       <c r="A369" s="17"/>
       <c r="B369" s="17"/>
       <c r="C369" s="17"/>
@@ -19664,7 +19686,7 @@
       <c r="AK369" s="11"/>
       <c r="AL369" s="11"/>
     </row>
-    <row r="370" spans="1:38" ht="13.1">
+    <row r="370" spans="1:38" ht="12.75">
       <c r="A370" s="17"/>
       <c r="B370" s="17"/>
       <c r="C370" s="17"/>
@@ -19704,7 +19726,7 @@
       <c r="AK370" s="11"/>
       <c r="AL370" s="11"/>
     </row>
-    <row r="371" spans="1:38" ht="13.1">
+    <row r="371" spans="1:38" ht="12.75">
       <c r="A371" s="17"/>
       <c r="B371" s="17"/>
       <c r="C371" s="17"/>
@@ -19744,7 +19766,7 @@
       <c r="AK371" s="11"/>
       <c r="AL371" s="11"/>
     </row>
-    <row r="372" spans="1:38" ht="13.1">
+    <row r="372" spans="1:38" ht="12.75">
       <c r="A372" s="17"/>
       <c r="B372" s="17"/>
       <c r="C372" s="17"/>
@@ -19784,7 +19806,7 @@
       <c r="AK372" s="11"/>
       <c r="AL372" s="11"/>
     </row>
-    <row r="373" spans="1:38" ht="13.1">
+    <row r="373" spans="1:38" ht="12.75">
       <c r="A373" s="17"/>
       <c r="B373" s="17"/>
       <c r="C373" s="17"/>
@@ -19824,7 +19846,7 @@
       <c r="AK373" s="11"/>
       <c r="AL373" s="11"/>
     </row>
-    <row r="374" spans="1:38" ht="13.1">
+    <row r="374" spans="1:38" ht="12.75">
       <c r="A374" s="17"/>
       <c r="B374" s="17"/>
       <c r="C374" s="17"/>
@@ -19864,7 +19886,7 @@
       <c r="AK374" s="11"/>
       <c r="AL374" s="11"/>
     </row>
-    <row r="375" spans="1:38" ht="13.1">
+    <row r="375" spans="1:38" ht="12.75">
       <c r="A375" s="17"/>
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
@@ -19904,7 +19926,7 @@
       <c r="AK375" s="11"/>
       <c r="AL375" s="11"/>
     </row>
-    <row r="376" spans="1:38" ht="13.1">
+    <row r="376" spans="1:38" ht="12.75">
       <c r="A376" s="17"/>
       <c r="B376" s="17"/>
       <c r="C376" s="17"/>
@@ -19944,7 +19966,7 @@
       <c r="AK376" s="11"/>
       <c r="AL376" s="11"/>
     </row>
-    <row r="377" spans="1:38" ht="13.1">
+    <row r="377" spans="1:38" ht="12.75">
       <c r="A377" s="17"/>
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
@@ -19984,7 +20006,7 @@
       <c r="AK377" s="11"/>
       <c r="AL377" s="11"/>
     </row>
-    <row r="378" spans="1:38" ht="13.1">
+    <row r="378" spans="1:38" ht="12.75">
       <c r="A378" s="17"/>
       <c r="B378" s="17"/>
       <c r="C378" s="17"/>
@@ -20024,7 +20046,7 @@
       <c r="AK378" s="11"/>
       <c r="AL378" s="11"/>
     </row>
-    <row r="379" spans="1:38" ht="13.1">
+    <row r="379" spans="1:38" ht="12.75">
       <c r="A379" s="17"/>
       <c r="B379" s="17"/>
       <c r="C379" s="17"/>
@@ -20064,7 +20086,7 @@
       <c r="AK379" s="11"/>
       <c r="AL379" s="11"/>
     </row>
-    <row r="380" spans="1:38" ht="13.1">
+    <row r="380" spans="1:38" ht="12.75">
       <c r="A380" s="17"/>
       <c r="B380" s="17"/>
       <c r="C380" s="17"/>
@@ -20104,7 +20126,7 @@
       <c r="AK380" s="11"/>
       <c r="AL380" s="11"/>
     </row>
-    <row r="381" spans="1:38" ht="13.1">
+    <row r="381" spans="1:38" ht="12.75">
       <c r="A381" s="17"/>
       <c r="B381" s="17"/>
       <c r="C381" s="17"/>
@@ -20144,7 +20166,7 @@
       <c r="AK381" s="11"/>
       <c r="AL381" s="11"/>
     </row>
-    <row r="382" spans="1:38" ht="13.1">
+    <row r="382" spans="1:38" ht="12.75">
       <c r="A382" s="17"/>
       <c r="B382" s="17"/>
       <c r="C382" s="17"/>
@@ -20184,7 +20206,7 @@
       <c r="AK382" s="11"/>
       <c r="AL382" s="11"/>
     </row>
-    <row r="383" spans="1:38" ht="13.1">
+    <row r="383" spans="1:38" ht="12.75">
       <c r="A383" s="17"/>
       <c r="B383" s="17"/>
       <c r="C383" s="17"/>
@@ -20224,7 +20246,7 @@
       <c r="AK383" s="11"/>
       <c r="AL383" s="11"/>
     </row>
-    <row r="384" spans="1:38" ht="13.1">
+    <row r="384" spans="1:38" ht="12.75">
       <c r="A384" s="17"/>
       <c r="B384" s="17"/>
       <c r="C384" s="17"/>
@@ -20264,7 +20286,7 @@
       <c r="AK384" s="11"/>
       <c r="AL384" s="11"/>
     </row>
-    <row r="385" spans="1:38" ht="13.1">
+    <row r="385" spans="1:38" ht="12.75">
       <c r="A385" s="17"/>
       <c r="B385" s="17"/>
       <c r="C385" s="17"/>
@@ -20304,7 +20326,7 @@
       <c r="AK385" s="11"/>
       <c r="AL385" s="11"/>
     </row>
-    <row r="386" spans="1:38" ht="13.1">
+    <row r="386" spans="1:38" ht="12.75">
       <c r="A386" s="17"/>
       <c r="B386" s="17"/>
       <c r="C386" s="17"/>
@@ -20344,7 +20366,7 @@
       <c r="AK386" s="11"/>
       <c r="AL386" s="11"/>
     </row>
-    <row r="387" spans="1:38" ht="13.1">
+    <row r="387" spans="1:38" ht="12.75">
       <c r="A387" s="17"/>
       <c r="B387" s="17"/>
       <c r="C387" s="17"/>
@@ -20384,7 +20406,7 @@
       <c r="AK387" s="11"/>
       <c r="AL387" s="11"/>
     </row>
-    <row r="388" spans="1:38" ht="13.1">
+    <row r="388" spans="1:38" ht="12.75">
       <c r="A388" s="17"/>
       <c r="B388" s="17"/>
       <c r="C388" s="17"/>
@@ -20424,7 +20446,7 @@
       <c r="AK388" s="11"/>
       <c r="AL388" s="11"/>
     </row>
-    <row r="389" spans="1:38" ht="13.1">
+    <row r="389" spans="1:38" ht="12.75">
       <c r="A389" s="17"/>
       <c r="B389" s="17"/>
       <c r="C389" s="17"/>
@@ -20464,7 +20486,7 @@
       <c r="AK389" s="11"/>
       <c r="AL389" s="11"/>
     </row>
-    <row r="390" spans="1:38" ht="13.1">
+    <row r="390" spans="1:38" ht="12.75">
       <c r="A390" s="17"/>
       <c r="B390" s="17"/>
       <c r="C390" s="17"/>
@@ -20504,7 +20526,7 @@
       <c r="AK390" s="11"/>
       <c r="AL390" s="11"/>
     </row>
-    <row r="391" spans="1:38" ht="13.1">
+    <row r="391" spans="1:38" ht="12.75">
       <c r="A391" s="17"/>
       <c r="B391" s="17"/>
       <c r="C391" s="17"/>
@@ -20544,7 +20566,7 @@
       <c r="AK391" s="11"/>
       <c r="AL391" s="11"/>
     </row>
-    <row r="392" spans="1:38" ht="13.1">
+    <row r="392" spans="1:38" ht="12.75">
       <c r="A392" s="17"/>
       <c r="B392" s="17"/>
       <c r="C392" s="17"/>
@@ -20584,7 +20606,7 @@
       <c r="AK392" s="11"/>
       <c r="AL392" s="11"/>
     </row>
-    <row r="393" spans="1:38" ht="13.1">
+    <row r="393" spans="1:38" ht="12.75">
       <c r="A393" s="17"/>
       <c r="B393" s="17"/>
       <c r="C393" s="17"/>
@@ -20624,7 +20646,7 @@
       <c r="AK393" s="11"/>
       <c r="AL393" s="11"/>
     </row>
-    <row r="394" spans="1:38" ht="13.1">
+    <row r="394" spans="1:38" ht="12.75">
       <c r="A394" s="17"/>
       <c r="B394" s="17"/>
       <c r="C394" s="17"/>
@@ -20664,7 +20686,7 @@
       <c r="AK394" s="11"/>
       <c r="AL394" s="11"/>
     </row>
-    <row r="395" spans="1:38" ht="13.1">
+    <row r="395" spans="1:38" ht="12.75">
       <c r="A395" s="17"/>
       <c r="B395" s="17"/>
       <c r="C395" s="17"/>
@@ -20704,7 +20726,7 @@
       <c r="AK395" s="11"/>
       <c r="AL395" s="11"/>
     </row>
-    <row r="396" spans="1:38" ht="13.1">
+    <row r="396" spans="1:38" ht="12.75">
       <c r="A396" s="17"/>
       <c r="B396" s="17"/>
       <c r="C396" s="17"/>
@@ -20744,7 +20766,7 @@
       <c r="AK396" s="11"/>
       <c r="AL396" s="11"/>
     </row>
-    <row r="397" spans="1:38" ht="13.1">
+    <row r="397" spans="1:38" ht="12.75">
       <c r="A397" s="17"/>
       <c r="B397" s="17"/>
       <c r="C397" s="17"/>
@@ -20784,7 +20806,7 @@
       <c r="AK397" s="11"/>
       <c r="AL397" s="11"/>
     </row>
-    <row r="398" spans="1:38" ht="13.1">
+    <row r="398" spans="1:38" ht="12.75">
       <c r="A398" s="17"/>
       <c r="B398" s="17"/>
       <c r="C398" s="17"/>
@@ -20824,7 +20846,7 @@
       <c r="AK398" s="11"/>
       <c r="AL398" s="11"/>
     </row>
-    <row r="399" spans="1:38" ht="13.1">
+    <row r="399" spans="1:38" ht="12.75">
       <c r="A399" s="17"/>
       <c r="B399" s="17"/>
       <c r="C399" s="17"/>
@@ -20864,7 +20886,7 @@
       <c r="AK399" s="11"/>
       <c r="AL399" s="11"/>
     </row>
-    <row r="400" spans="1:38" ht="13.1">
+    <row r="400" spans="1:38" ht="12.75">
       <c r="A400" s="17"/>
       <c r="B400" s="17"/>
       <c r="C400" s="17"/>
@@ -20904,7 +20926,7 @@
       <c r="AK400" s="11"/>
       <c r="AL400" s="11"/>
     </row>
-    <row r="401" spans="1:38" ht="13.1">
+    <row r="401" spans="1:38" ht="12.75">
       <c r="A401" s="17"/>
       <c r="B401" s="17"/>
       <c r="C401" s="17"/>
@@ -20944,7 +20966,7 @@
       <c r="AK401" s="11"/>
       <c r="AL401" s="11"/>
     </row>
-    <row r="402" spans="1:38" ht="13.1">
+    <row r="402" spans="1:38" ht="12.75">
       <c r="A402" s="17"/>
       <c r="B402" s="17"/>
       <c r="C402" s="17"/>
@@ -20984,7 +21006,7 @@
       <c r="AK402" s="11"/>
       <c r="AL402" s="11"/>
     </row>
-    <row r="403" spans="1:38" ht="13.1">
+    <row r="403" spans="1:38" ht="12.75">
       <c r="A403" s="17"/>
       <c r="B403" s="17"/>
       <c r="C403" s="17"/>
@@ -21024,7 +21046,7 @@
       <c r="AK403" s="11"/>
       <c r="AL403" s="11"/>
     </row>
-    <row r="404" spans="1:38" ht="13.1">
+    <row r="404" spans="1:38" ht="12.75">
       <c r="A404" s="17"/>
       <c r="B404" s="17"/>
       <c r="C404" s="17"/>
@@ -21064,7 +21086,7 @@
       <c r="AK404" s="11"/>
       <c r="AL404" s="11"/>
     </row>
-    <row r="405" spans="1:38" ht="13.1">
+    <row r="405" spans="1:38" ht="12.75">
       <c r="A405" s="17"/>
       <c r="B405" s="17"/>
       <c r="C405" s="17"/>
@@ -21104,7 +21126,7 @@
       <c r="AK405" s="11"/>
       <c r="AL405" s="11"/>
     </row>
-    <row r="406" spans="1:38" ht="13.1">
+    <row r="406" spans="1:38" ht="12.75">
       <c r="A406" s="17"/>
       <c r="B406" s="17"/>
       <c r="C406" s="17"/>
@@ -21144,7 +21166,7 @@
       <c r="AK406" s="11"/>
       <c r="AL406" s="11"/>
     </row>
-    <row r="407" spans="1:38" ht="13.1">
+    <row r="407" spans="1:38" ht="12.75">
       <c r="A407" s="17"/>
       <c r="B407" s="17"/>
       <c r="C407" s="17"/>
@@ -21184,7 +21206,7 @@
       <c r="AK407" s="11"/>
       <c r="AL407" s="11"/>
     </row>
-    <row r="408" spans="1:38" ht="13.1">
+    <row r="408" spans="1:38" ht="12.75">
       <c r="A408" s="17"/>
       <c r="B408" s="17"/>
       <c r="C408" s="17"/>
@@ -21224,7 +21246,7 @@
       <c r="AK408" s="11"/>
       <c r="AL408" s="11"/>
     </row>
-    <row r="409" spans="1:38" ht="13.1">
+    <row r="409" spans="1:38" ht="12.75">
       <c r="A409" s="17"/>
       <c r="B409" s="17"/>
       <c r="C409" s="17"/>
@@ -21264,7 +21286,7 @@
       <c r="AK409" s="11"/>
       <c r="AL409" s="11"/>
     </row>
-    <row r="410" spans="1:38" ht="13.1">
+    <row r="410" spans="1:38" ht="12.75">
       <c r="A410" s="17"/>
       <c r="B410" s="17"/>
       <c r="C410" s="17"/>
@@ -21304,7 +21326,7 @@
       <c r="AK410" s="11"/>
       <c r="AL410" s="11"/>
     </row>
-    <row r="411" spans="1:38" ht="13.1">
+    <row r="411" spans="1:38" ht="12.75">
       <c r="A411" s="17"/>
       <c r="B411" s="17"/>
       <c r="C411" s="17"/>
@@ -21344,7 +21366,7 @@
       <c r="AK411" s="11"/>
       <c r="AL411" s="11"/>
     </row>
-    <row r="412" spans="1:38" ht="13.1">
+    <row r="412" spans="1:38" ht="12.75">
       <c r="A412" s="17"/>
       <c r="B412" s="17"/>
       <c r="C412" s="17"/>
@@ -21384,7 +21406,7 @@
       <c r="AK412" s="11"/>
       <c r="AL412" s="11"/>
     </row>
-    <row r="413" spans="1:38" ht="13.1">
+    <row r="413" spans="1:38" ht="12.75">
       <c r="A413" s="17"/>
       <c r="B413" s="17"/>
       <c r="C413" s="17"/>
@@ -21424,7 +21446,7 @@
       <c r="AK413" s="11"/>
       <c r="AL413" s="11"/>
     </row>
-    <row r="414" spans="1:38" ht="13.1">
+    <row r="414" spans="1:38" ht="12.75">
       <c r="A414" s="17"/>
       <c r="B414" s="17"/>
       <c r="C414" s="17"/>
@@ -21464,7 +21486,7 @@
       <c r="AK414" s="11"/>
       <c r="AL414" s="11"/>
     </row>
-    <row r="415" spans="1:38" ht="13.1">
+    <row r="415" spans="1:38" ht="12.75">
       <c r="A415" s="17"/>
       <c r="B415" s="17"/>
       <c r="C415" s="17"/>
@@ -21504,7 +21526,7 @@
       <c r="AK415" s="11"/>
       <c r="AL415" s="11"/>
     </row>
-    <row r="416" spans="1:38" ht="13.1">
+    <row r="416" spans="1:38" ht="12.75">
       <c r="A416" s="17"/>
       <c r="B416" s="17"/>
       <c r="C416" s="17"/>
@@ -21544,7 +21566,7 @@
       <c r="AK416" s="11"/>
       <c r="AL416" s="11"/>
     </row>
-    <row r="417" spans="1:38" ht="13.1">
+    <row r="417" spans="1:38" ht="12.75">
       <c r="A417" s="17"/>
       <c r="B417" s="17"/>
       <c r="C417" s="17"/>
@@ -21584,7 +21606,7 @@
       <c r="AK417" s="11"/>
       <c r="AL417" s="11"/>
     </row>
-    <row r="418" spans="1:38" ht="13.1">
+    <row r="418" spans="1:38" ht="12.75">
       <c r="A418" s="17"/>
       <c r="B418" s="17"/>
       <c r="C418" s="17"/>
@@ -21624,7 +21646,7 @@
       <c r="AK418" s="11"/>
       <c r="AL418" s="11"/>
     </row>
-    <row r="419" spans="1:38" ht="13.1">
+    <row r="419" spans="1:38" ht="12.75">
       <c r="A419" s="17"/>
       <c r="B419" s="17"/>
       <c r="C419" s="17"/>
@@ -21664,7 +21686,7 @@
       <c r="AK419" s="11"/>
       <c r="AL419" s="11"/>
     </row>
-    <row r="420" spans="1:38" ht="13.1">
+    <row r="420" spans="1:38" ht="12.75">
       <c r="A420" s="17"/>
       <c r="B420" s="17"/>
       <c r="C420" s="17"/>
@@ -21704,7 +21726,7 @@
       <c r="AK420" s="11"/>
       <c r="AL420" s="11"/>
     </row>
-    <row r="421" spans="1:38" ht="13.1">
+    <row r="421" spans="1:38" ht="12.75">
       <c r="A421" s="17"/>
       <c r="B421" s="17"/>
       <c r="C421" s="17"/>
@@ -21744,7 +21766,7 @@
       <c r="AK421" s="11"/>
       <c r="AL421" s="11"/>
     </row>
-    <row r="422" spans="1:38" ht="13.1">
+    <row r="422" spans="1:38" ht="12.75">
       <c r="A422" s="17"/>
       <c r="B422" s="17"/>
       <c r="C422" s="17"/>
@@ -21784,7 +21806,7 @@
       <c r="AK422" s="11"/>
       <c r="AL422" s="11"/>
     </row>
-    <row r="423" spans="1:38" ht="13.1">
+    <row r="423" spans="1:38" ht="12.75">
       <c r="A423" s="17"/>
       <c r="B423" s="17"/>
       <c r="C423" s="17"/>
@@ -21824,7 +21846,7 @@
       <c r="AK423" s="11"/>
       <c r="AL423" s="11"/>
     </row>
-    <row r="424" spans="1:38" ht="13.1">
+    <row r="424" spans="1:38" ht="12.75">
       <c r="A424" s="17"/>
       <c r="B424" s="17"/>
       <c r="C424" s="17"/>
@@ -21864,7 +21886,7 @@
       <c r="AK424" s="11"/>
       <c r="AL424" s="11"/>
     </row>
-    <row r="425" spans="1:38" ht="13.1">
+    <row r="425" spans="1:38" ht="12.75">
       <c r="A425" s="17"/>
       <c r="B425" s="17"/>
       <c r="C425" s="17"/>
@@ -21904,7 +21926,7 @@
       <c r="AK425" s="11"/>
       <c r="AL425" s="11"/>
     </row>
-    <row r="426" spans="1:38" ht="13.1">
+    <row r="426" spans="1:38" ht="12.75">
       <c r="A426" s="17"/>
       <c r="B426" s="17"/>
       <c r="C426" s="17"/>
@@ -21944,7 +21966,7 @@
       <c r="AK426" s="11"/>
       <c r="AL426" s="11"/>
     </row>
-    <row r="427" spans="1:38" ht="13.1">
+    <row r="427" spans="1:38" ht="12.75">
       <c r="A427" s="17"/>
       <c r="B427" s="17"/>
       <c r="C427" s="17"/>
@@ -21984,7 +22006,7 @@
       <c r="AK427" s="11"/>
       <c r="AL427" s="11"/>
     </row>
-    <row r="428" spans="1:38" ht="13.1">
+    <row r="428" spans="1:38" ht="12.75">
       <c r="A428" s="17"/>
       <c r="B428" s="17"/>
       <c r="C428" s="17"/>
@@ -22024,7 +22046,7 @@
       <c r="AK428" s="11"/>
       <c r="AL428" s="11"/>
     </row>
-    <row r="429" spans="1:38" ht="13.1">
+    <row r="429" spans="1:38" ht="12.75">
       <c r="A429" s="17"/>
       <c r="B429" s="17"/>
       <c r="C429" s="17"/>
@@ -22064,7 +22086,7 @@
       <c r="AK429" s="11"/>
       <c r="AL429" s="11"/>
     </row>
-    <row r="430" spans="1:38" ht="13.1">
+    <row r="430" spans="1:38" ht="12.75">
       <c r="A430" s="17"/>
       <c r="B430" s="17"/>
       <c r="C430" s="17"/>
@@ -22104,7 +22126,7 @@
       <c r="AK430" s="11"/>
       <c r="AL430" s="11"/>
     </row>
-    <row r="431" spans="1:38" ht="13.1">
+    <row r="431" spans="1:38" ht="12.75">
       <c r="A431" s="17"/>
       <c r="B431" s="17"/>
       <c r="C431" s="17"/>
@@ -22144,7 +22166,7 @@
       <c r="AK431" s="11"/>
       <c r="AL431" s="11"/>
     </row>
-    <row r="432" spans="1:38" ht="13.1">
+    <row r="432" spans="1:38" ht="12.75">
       <c r="A432" s="17"/>
       <c r="B432" s="17"/>
       <c r="C432" s="17"/>
@@ -22184,7 +22206,7 @@
       <c r="AK432" s="11"/>
       <c r="AL432" s="11"/>
     </row>
-    <row r="433" spans="1:38" ht="13.1">
+    <row r="433" spans="1:38" ht="12.75">
       <c r="A433" s="17"/>
       <c r="B433" s="17"/>
       <c r="C433" s="17"/>
@@ -22224,7 +22246,7 @@
       <c r="AK433" s="11"/>
       <c r="AL433" s="11"/>
     </row>
-    <row r="434" spans="1:38" ht="13.1">
+    <row r="434" spans="1:38" ht="12.75">
       <c r="A434" s="17"/>
       <c r="B434" s="17"/>
       <c r="C434" s="17"/>
@@ -22264,7 +22286,7 @@
       <c r="AK434" s="11"/>
       <c r="AL434" s="11"/>
     </row>
-    <row r="435" spans="1:38" ht="13.1">
+    <row r="435" spans="1:38" ht="12.75">
       <c r="A435" s="17"/>
       <c r="B435" s="17"/>
       <c r="C435" s="17"/>
@@ -22304,7 +22326,7 @@
       <c r="AK435" s="11"/>
       <c r="AL435" s="11"/>
     </row>
-    <row r="436" spans="1:38" ht="13.1">
+    <row r="436" spans="1:38" ht="12.75">
       <c r="A436" s="17"/>
       <c r="B436" s="17"/>
       <c r="C436" s="17"/>
@@ -22344,7 +22366,7 @@
       <c r="AK436" s="11"/>
       <c r="AL436" s="11"/>
     </row>
-    <row r="437" spans="1:38" ht="13.1">
+    <row r="437" spans="1:38" ht="12.75">
       <c r="A437" s="17"/>
       <c r="B437" s="17"/>
       <c r="C437" s="17"/>
@@ -22384,7 +22406,7 @@
       <c r="AK437" s="11"/>
       <c r="AL437" s="11"/>
     </row>
-    <row r="438" spans="1:38" ht="13.1">
+    <row r="438" spans="1:38" ht="12.75">
       <c r="A438" s="17"/>
       <c r="B438" s="17"/>
       <c r="C438" s="17"/>
@@ -22424,7 +22446,7 @@
       <c r="AK438" s="11"/>
       <c r="AL438" s="11"/>
     </row>
-    <row r="439" spans="1:38" ht="13.1">
+    <row r="439" spans="1:38" ht="12.75">
       <c r="A439" s="17"/>
       <c r="B439" s="17"/>
       <c r="C439" s="17"/>
@@ -22464,7 +22486,7 @@
       <c r="AK439" s="11"/>
       <c r="AL439" s="11"/>
     </row>
-    <row r="440" spans="1:38" ht="13.1">
+    <row r="440" spans="1:38" ht="12.75">
       <c r="A440" s="17"/>
       <c r="B440" s="17"/>
       <c r="C440" s="17"/>
@@ -22504,7 +22526,7 @@
       <c r="AK440" s="11"/>
       <c r="AL440" s="11"/>
     </row>
-    <row r="441" spans="1:38" ht="13.1">
+    <row r="441" spans="1:38" ht="12.75">
       <c r="A441" s="17"/>
       <c r="B441" s="17"/>
       <c r="C441" s="17"/>
@@ -22544,7 +22566,7 @@
       <c r="AK441" s="11"/>
       <c r="AL441" s="11"/>
     </row>
-    <row r="442" spans="1:38" ht="13.1">
+    <row r="442" spans="1:38" ht="12.75">
       <c r="A442" s="17"/>
       <c r="B442" s="17"/>
       <c r="C442" s="17"/>
@@ -22584,7 +22606,7 @@
       <c r="AK442" s="11"/>
       <c r="AL442" s="11"/>
     </row>
-    <row r="443" spans="1:38" ht="13.1">
+    <row r="443" spans="1:38" ht="12.75">
       <c r="A443" s="17"/>
       <c r="B443" s="17"/>
       <c r="C443" s="17"/>
@@ -22624,7 +22646,7 @@
       <c r="AK443" s="11"/>
       <c r="AL443" s="11"/>
     </row>
-    <row r="444" spans="1:38" ht="13.1">
+    <row r="444" spans="1:38" ht="12.75">
       <c r="A444" s="17"/>
       <c r="B444" s="17"/>
       <c r="C444" s="17"/>
@@ -22664,7 +22686,7 @@
       <c r="AK444" s="11"/>
       <c r="AL444" s="11"/>
     </row>
-    <row r="445" spans="1:38" ht="13.1">
+    <row r="445" spans="1:38" ht="12.75">
       <c r="A445" s="17"/>
       <c r="B445" s="17"/>
       <c r="C445" s="17"/>
@@ -22704,7 +22726,7 @@
       <c r="AK445" s="11"/>
       <c r="AL445" s="11"/>
     </row>
-    <row r="446" spans="1:38" ht="13.1">
+    <row r="446" spans="1:38" ht="12.75">
       <c r="A446" s="17"/>
       <c r="B446" s="17"/>
       <c r="C446" s="17"/>
@@ -22744,7 +22766,7 @@
       <c r="AK446" s="11"/>
       <c r="AL446" s="11"/>
     </row>
-    <row r="447" spans="1:38" ht="13.1">
+    <row r="447" spans="1:38" ht="12.75">
       <c r="A447" s="17"/>
       <c r="B447" s="17"/>
       <c r="C447" s="17"/>
@@ -22784,7 +22806,7 @@
       <c r="AK447" s="11"/>
       <c r="AL447" s="11"/>
     </row>
-    <row r="448" spans="1:38" ht="13.1">
+    <row r="448" spans="1:38" ht="12.75">
       <c r="A448" s="17"/>
       <c r="B448" s="17"/>
       <c r="C448" s="17"/>
@@ -22824,7 +22846,7 @@
       <c r="AK448" s="11"/>
       <c r="AL448" s="11"/>
     </row>
-    <row r="449" spans="1:38" ht="13.1">
+    <row r="449" spans="1:38" ht="12.75">
       <c r="A449" s="17"/>
       <c r="B449" s="17"/>
       <c r="C449" s="17"/>
@@ -22864,7 +22886,7 @@
       <c r="AK449" s="11"/>
       <c r="AL449" s="11"/>
     </row>
-    <row r="450" spans="1:38" ht="13.1">
+    <row r="450" spans="1:38" ht="12.75">
       <c r="A450" s="17"/>
       <c r="B450" s="17"/>
       <c r="C450" s="17"/>
@@ -22904,7 +22926,7 @@
       <c r="AK450" s="11"/>
       <c r="AL450" s="11"/>
     </row>
-    <row r="451" spans="1:38" ht="13.1">
+    <row r="451" spans="1:38" ht="12.75">
       <c r="A451" s="17"/>
       <c r="B451" s="17"/>
       <c r="C451" s="17"/>
@@ -22944,7 +22966,7 @@
       <c r="AK451" s="11"/>
       <c r="AL451" s="11"/>
     </row>
-    <row r="452" spans="1:38" ht="13.1">
+    <row r="452" spans="1:38" ht="12.75">
       <c r="A452" s="17"/>
       <c r="B452" s="17"/>
       <c r="C452" s="17"/>
@@ -22984,7 +23006,7 @@
       <c r="AK452" s="11"/>
       <c r="AL452" s="11"/>
     </row>
-    <row r="453" spans="1:38" ht="13.1">
+    <row r="453" spans="1:38" ht="12.75">
       <c r="A453" s="17"/>
       <c r="B453" s="17"/>
       <c r="C453" s="17"/>
@@ -23024,7 +23046,7 @@
       <c r="AK453" s="11"/>
       <c r="AL453" s="11"/>
     </row>
-    <row r="454" spans="1:38" ht="13.1">
+    <row r="454" spans="1:38" ht="12.75">
       <c r="A454" s="17"/>
       <c r="B454" s="17"/>
       <c r="C454" s="17"/>
@@ -23064,7 +23086,7 @@
       <c r="AK454" s="11"/>
       <c r="AL454" s="11"/>
     </row>
-    <row r="455" spans="1:38" ht="13.1">
+    <row r="455" spans="1:38" ht="12.75">
       <c r="A455" s="17"/>
       <c r="B455" s="17"/>
       <c r="C455" s="17"/>
@@ -23104,7 +23126,7 @@
       <c r="AK455" s="11"/>
       <c r="AL455" s="11"/>
     </row>
-    <row r="456" spans="1:38" ht="13.1">
+    <row r="456" spans="1:38" ht="12.75">
       <c r="A456" s="17"/>
       <c r="B456" s="17"/>
       <c r="C456" s="17"/>
@@ -23144,7 +23166,7 @@
       <c r="AK456" s="11"/>
       <c r="AL456" s="11"/>
     </row>
-    <row r="457" spans="1:38" ht="13.1">
+    <row r="457" spans="1:38" ht="12.75">
       <c r="A457" s="17"/>
       <c r="B457" s="17"/>
       <c r="C457" s="17"/>
@@ -23184,7 +23206,7 @@
       <c r="AK457" s="11"/>
       <c r="AL457" s="11"/>
     </row>
-    <row r="458" spans="1:38" ht="13.1">
+    <row r="458" spans="1:38" ht="12.75">
       <c r="A458" s="17"/>
       <c r="B458" s="17"/>
       <c r="C458" s="17"/>
@@ -23224,7 +23246,7 @@
       <c r="AK458" s="11"/>
       <c r="AL458" s="11"/>
     </row>
-    <row r="459" spans="1:38" ht="13.1">
+    <row r="459" spans="1:38" ht="12.75">
       <c r="A459" s="17"/>
       <c r="B459" s="17"/>
       <c r="C459" s="17"/>
@@ -23264,7 +23286,7 @@
       <c r="AK459" s="11"/>
       <c r="AL459" s="11"/>
     </row>
-    <row r="460" spans="1:38" ht="13.1">
+    <row r="460" spans="1:38" ht="12.75">
       <c r="A460" s="17"/>
       <c r="B460" s="17"/>
       <c r="C460" s="17"/>
@@ -23304,7 +23326,7 @@
       <c r="AK460" s="11"/>
       <c r="AL460" s="11"/>
     </row>
-    <row r="461" spans="1:38" ht="13.1">
+    <row r="461" spans="1:38" ht="12.75">
       <c r="A461" s="17"/>
       <c r="B461" s="17"/>
       <c r="C461" s="17"/>
@@ -23344,7 +23366,7 @@
       <c r="AK461" s="11"/>
       <c r="AL461" s="11"/>
     </row>
-    <row r="462" spans="1:38" ht="13.1">
+    <row r="462" spans="1:38" ht="12.75">
       <c r="A462" s="17"/>
       <c r="B462" s="17"/>
       <c r="C462" s="17"/>
@@ -23384,7 +23406,7 @@
       <c r="AK462" s="11"/>
       <c r="AL462" s="11"/>
     </row>
-    <row r="463" spans="1:38" ht="13.1">
+    <row r="463" spans="1:38" ht="12.75">
       <c r="A463" s="17"/>
       <c r="B463" s="17"/>
       <c r="C463" s="17"/>
@@ -23424,7 +23446,7 @@
       <c r="AK463" s="11"/>
       <c r="AL463" s="11"/>
     </row>
-    <row r="464" spans="1:38" ht="13.1">
+    <row r="464" spans="1:38" ht="12.75">
       <c r="A464" s="17"/>
       <c r="B464" s="17"/>
       <c r="C464" s="17"/>
@@ -23464,7 +23486,7 @@
       <c r="AK464" s="11"/>
       <c r="AL464" s="11"/>
     </row>
-    <row r="465" spans="1:38" ht="13.1">
+    <row r="465" spans="1:38" ht="12.75">
       <c r="A465" s="17"/>
       <c r="B465" s="17"/>
       <c r="C465" s="17"/>
@@ -23504,7 +23526,7 @@
       <c r="AK465" s="11"/>
       <c r="AL465" s="11"/>
     </row>
-    <row r="466" spans="1:38" ht="13.1">
+    <row r="466" spans="1:38" ht="12.75">
       <c r="A466" s="17"/>
       <c r="B466" s="17"/>
       <c r="C466" s="17"/>
@@ -23544,7 +23566,7 @@
       <c r="AK466" s="11"/>
       <c r="AL466" s="11"/>
     </row>
-    <row r="467" spans="1:38" ht="13.1">
+    <row r="467" spans="1:38" ht="12.75">
       <c r="A467" s="17"/>
       <c r="B467" s="17"/>
       <c r="C467" s="17"/>
@@ -23584,7 +23606,7 @@
       <c r="AK467" s="11"/>
       <c r="AL467" s="11"/>
     </row>
-    <row r="468" spans="1:38" ht="13.1">
+    <row r="468" spans="1:38" ht="12.75">
       <c r="A468" s="17"/>
       <c r="B468" s="17"/>
       <c r="C468" s="17"/>
@@ -23624,7 +23646,7 @@
       <c r="AK468" s="11"/>
       <c r="AL468" s="11"/>
     </row>
-    <row r="469" spans="1:38" ht="13.1">
+    <row r="469" spans="1:38" ht="12.75">
       <c r="A469" s="17"/>
       <c r="B469" s="17"/>
       <c r="C469" s="17"/>
@@ -23664,7 +23686,7 @@
       <c r="AK469" s="11"/>
       <c r="AL469" s="11"/>
     </row>
-    <row r="470" spans="1:38" ht="13.1">
+    <row r="470" spans="1:38" ht="12.75">
       <c r="A470" s="17"/>
       <c r="B470" s="17"/>
       <c r="C470" s="17"/>
@@ -23704,7 +23726,7 @@
       <c r="AK470" s="11"/>
       <c r="AL470" s="11"/>
     </row>
-    <row r="471" spans="1:38" ht="13.1">
+    <row r="471" spans="1:38" ht="12.75">
       <c r="A471" s="17"/>
       <c r="B471" s="17"/>
       <c r="C471" s="17"/>
@@ -23744,7 +23766,7 @@
       <c r="AK471" s="11"/>
       <c r="AL471" s="11"/>
     </row>
-    <row r="472" spans="1:38" ht="13.1">
+    <row r="472" spans="1:38" ht="12.75">
       <c r="A472" s="17"/>
       <c r="B472" s="17"/>
       <c r="C472" s="17"/>
@@ -23784,7 +23806,7 @@
       <c r="AK472" s="11"/>
       <c r="AL472" s="11"/>
     </row>
-    <row r="473" spans="1:38" ht="13.1">
+    <row r="473" spans="1:38" ht="12.75">
       <c r="A473" s="17"/>
       <c r="B473" s="17"/>
       <c r="C473" s="17"/>
@@ -23824,7 +23846,7 @@
       <c r="AK473" s="11"/>
       <c r="AL473" s="11"/>
     </row>
-    <row r="474" spans="1:38" ht="13.1">
+    <row r="474" spans="1:38" ht="12.75">
       <c r="A474" s="17"/>
       <c r="B474" s="17"/>
       <c r="C474" s="17"/>
@@ -23864,7 +23886,7 @@
       <c r="AK474" s="11"/>
       <c r="AL474" s="11"/>
     </row>
-    <row r="475" spans="1:38" ht="13.1">
+    <row r="475" spans="1:38" ht="12.75">
       <c r="A475" s="17"/>
       <c r="B475" s="17"/>
       <c r="C475" s="17"/>
@@ -23904,7 +23926,7 @@
       <c r="AK475" s="11"/>
       <c r="AL475" s="11"/>
     </row>
-    <row r="476" spans="1:38" ht="13.1">
+    <row r="476" spans="1:38" ht="12.75">
       <c r="A476" s="17"/>
       <c r="B476" s="17"/>
       <c r="C476" s="17"/>
@@ -23944,7 +23966,7 @@
       <c r="AK476" s="11"/>
       <c r="AL476" s="11"/>
     </row>
-    <row r="477" spans="1:38" ht="13.1">
+    <row r="477" spans="1:38" ht="12.75">
       <c r="A477" s="17"/>
       <c r="B477" s="17"/>
       <c r="C477" s="17"/>
@@ -23984,7 +24006,7 @@
       <c r="AK477" s="11"/>
       <c r="AL477" s="11"/>
     </row>
-    <row r="478" spans="1:38" ht="13.1">
+    <row r="478" spans="1:38" ht="12.75">
       <c r="A478" s="17"/>
       <c r="B478" s="17"/>
       <c r="C478" s="17"/>
@@ -24024,7 +24046,7 @@
       <c r="AK478" s="11"/>
       <c r="AL478" s="11"/>
     </row>
-    <row r="479" spans="1:38" ht="13.1">
+    <row r="479" spans="1:38" ht="12.75">
       <c r="A479" s="17"/>
       <c r="B479" s="17"/>
       <c r="C479" s="17"/>
@@ -24064,7 +24086,7 @@
       <c r="AK479" s="11"/>
       <c r="AL479" s="11"/>
     </row>
-    <row r="480" spans="1:38" ht="13.1">
+    <row r="480" spans="1:38" ht="12.75">
       <c r="A480" s="17"/>
       <c r="B480" s="17"/>
       <c r="C480" s="17"/>
@@ -24104,7 +24126,7 @@
       <c r="AK480" s="11"/>
       <c r="AL480" s="11"/>
     </row>
-    <row r="481" spans="1:38" ht="13.1">
+    <row r="481" spans="1:38" ht="12.75">
       <c r="A481" s="17"/>
       <c r="B481" s="17"/>
       <c r="C481" s="17"/>
@@ -24144,7 +24166,7 @@
       <c r="AK481" s="11"/>
       <c r="AL481" s="11"/>
     </row>
-    <row r="482" spans="1:38" ht="13.1">
+    <row r="482" spans="1:38" ht="12.75">
       <c r="A482" s="30"/>
       <c r="B482" s="32"/>
       <c r="C482" s="30"/>
@@ -24184,7 +24206,7 @@
       <c r="AK482" s="11"/>
       <c r="AL482" s="11"/>
     </row>
-    <row r="483" spans="1:38" ht="13.1">
+    <row r="483" spans="1:38" ht="12.75">
       <c r="A483" s="30"/>
       <c r="B483" s="32"/>
       <c r="C483" s="30"/>
@@ -24224,7 +24246,7 @@
       <c r="AK483" s="11"/>
       <c r="AL483" s="11"/>
     </row>
-    <row r="484" spans="1:38" ht="13.1">
+    <row r="484" spans="1:38" ht="12.75">
       <c r="A484" s="30"/>
       <c r="B484" s="32"/>
       <c r="C484" s="30"/>
@@ -24264,7 +24286,7 @@
       <c r="AK484" s="11"/>
       <c r="AL484" s="11"/>
     </row>
-    <row r="485" spans="1:38" ht="13.1">
+    <row r="485" spans="1:38" ht="12.75">
       <c r="A485" s="30"/>
       <c r="B485" s="32"/>
       <c r="C485" s="30"/>
@@ -24304,7 +24326,7 @@
       <c r="AK485" s="11"/>
       <c r="AL485" s="11"/>
     </row>
-    <row r="486" spans="1:38" ht="13.1">
+    <row r="486" spans="1:38" ht="12.75">
       <c r="A486" s="30"/>
       <c r="B486" s="32"/>
       <c r="C486" s="30"/>
@@ -24344,7 +24366,7 @@
       <c r="AK486" s="11"/>
       <c r="AL486" s="11"/>
     </row>
-    <row r="487" spans="1:38" ht="13.1">
+    <row r="487" spans="1:38" ht="12.75">
       <c r="A487" s="30"/>
       <c r="B487" s="32"/>
       <c r="C487" s="30"/>
@@ -24384,7 +24406,7 @@
       <c r="AK487" s="11"/>
       <c r="AL487" s="11"/>
     </row>
-    <row r="488" spans="1:38" ht="13.1">
+    <row r="488" spans="1:38" ht="12.75">
       <c r="A488" s="30"/>
       <c r="B488" s="32"/>
       <c r="C488" s="30"/>
@@ -24424,7 +24446,7 @@
       <c r="AK488" s="11"/>
       <c r="AL488" s="11"/>
     </row>
-    <row r="489" spans="1:38" ht="13.1">
+    <row r="489" spans="1:38" ht="12.75">
       <c r="A489" s="30"/>
       <c r="B489" s="32"/>
       <c r="C489" s="30"/>
@@ -24464,7 +24486,7 @@
       <c r="AK489" s="11"/>
       <c r="AL489" s="11"/>
     </row>
-    <row r="490" spans="1:38" ht="13.1">
+    <row r="490" spans="1:38" ht="12.75">
       <c r="A490" s="30"/>
       <c r="B490" s="32"/>
       <c r="C490" s="30"/>
@@ -24504,7 +24526,7 @@
       <c r="AK490" s="11"/>
       <c r="AL490" s="11"/>
     </row>
-    <row r="491" spans="1:38" ht="13.1">
+    <row r="491" spans="1:38" ht="12.75">
       <c r="A491" s="30"/>
       <c r="B491" s="32"/>
       <c r="C491" s="30"/>
@@ -24544,7 +24566,7 @@
       <c r="AK491" s="11"/>
       <c r="AL491" s="11"/>
     </row>
-    <row r="492" spans="1:38" ht="13.1">
+    <row r="492" spans="1:38" ht="12.75">
       <c r="A492" s="30"/>
       <c r="B492" s="32"/>
       <c r="C492" s="30"/>
@@ -24584,7 +24606,7 @@
       <c r="AK492" s="11"/>
       <c r="AL492" s="11"/>
     </row>
-    <row r="493" spans="1:38" ht="13.1">
+    <row r="493" spans="1:38" ht="12.75">
       <c r="A493" s="30"/>
       <c r="B493" s="32"/>
       <c r="C493" s="30"/>
@@ -24624,7 +24646,7 @@
       <c r="AK493" s="11"/>
       <c r="AL493" s="11"/>
     </row>
-    <row r="494" spans="1:38" ht="13.1">
+    <row r="494" spans="1:38" ht="12.75">
       <c r="A494" s="30"/>
       <c r="B494" s="32"/>
       <c r="C494" s="30"/>
@@ -24664,7 +24686,7 @@
       <c r="AK494" s="11"/>
       <c r="AL494" s="11"/>
     </row>
-    <row r="495" spans="1:38" ht="13.1">
+    <row r="495" spans="1:38" ht="12.75">
       <c r="A495" s="30"/>
       <c r="B495" s="32"/>
       <c r="C495" s="30"/>
@@ -24704,7 +24726,7 @@
       <c r="AK495" s="11"/>
       <c r="AL495" s="11"/>
     </row>
-    <row r="496" spans="1:38" ht="13.1">
+    <row r="496" spans="1:38" ht="12.75">
       <c r="A496" s="30"/>
       <c r="B496" s="32"/>
       <c r="C496" s="30"/>
@@ -24744,7 +24766,7 @@
       <c r="AK496" s="11"/>
       <c r="AL496" s="11"/>
     </row>
-    <row r="497" spans="1:38" ht="13.1">
+    <row r="497" spans="1:38" ht="12.75">
       <c r="A497" s="30"/>
       <c r="B497" s="32"/>
       <c r="C497" s="30"/>
@@ -24784,7 +24806,7 @@
       <c r="AK497" s="11"/>
       <c r="AL497" s="11"/>
     </row>
-    <row r="498" spans="1:38" ht="13.1">
+    <row r="498" spans="1:38" ht="12.75">
       <c r="A498" s="30"/>
       <c r="B498" s="32"/>
       <c r="C498" s="30"/>
@@ -24824,7 +24846,7 @@
       <c r="AK498" s="11"/>
       <c r="AL498" s="11"/>
     </row>
-    <row r="499" spans="1:38" ht="13.1">
+    <row r="499" spans="1:38" ht="12.75">
       <c r="A499" s="30"/>
       <c r="B499" s="32"/>
       <c r="C499" s="30"/>
@@ -24864,7 +24886,7 @@
       <c r="AK499" s="11"/>
       <c r="AL499" s="11"/>
     </row>
-    <row r="500" spans="1:38" ht="13.1">
+    <row r="500" spans="1:38" ht="12.75">
       <c r="A500" s="30"/>
       <c r="B500" s="32"/>
       <c r="C500" s="30"/>
@@ -24904,7 +24926,7 @@
       <c r="AK500" s="11"/>
       <c r="AL500" s="11"/>
     </row>
-    <row r="501" spans="1:38" ht="13.1">
+    <row r="501" spans="1:38" ht="12.75">
       <c r="A501" s="30"/>
       <c r="B501" s="32"/>
       <c r="C501" s="30"/>
@@ -24944,7 +24966,7 @@
       <c r="AK501" s="11"/>
       <c r="AL501" s="11"/>
     </row>
-    <row r="502" spans="1:38" ht="13.1">
+    <row r="502" spans="1:38" ht="12.75">
       <c r="A502" s="30"/>
       <c r="B502" s="32"/>
       <c r="C502" s="30"/>
@@ -24984,7 +25006,7 @@
       <c r="AK502" s="11"/>
       <c r="AL502" s="11"/>
     </row>
-    <row r="503" spans="1:38" ht="13.1">
+    <row r="503" spans="1:38" ht="12.75">
       <c r="A503" s="30"/>
       <c r="B503" s="32"/>
       <c r="C503" s="30"/>
@@ -25024,7 +25046,7 @@
       <c r="AK503" s="11"/>
       <c r="AL503" s="11"/>
     </row>
-    <row r="504" spans="1:38" ht="13.1">
+    <row r="504" spans="1:38" ht="12.75">
       <c r="A504" s="30"/>
       <c r="B504" s="32"/>
       <c r="C504" s="30"/>
@@ -25064,7 +25086,7 @@
       <c r="AK504" s="11"/>
       <c r="AL504" s="11"/>
     </row>
-    <row r="505" spans="1:38" ht="13.1">
+    <row r="505" spans="1:38" ht="12.75">
       <c r="A505" s="30"/>
       <c r="B505" s="32"/>
       <c r="C505" s="30"/>
@@ -25104,7 +25126,7 @@
       <c r="AK505" s="11"/>
       <c r="AL505" s="11"/>
     </row>
-    <row r="506" spans="1:38" ht="13.1">
+    <row r="506" spans="1:38" ht="12.75">
       <c r="A506" s="30"/>
       <c r="B506" s="32"/>
       <c r="C506" s="30"/>
@@ -25144,7 +25166,7 @@
       <c r="AK506" s="11"/>
       <c r="AL506" s="11"/>
     </row>
-    <row r="507" spans="1:38" ht="13.1">
+    <row r="507" spans="1:38" ht="12.75">
       <c r="A507" s="30"/>
       <c r="B507" s="32"/>
       <c r="C507" s="30"/>
@@ -25184,7 +25206,7 @@
       <c r="AK507" s="11"/>
       <c r="AL507" s="11"/>
     </row>
-    <row r="508" spans="1:38" ht="13.1">
+    <row r="508" spans="1:38" ht="12.75">
       <c r="A508" s="30"/>
       <c r="B508" s="32"/>
       <c r="C508" s="30"/>
@@ -25224,7 +25246,7 @@
       <c r="AK508" s="11"/>
       <c r="AL508" s="11"/>
     </row>
-    <row r="509" spans="1:38" ht="13.1">
+    <row r="509" spans="1:38" ht="12.75">
       <c r="A509" s="30"/>
       <c r="B509" s="32"/>
       <c r="C509" s="30"/>
@@ -25264,7 +25286,7 @@
       <c r="AK509" s="11"/>
       <c r="AL509" s="11"/>
     </row>
-    <row r="510" spans="1:38" ht="13.1">
+    <row r="510" spans="1:38" ht="12.75">
       <c r="A510" s="30"/>
       <c r="B510" s="32"/>
       <c r="C510" s="30"/>
@@ -25304,7 +25326,7 @@
       <c r="AK510" s="11"/>
       <c r="AL510" s="11"/>
     </row>
-    <row r="511" spans="1:38" ht="13.1">
+    <row r="511" spans="1:38" ht="12.75">
       <c r="A511" s="30"/>
       <c r="B511" s="32"/>
       <c r="C511" s="30"/>
@@ -25344,7 +25366,7 @@
       <c r="AK511" s="11"/>
       <c r="AL511" s="11"/>
     </row>
-    <row r="512" spans="1:38" ht="13.1">
+    <row r="512" spans="1:38" ht="12.75">
       <c r="A512" s="30"/>
       <c r="B512" s="32"/>
       <c r="C512" s="30"/>
@@ -25384,7 +25406,7 @@
       <c r="AK512" s="11"/>
       <c r="AL512" s="11"/>
     </row>
-    <row r="513" spans="1:38" ht="13.1">
+    <row r="513" spans="1:38" ht="12.75">
       <c r="A513" s="30"/>
       <c r="B513" s="32"/>
       <c r="C513" s="30"/>
@@ -25424,7 +25446,7 @@
       <c r="AK513" s="11"/>
       <c r="AL513" s="11"/>
     </row>
-    <row r="514" spans="1:38" ht="13.1">
+    <row r="514" spans="1:38" ht="12.75">
       <c r="A514" s="30"/>
       <c r="B514" s="32"/>
       <c r="C514" s="30"/>
@@ -25464,7 +25486,7 @@
       <c r="AK514" s="11"/>
       <c r="AL514" s="11"/>
     </row>
-    <row r="515" spans="1:38" ht="13.1">
+    <row r="515" spans="1:38" ht="12.75">
       <c r="A515" s="30"/>
       <c r="B515" s="32"/>
       <c r="C515" s="30"/>
@@ -25504,7 +25526,7 @@
       <c r="AK515" s="11"/>
       <c r="AL515" s="11"/>
     </row>
-    <row r="516" spans="1:38" ht="13.1">
+    <row r="516" spans="1:38" ht="12.75">
       <c r="A516" s="30"/>
       <c r="B516" s="32"/>
       <c r="C516" s="30"/>
@@ -25544,7 +25566,7 @@
       <c r="AK516" s="11"/>
       <c r="AL516" s="11"/>
     </row>
-    <row r="517" spans="1:38" ht="13.1">
+    <row r="517" spans="1:38" ht="12.75">
       <c r="A517" s="30"/>
       <c r="B517" s="32"/>
       <c r="C517" s="30"/>
@@ -25584,7 +25606,7 @@
       <c r="AK517" s="11"/>
       <c r="AL517" s="11"/>
     </row>
-    <row r="518" spans="1:38" ht="13.1">
+    <row r="518" spans="1:38" ht="12.75">
       <c r="A518" s="30"/>
       <c r="B518" s="32"/>
       <c r="C518" s="30"/>
@@ -25624,7 +25646,7 @@
       <c r="AK518" s="11"/>
       <c r="AL518" s="11"/>
     </row>
-    <row r="519" spans="1:38" ht="13.1">
+    <row r="519" spans="1:38" ht="12.75">
       <c r="A519" s="30"/>
       <c r="B519" s="32"/>
       <c r="C519" s="30"/>
@@ -25664,7 +25686,7 @@
       <c r="AK519" s="11"/>
       <c r="AL519" s="11"/>
     </row>
-    <row r="520" spans="1:38" ht="13.1">
+    <row r="520" spans="1:38" ht="12.75">
       <c r="A520" s="30"/>
       <c r="B520" s="32"/>
       <c r="C520" s="30"/>
@@ -25704,7 +25726,7 @@
       <c r="AK520" s="11"/>
       <c r="AL520" s="11"/>
     </row>
-    <row r="521" spans="1:38" ht="13.1">
+    <row r="521" spans="1:38" ht="12.75">
       <c r="A521" s="30"/>
       <c r="B521" s="32"/>
       <c r="C521" s="30"/>
@@ -25744,7 +25766,7 @@
       <c r="AK521" s="11"/>
       <c r="AL521" s="11"/>
     </row>
-    <row r="522" spans="1:38" ht="13.1">
+    <row r="522" spans="1:38" ht="12.75">
       <c r="A522" s="30"/>
       <c r="B522" s="32"/>
       <c r="C522" s="30"/>
@@ -25784,7 +25806,7 @@
       <c r="AK522" s="11"/>
       <c r="AL522" s="11"/>
     </row>
-    <row r="523" spans="1:38" ht="13.1">
+    <row r="523" spans="1:38" ht="12.75">
       <c r="A523" s="30"/>
       <c r="B523" s="32"/>
       <c r="C523" s="30"/>
@@ -25824,7 +25846,7 @@
       <c r="AK523" s="11"/>
       <c r="AL523" s="11"/>
     </row>
-    <row r="524" spans="1:38" ht="13.1">
+    <row r="524" spans="1:38" ht="12.75">
       <c r="A524" s="30"/>
       <c r="B524" s="32"/>
       <c r="C524" s="30"/>
@@ -25864,7 +25886,7 @@
       <c r="AK524" s="11"/>
       <c r="AL524" s="11"/>
     </row>
-    <row r="525" spans="1:38" ht="13.1">
+    <row r="525" spans="1:38" ht="12.75">
       <c r="A525" s="30"/>
       <c r="B525" s="32"/>
       <c r="C525" s="30"/>
@@ -25904,7 +25926,7 @@
       <c r="AK525" s="11"/>
       <c r="AL525" s="11"/>
     </row>
-    <row r="526" spans="1:38" ht="13.1">
+    <row r="526" spans="1:38" ht="12.75">
       <c r="A526" s="30"/>
       <c r="B526" s="32"/>
       <c r="C526" s="30"/>
@@ -25944,7 +25966,7 @@
       <c r="AK526" s="11"/>
       <c r="AL526" s="11"/>
     </row>
-    <row r="527" spans="1:38" ht="13.1">
+    <row r="527" spans="1:38" ht="12.75">
       <c r="A527" s="30"/>
       <c r="B527" s="32"/>
       <c r="C527" s="30"/>
@@ -25984,7 +26006,7 @@
       <c r="AK527" s="11"/>
       <c r="AL527" s="11"/>
     </row>
-    <row r="528" spans="1:38" ht="13.1">
+    <row r="528" spans="1:38" ht="12.75">
       <c r="A528" s="30"/>
       <c r="B528" s="32"/>
       <c r="C528" s="30"/>
@@ -26024,7 +26046,7 @@
       <c r="AK528" s="11"/>
       <c r="AL528" s="11"/>
     </row>
-    <row r="529" spans="1:38" ht="13.1">
+    <row r="529" spans="1:38" ht="12.75">
       <c r="A529" s="30"/>
       <c r="B529" s="32"/>
       <c r="C529" s="30"/>
@@ -26064,7 +26086,7 @@
       <c r="AK529" s="11"/>
       <c r="AL529" s="11"/>
     </row>
-    <row r="530" spans="1:38" ht="13.1">
+    <row r="530" spans="1:38" ht="12.75">
       <c r="A530" s="30"/>
       <c r="B530" s="32"/>
       <c r="C530" s="30"/>
@@ -26104,7 +26126,7 @@
       <c r="AK530" s="11"/>
       <c r="AL530" s="11"/>
     </row>
-    <row r="531" spans="1:38" ht="13.1">
+    <row r="531" spans="1:38" ht="12.75">
       <c r="A531" s="30"/>
       <c r="B531" s="32"/>
       <c r="C531" s="30"/>
@@ -26144,7 +26166,7 @@
       <c r="AK531" s="11"/>
       <c r="AL531" s="11"/>
     </row>
-    <row r="532" spans="1:38" ht="13.1">
+    <row r="532" spans="1:38" ht="12.75">
       <c r="A532" s="30"/>
       <c r="B532" s="32"/>
       <c r="C532" s="30"/>
@@ -26184,7 +26206,7 @@
       <c r="AK532" s="11"/>
       <c r="AL532" s="11"/>
     </row>
-    <row r="533" spans="1:38" ht="13.1">
+    <row r="533" spans="1:38" ht="12.75">
       <c r="A533" s="30"/>
       <c r="B533" s="32"/>
       <c r="C533" s="30"/>
@@ -26224,7 +26246,7 @@
       <c r="AK533" s="11"/>
       <c r="AL533" s="11"/>
     </row>
-    <row r="534" spans="1:38" ht="13.1">
+    <row r="534" spans="1:38" ht="12.75">
       <c r="A534" s="30"/>
       <c r="B534" s="32"/>
       <c r="C534" s="30"/>
@@ -26264,7 +26286,7 @@
       <c r="AK534" s="11"/>
       <c r="AL534" s="11"/>
     </row>
-    <row r="535" spans="1:38" ht="13.1">
+    <row r="535" spans="1:38" ht="12.75">
       <c r="A535" s="30"/>
       <c r="B535" s="32"/>
       <c r="C535" s="30"/>
@@ -26304,7 +26326,7 @@
       <c r="AK535" s="11"/>
       <c r="AL535" s="11"/>
     </row>
-    <row r="536" spans="1:38" ht="13.1">
+    <row r="536" spans="1:38" ht="12.75">
       <c r="A536" s="30"/>
       <c r="B536" s="32"/>
       <c r="C536" s="30"/>
@@ -26344,7 +26366,7 @@
       <c r="AK536" s="11"/>
       <c r="AL536" s="11"/>
     </row>
-    <row r="537" spans="1:38" ht="13.1">
+    <row r="537" spans="1:38" ht="12.75">
       <c r="A537" s="30"/>
       <c r="B537" s="32"/>
       <c r="C537" s="30"/>
@@ -26384,7 +26406,7 @@
       <c r="AK537" s="11"/>
       <c r="AL537" s="11"/>
     </row>
-    <row r="538" spans="1:38" ht="13.1">
+    <row r="538" spans="1:38" ht="12.75">
       <c r="A538" s="30"/>
       <c r="B538" s="32"/>
       <c r="C538" s="30"/>
@@ -26424,7 +26446,7 @@
       <c r="AK538" s="11"/>
       <c r="AL538" s="11"/>
     </row>
-    <row r="539" spans="1:38" ht="13.1">
+    <row r="539" spans="1:38" ht="12.75">
       <c r="A539" s="30"/>
       <c r="B539" s="32"/>
       <c r="C539" s="30"/>
@@ -26464,7 +26486,7 @@
       <c r="AK539" s="11"/>
       <c r="AL539" s="11"/>
     </row>
-    <row r="540" spans="1:38" ht="13.1">
+    <row r="540" spans="1:38" ht="12.75">
       <c r="A540" s="30"/>
       <c r="B540" s="32"/>
       <c r="C540" s="30"/>
@@ -26504,7 +26526,7 @@
       <c r="AK540" s="11"/>
       <c r="AL540" s="11"/>
     </row>
-    <row r="541" spans="1:38" ht="13.1">
+    <row r="541" spans="1:38" ht="12.75">
       <c r="A541" s="30"/>
       <c r="B541" s="32"/>
       <c r="C541" s="30"/>
@@ -26544,7 +26566,7 @@
       <c r="AK541" s="11"/>
       <c r="AL541" s="11"/>
     </row>
-    <row r="542" spans="1:38" ht="13.1">
+    <row r="542" spans="1:38" ht="12.75">
       <c r="A542" s="30"/>
       <c r="B542" s="32"/>
       <c r="C542" s="30"/>
@@ -26584,7 +26606,7 @@
       <c r="AK542" s="11"/>
       <c r="AL542" s="11"/>
     </row>
-    <row r="543" spans="1:38" ht="13.1">
+    <row r="543" spans="1:38" ht="12.75">
       <c r="A543" s="30"/>
       <c r="B543" s="32"/>
       <c r="C543" s="30"/>
@@ -26624,7 +26646,7 @@
       <c r="AK543" s="11"/>
       <c r="AL543" s="11"/>
     </row>
-    <row r="544" spans="1:38" ht="13.1">
+    <row r="544" spans="1:38" ht="12.75">
       <c r="A544" s="30"/>
       <c r="B544" s="32"/>
       <c r="C544" s="30"/>
@@ -26664,7 +26686,7 @@
       <c r="AK544" s="11"/>
       <c r="AL544" s="11"/>
     </row>
-    <row r="545" spans="1:38" ht="13.1">
+    <row r="545" spans="1:38" ht="12.75">
       <c r="A545" s="30"/>
       <c r="B545" s="32"/>
       <c r="C545" s="30"/>
@@ -26704,7 +26726,7 @@
       <c r="AK545" s="11"/>
       <c r="AL545" s="11"/>
     </row>
-    <row r="546" spans="1:38" ht="13.1">
+    <row r="546" spans="1:38" ht="12.75">
       <c r="A546" s="30"/>
       <c r="B546" s="32"/>
       <c r="C546" s="30"/>
@@ -26744,7 +26766,7 @@
       <c r="AK546" s="11"/>
       <c r="AL546" s="11"/>
     </row>
-    <row r="547" spans="1:38" ht="13.1">
+    <row r="547" spans="1:38" ht="12.75">
       <c r="A547" s="30"/>
       <c r="B547" s="32"/>
       <c r="C547" s="30"/>
@@ -26784,7 +26806,7 @@
       <c r="AK547" s="11"/>
       <c r="AL547" s="11"/>
     </row>
-    <row r="548" spans="1:38" ht="13.1">
+    <row r="548" spans="1:38" ht="12.75">
       <c r="A548" s="30"/>
       <c r="B548" s="32"/>
       <c r="C548" s="30"/>
@@ -26824,7 +26846,7 @@
       <c r="AK548" s="11"/>
       <c r="AL548" s="11"/>
     </row>
-    <row r="549" spans="1:38" ht="13.1">
+    <row r="549" spans="1:38" ht="12.75">
       <c r="A549" s="30"/>
       <c r="B549" s="32"/>
       <c r="C549" s="30"/>
@@ -26864,7 +26886,7 @@
       <c r="AK549" s="11"/>
       <c r="AL549" s="11"/>
     </row>
-    <row r="550" spans="1:38" ht="13.1">
+    <row r="550" spans="1:38" ht="12.75">
       <c r="A550" s="30"/>
       <c r="B550" s="32"/>
       <c r="C550" s="30"/>
@@ -26904,7 +26926,7 @@
       <c r="AK550" s="11"/>
       <c r="AL550" s="11"/>
     </row>
-    <row r="551" spans="1:38" ht="13.1">
+    <row r="551" spans="1:38" ht="12.75">
       <c r="A551" s="30"/>
       <c r="B551" s="32"/>
       <c r="C551" s="30"/>
@@ -26944,7 +26966,7 @@
       <c r="AK551" s="11"/>
       <c r="AL551" s="11"/>
     </row>
-    <row r="552" spans="1:38" ht="13.1">
+    <row r="552" spans="1:38" ht="12.75">
       <c r="A552" s="30"/>
       <c r="B552" s="32"/>
       <c r="C552" s="30"/>
@@ -26984,7 +27006,7 @@
       <c r="AK552" s="11"/>
       <c r="AL552" s="11"/>
     </row>
-    <row r="553" spans="1:38" ht="13.1">
+    <row r="553" spans="1:38" ht="12.75">
       <c r="A553" s="30"/>
       <c r="B553" s="32"/>
       <c r="C553" s="30"/>
@@ -27024,7 +27046,7 @@
       <c r="AK553" s="11"/>
       <c r="AL553" s="11"/>
     </row>
-    <row r="554" spans="1:38" ht="13.1">
+    <row r="554" spans="1:38" ht="12.75">
       <c r="A554" s="30"/>
       <c r="B554" s="32"/>
       <c r="C554" s="30"/>
@@ -27064,7 +27086,7 @@
       <c r="AK554" s="11"/>
       <c r="AL554" s="11"/>
     </row>
-    <row r="555" spans="1:38" ht="13.1">
+    <row r="555" spans="1:38" ht="12.75">
       <c r="A555" s="30"/>
       <c r="B555" s="32"/>
       <c r="C555" s="30"/>
@@ -27104,7 +27126,7 @@
       <c r="AK555" s="11"/>
       <c r="AL555" s="11"/>
     </row>
-    <row r="556" spans="1:38" ht="13.1">
+    <row r="556" spans="1:38" ht="12.75">
       <c r="A556" s="30"/>
       <c r="B556" s="32"/>
       <c r="C556" s="30"/>
@@ -27144,7 +27166,7 @@
       <c r="AK556" s="11"/>
       <c r="AL556" s="11"/>
     </row>
-    <row r="557" spans="1:38" ht="13.1">
+    <row r="557" spans="1:38" ht="12.75">
       <c r="A557" s="30"/>
       <c r="B557" s="32"/>
       <c r="C557" s="30"/>
@@ -27184,7 +27206,7 @@
       <c r="AK557" s="11"/>
       <c r="AL557" s="11"/>
     </row>
-    <row r="558" spans="1:38" ht="13.1">
+    <row r="558" spans="1:38" ht="12.75">
       <c r="A558" s="30"/>
       <c r="B558" s="32"/>
       <c r="C558" s="30"/>
@@ -27224,7 +27246,7 @@
       <c r="AK558" s="11"/>
       <c r="AL558" s="11"/>
     </row>
-    <row r="559" spans="1:38" ht="13.1">
+    <row r="559" spans="1:38" ht="12.75">
       <c r="A559" s="30"/>
       <c r="B559" s="32"/>
       <c r="C559" s="30"/>
@@ -27264,7 +27286,7 @@
       <c r="AK559" s="11"/>
       <c r="AL559" s="11"/>
     </row>
-    <row r="560" spans="1:38" ht="13.1">
+    <row r="560" spans="1:38" ht="12.75">
       <c r="A560" s="30"/>
       <c r="B560" s="32"/>
       <c r="C560" s="30"/>
@@ -27304,7 +27326,7 @@
       <c r="AK560" s="11"/>
       <c r="AL560" s="11"/>
     </row>
-    <row r="561" spans="1:38" ht="13.1">
+    <row r="561" spans="1:38" ht="12.75">
       <c r="A561" s="30"/>
       <c r="B561" s="32"/>
       <c r="C561" s="30"/>
@@ -27344,7 +27366,7 @@
       <c r="AK561" s="11"/>
       <c r="AL561" s="11"/>
     </row>
-    <row r="562" spans="1:38" ht="13.1">
+    <row r="562" spans="1:38" ht="12.75">
       <c r="A562" s="30"/>
       <c r="B562" s="32"/>
       <c r="C562" s="30"/>
@@ -27384,7 +27406,7 @@
       <c r="AK562" s="11"/>
       <c r="AL562" s="11"/>
     </row>
-    <row r="563" spans="1:38" ht="13.1">
+    <row r="563" spans="1:38" ht="12.75">
       <c r="A563" s="30"/>
       <c r="B563" s="32"/>
       <c r="C563" s="30"/>
@@ -27424,7 +27446,7 @@
       <c r="AK563" s="11"/>
       <c r="AL563" s="11"/>
     </row>
-    <row r="564" spans="1:38" ht="13.1">
+    <row r="564" spans="1:38" ht="12.75">
       <c r="A564" s="30"/>
       <c r="B564" s="32"/>
       <c r="C564" s="30"/>
@@ -27464,7 +27486,7 @@
       <c r="AK564" s="11"/>
       <c r="AL564" s="11"/>
     </row>
-    <row r="565" spans="1:38" ht="13.1">
+    <row r="565" spans="1:38" ht="12.75">
       <c r="A565" s="30"/>
       <c r="B565" s="32"/>
       <c r="C565" s="30"/>
@@ -27504,7 +27526,7 @@
       <c r="AK565" s="11"/>
       <c r="AL565" s="11"/>
     </row>
-    <row r="566" spans="1:38" ht="13.1">
+    <row r="566" spans="1:38" ht="12.75">
       <c r="A566" s="30"/>
       <c r="B566" s="32"/>
       <c r="C566" s="30"/>
@@ -27544,7 +27566,7 @@
       <c r="AK566" s="11"/>
       <c r="AL566" s="11"/>
     </row>
-    <row r="567" spans="1:38" ht="13.1">
+    <row r="567" spans="1:38" ht="12.75">
       <c r="A567" s="30"/>
       <c r="B567" s="32"/>
       <c r="C567" s="30"/>
@@ -27584,7 +27606,7 @@
       <c r="AK567" s="11"/>
       <c r="AL567" s="11"/>
     </row>
-    <row r="568" spans="1:38" ht="13.1">
+    <row r="568" spans="1:38" ht="12.75">
       <c r="A568" s="30"/>
       <c r="B568" s="32"/>
       <c r="C568" s="30"/>
@@ -27624,7 +27646,7 @@
       <c r="AK568" s="11"/>
       <c r="AL568" s="11"/>
     </row>
-    <row r="569" spans="1:38" ht="13.1">
+    <row r="569" spans="1:38" ht="12.75">
       <c r="A569" s="30"/>
       <c r="B569" s="32"/>
       <c r="C569" s="30"/>
@@ -27664,7 +27686,7 @@
       <c r="AK569" s="11"/>
       <c r="AL569" s="11"/>
     </row>
-    <row r="570" spans="1:38" ht="13.1">
+    <row r="570" spans="1:38" ht="12.75">
       <c r="A570" s="30"/>
       <c r="B570" s="32"/>
       <c r="C570" s="30"/>
@@ -27704,7 +27726,7 @@
       <c r="AK570" s="11"/>
       <c r="AL570" s="11"/>
     </row>
-    <row r="571" spans="1:38" ht="13.1">
+    <row r="571" spans="1:38" ht="12.75">
       <c r="A571" s="30"/>
       <c r="B571" s="32"/>
       <c r="C571" s="30"/>
@@ -27744,7 +27766,7 @@
       <c r="AK571" s="11"/>
       <c r="AL571" s="11"/>
     </row>
-    <row r="572" spans="1:38" ht="13.1">
+    <row r="572" spans="1:38" ht="12.75">
       <c r="A572" s="30"/>
       <c r="B572" s="32"/>
       <c r="C572" s="30"/>
@@ -27784,7 +27806,7 @@
       <c r="AK572" s="11"/>
       <c r="AL572" s="11"/>
     </row>
-    <row r="573" spans="1:38" ht="13.1">
+    <row r="573" spans="1:38" ht="12.75">
       <c r="A573" s="30"/>
       <c r="B573" s="32"/>
       <c r="C573" s="30"/>
@@ -27824,7 +27846,7 @@
       <c r="AK573" s="11"/>
       <c r="AL573" s="11"/>
     </row>
-    <row r="574" spans="1:38" ht="13.1">
+    <row r="574" spans="1:38" ht="12.75">
       <c r="A574" s="30"/>
       <c r="B574" s="32"/>
       <c r="C574" s="30"/>
@@ -27864,7 +27886,7 @@
       <c r="AK574" s="11"/>
       <c r="AL574" s="11"/>
     </row>
-    <row r="575" spans="1:38" ht="13.1">
+    <row r="575" spans="1:38" ht="12.75">
       <c r="A575" s="30"/>
       <c r="B575" s="32"/>
       <c r="C575" s="30"/>
@@ -27904,7 +27926,7 @@
       <c r="AK575" s="11"/>
       <c r="AL575" s="11"/>
     </row>
-    <row r="576" spans="1:38" ht="13.1">
+    <row r="576" spans="1:38" ht="12.75">
       <c r="A576" s="30"/>
       <c r="B576" s="32"/>
       <c r="C576" s="30"/>
@@ -27944,7 +27966,7 @@
       <c r="AK576" s="11"/>
       <c r="AL576" s="11"/>
     </row>
-    <row r="577" spans="1:38" ht="13.1">
+    <row r="577" spans="1:38" ht="12.75">
       <c r="A577" s="30"/>
       <c r="B577" s="32"/>
       <c r="C577" s="30"/>
@@ -27984,7 +28006,7 @@
       <c r="AK577" s="11"/>
       <c r="AL577" s="11"/>
     </row>
-    <row r="578" spans="1:38" ht="13.1">
+    <row r="578" spans="1:38" ht="12.75">
       <c r="A578" s="30"/>
       <c r="B578" s="32"/>
       <c r="C578" s="30"/>
@@ -28024,7 +28046,7 @@
       <c r="AK578" s="11"/>
       <c r="AL578" s="11"/>
     </row>
-    <row r="579" spans="1:38" ht="13.1">
+    <row r="579" spans="1:38" ht="12.75">
       <c r="A579" s="30"/>
       <c r="B579" s="32"/>
       <c r="C579" s="30"/>
@@ -28064,7 +28086,7 @@
       <c r="AK579" s="11"/>
       <c r="AL579" s="11"/>
     </row>
-    <row r="580" spans="1:38" ht="13.1">
+    <row r="580" spans="1:38" ht="12.75">
       <c r="A580" s="30"/>
       <c r="B580" s="32"/>
       <c r="C580" s="30"/>
@@ -28104,7 +28126,7 @@
       <c r="AK580" s="11"/>
       <c r="AL580" s="11"/>
     </row>
-    <row r="581" spans="1:38" ht="13.1">
+    <row r="581" spans="1:38" ht="12.75">
       <c r="A581" s="30"/>
       <c r="B581" s="32"/>
       <c r="C581" s="30"/>
@@ -28144,7 +28166,7 @@
       <c r="AK581" s="11"/>
       <c r="AL581" s="11"/>
     </row>
-    <row r="582" spans="1:38" ht="13.1">
+    <row r="582" spans="1:38" ht="12.75">
       <c r="A582" s="30"/>
       <c r="B582" s="32"/>
       <c r="C582" s="30"/>
@@ -28184,7 +28206,7 @@
       <c r="AK582" s="11"/>
       <c r="AL582" s="11"/>
     </row>
-    <row r="583" spans="1:38" ht="13.1">
+    <row r="583" spans="1:38" ht="12.75">
       <c r="A583" s="30"/>
       <c r="B583" s="32"/>
       <c r="C583" s="30"/>
@@ -28224,7 +28246,7 @@
       <c r="AK583" s="11"/>
       <c r="AL583" s="11"/>
     </row>
-    <row r="584" spans="1:38" ht="13.1">
+    <row r="584" spans="1:38" ht="12.75">
       <c r="A584" s="30"/>
       <c r="B584" s="32"/>
       <c r="C584" s="30"/>
@@ -28264,7 +28286,7 @@
       <c r="AK584" s="11"/>
       <c r="AL584" s="11"/>
     </row>
-    <row r="585" spans="1:38" ht="13.1">
+    <row r="585" spans="1:38" ht="12.75">
       <c r="A585" s="30"/>
       <c r="B585" s="32"/>
       <c r="C585" s="30"/>
@@ -28304,7 +28326,7 @@
       <c r="AK585" s="11"/>
       <c r="AL585" s="11"/>
     </row>
-    <row r="586" spans="1:38" ht="13.1">
+    <row r="586" spans="1:38" ht="12.75">
       <c r="A586" s="30"/>
       <c r="B586" s="32"/>
       <c r="C586" s="30"/>
@@ -28344,7 +28366,7 @@
       <c r="AK586" s="11"/>
       <c r="AL586" s="11"/>
     </row>
-    <row r="587" spans="1:38" ht="13.1">
+    <row r="587" spans="1:38" ht="12.75">
       <c r="A587" s="30"/>
       <c r="B587" s="32"/>
       <c r="C587" s="30"/>
@@ -28384,7 +28406,7 @@
       <c r="AK587" s="11"/>
       <c r="AL587" s="11"/>
     </row>
-    <row r="588" spans="1:38" ht="13.1">
+    <row r="588" spans="1:38" ht="12.75">
       <c r="A588" s="30"/>
       <c r="B588" s="32"/>
       <c r="C588" s="30"/>
@@ -28424,7 +28446,7 @@
       <c r="AK588" s="11"/>
       <c r="AL588" s="11"/>
     </row>
-    <row r="589" spans="1:38" ht="13.1">
+    <row r="589" spans="1:38" ht="12.75">
       <c r="A589" s="30"/>
       <c r="B589" s="32"/>
       <c r="C589" s="30"/>
@@ -28464,7 +28486,7 @@
       <c r="AK589" s="11"/>
       <c r="AL589" s="11"/>
     </row>
-    <row r="590" spans="1:38" ht="13.1">
+    <row r="590" spans="1:38" ht="12.75">
       <c r="A590" s="30"/>
       <c r="B590" s="32"/>
       <c r="C590" s="30"/>
@@ -28504,7 +28526,7 @@
       <c r="AK590" s="11"/>
       <c r="AL590" s="11"/>
     </row>
-    <row r="591" spans="1:38" ht="13.1">
+    <row r="591" spans="1:38" ht="12.75">
       <c r="A591" s="30"/>
       <c r="B591" s="32"/>
       <c r="C591" s="30"/>
@@ -28544,7 +28566,7 @@
       <c r="AK591" s="11"/>
       <c r="AL591" s="11"/>
     </row>
-    <row r="592" spans="1:38" ht="13.1">
+    <row r="592" spans="1:38" ht="12.75">
       <c r="A592" s="30"/>
       <c r="B592" s="32"/>
       <c r="C592" s="30"/>
@@ -28584,7 +28606,7 @@
       <c r="AK592" s="11"/>
       <c r="AL592" s="11"/>
     </row>
-    <row r="593" spans="1:38" ht="13.1">
+    <row r="593" spans="1:38" ht="12.75">
       <c r="A593" s="30"/>
       <c r="B593" s="32"/>
       <c r="C593" s="30"/>
@@ -28624,7 +28646,7 @@
       <c r="AK593" s="11"/>
       <c r="AL593" s="11"/>
     </row>
-    <row r="594" spans="1:38" ht="13.1">
+    <row r="594" spans="1:38" ht="12.75">
       <c r="A594" s="30"/>
       <c r="B594" s="32"/>
       <c r="C594" s="30"/>
@@ -28664,7 +28686,7 @@
       <c r="AK594" s="11"/>
       <c r="AL594" s="11"/>
     </row>
-    <row r="595" spans="1:38" ht="13.1">
+    <row r="595" spans="1:38" ht="12.75">
       <c r="A595" s="30"/>
       <c r="B595" s="32"/>
       <c r="C595" s="30"/>
@@ -28704,7 +28726,7 @@
       <c r="AK595" s="11"/>
       <c r="AL595" s="11"/>
     </row>
-    <row r="596" spans="1:38" ht="13.1">
+    <row r="596" spans="1:38" ht="12.75">
       <c r="A596" s="30"/>
       <c r="B596" s="32"/>
       <c r="C596" s="30"/>
@@ -28744,7 +28766,7 @@
       <c r="AK596" s="11"/>
       <c r="AL596" s="11"/>
     </row>
-    <row r="597" spans="1:38" ht="13.1">
+    <row r="597" spans="1:38" ht="12.75">
       <c r="A597" s="30"/>
       <c r="B597" s="32"/>
       <c r="C597" s="30"/>
@@ -28784,7 +28806,7 @@
       <c r="AK597" s="11"/>
       <c r="AL597" s="11"/>
     </row>
-    <row r="598" spans="1:38" ht="13.1">
+    <row r="598" spans="1:38" ht="12.75">
       <c r="A598" s="30"/>
       <c r="B598" s="32"/>
       <c r="C598" s="30"/>
@@ -28824,7 +28846,7 @@
       <c r="AK598" s="11"/>
       <c r="AL598" s="11"/>
     </row>
-    <row r="599" spans="1:38" ht="13.1">
+    <row r="599" spans="1:38" ht="12.75">
       <c r="A599" s="30"/>
       <c r="B599" s="32"/>
       <c r="C599" s="30"/>
@@ -28864,7 +28886,7 @@
       <c r="AK599" s="11"/>
       <c r="AL599" s="11"/>
     </row>
-    <row r="600" spans="1:38" ht="13.1">
+    <row r="600" spans="1:38" ht="12.75">
       <c r="A600" s="30"/>
       <c r="B600" s="32"/>
       <c r="C600" s="30"/>
@@ -28904,7 +28926,7 @@
       <c r="AK600" s="11"/>
       <c r="AL600" s="11"/>
     </row>
-    <row r="601" spans="1:38" ht="13.1">
+    <row r="601" spans="1:38" ht="12.75">
       <c r="A601" s="30"/>
       <c r="B601" s="32"/>
       <c r="C601" s="30"/>
@@ -28944,7 +28966,7 @@
       <c r="AK601" s="11"/>
       <c r="AL601" s="11"/>
     </row>
-    <row r="602" spans="1:38" ht="13.1">
+    <row r="602" spans="1:38" ht="12.75">
       <c r="A602" s="30"/>
       <c r="B602" s="32"/>
       <c r="C602" s="30"/>
@@ -28984,7 +29006,7 @@
       <c r="AK602" s="11"/>
       <c r="AL602" s="11"/>
     </row>
-    <row r="603" spans="1:38" ht="13.1">
+    <row r="603" spans="1:38" ht="12.75">
       <c r="A603" s="30"/>
       <c r="B603" s="32"/>
       <c r="C603" s="30"/>
@@ -29024,7 +29046,7 @@
       <c r="AK603" s="11"/>
       <c r="AL603" s="11"/>
     </row>
-    <row r="604" spans="1:38" ht="13.1">
+    <row r="604" spans="1:38" ht="12.75">
       <c r="A604" s="30"/>
       <c r="B604" s="32"/>
       <c r="C604" s="30"/>
@@ -29064,7 +29086,7 @@
       <c r="AK604" s="11"/>
       <c r="AL604" s="11"/>
     </row>
-    <row r="605" spans="1:38" ht="13.1">
+    <row r="605" spans="1:38" ht="12.75">
       <c r="A605" s="30"/>
       <c r="B605" s="32"/>
       <c r="C605" s="30"/>
@@ -29104,7 +29126,7 @@
       <c r="AK605" s="11"/>
       <c r="AL605" s="11"/>
     </row>
-    <row r="606" spans="1:38" ht="13.1">
+    <row r="606" spans="1:38" ht="12.75">
       <c r="A606" s="30"/>
       <c r="B606" s="32"/>
       <c r="C606" s="30"/>
@@ -29144,7 +29166,7 @@
       <c r="AK606" s="11"/>
       <c r="AL606" s="11"/>
     </row>
-    <row r="607" spans="1:38" ht="13.1">
+    <row r="607" spans="1:38" ht="12.75">
       <c r="A607" s="30"/>
       <c r="B607" s="32"/>
       <c r="C607" s="30"/>
@@ -29184,7 +29206,7 @@
       <c r="AK607" s="11"/>
       <c r="AL607" s="11"/>
     </row>
-    <row r="608" spans="1:38" ht="13.1">
+    <row r="608" spans="1:38" ht="12.75">
       <c r="A608" s="30"/>
       <c r="B608" s="32"/>
       <c r="C608" s="30"/>
@@ -29224,7 +29246,7 @@
       <c r="AK608" s="11"/>
       <c r="AL608" s="11"/>
     </row>
-    <row r="609" spans="1:38" ht="13.1">
+    <row r="609" spans="1:38" ht="12.75">
       <c r="A609" s="30"/>
       <c r="B609" s="32"/>
       <c r="C609" s="30"/>
@@ -29264,7 +29286,7 @@
       <c r="AK609" s="11"/>
       <c r="AL609" s="11"/>
     </row>
-    <row r="610" spans="1:38" ht="13.1">
+    <row r="610" spans="1:38" ht="12.75">
       <c r="A610" s="30"/>
       <c r="B610" s="32"/>
       <c r="C610" s="30"/>
@@ -29304,7 +29326,7 @@
       <c r="AK610" s="11"/>
       <c r="AL610" s="11"/>
     </row>
-    <row r="611" spans="1:38" ht="13.1">
+    <row r="611" spans="1:38" ht="12.75">
       <c r="A611" s="30"/>
       <c r="B611" s="32"/>
       <c r="C611" s="30"/>
@@ -29344,7 +29366,7 @@
       <c r="AK611" s="11"/>
       <c r="AL611" s="11"/>
     </row>
-    <row r="612" spans="1:38" ht="13.1">
+    <row r="612" spans="1:38" ht="12.75">
       <c r="A612" s="30"/>
       <c r="B612" s="32"/>
       <c r="C612" s="30"/>
@@ -29384,7 +29406,7 @@
       <c r="AK612" s="11"/>
       <c r="AL612" s="11"/>
     </row>
-    <row r="613" spans="1:38" ht="13.1">
+    <row r="613" spans="1:38" ht="12.75">
       <c r="A613" s="30"/>
       <c r="B613" s="32"/>
       <c r="C613" s="30"/>
@@ -29424,7 +29446,7 @@
       <c r="AK613" s="11"/>
       <c r="AL613" s="11"/>
     </row>
-    <row r="614" spans="1:38" ht="13.1">
+    <row r="614" spans="1:38" ht="12.75">
       <c r="A614" s="30"/>
       <c r="B614" s="32"/>
       <c r="C614" s="30"/>
@@ -29464,7 +29486,7 @@
       <c r="AK614" s="11"/>
       <c r="AL614" s="11"/>
     </row>
-    <row r="615" spans="1:38" ht="13.1">
+    <row r="615" spans="1:38" ht="12.75">
       <c r="A615" s="30"/>
       <c r="B615" s="32"/>
       <c r="C615" s="30"/>
@@ -29504,7 +29526,7 @@
       <c r="AK615" s="11"/>
       <c r="AL615" s="11"/>
     </row>
-    <row r="616" spans="1:38" ht="13.1">
+    <row r="616" spans="1:38" ht="12.75">
       <c r="A616" s="30"/>
       <c r="B616" s="32"/>
       <c r="C616" s="30"/>
@@ -29544,7 +29566,7 @@
       <c r="AK616" s="11"/>
       <c r="AL616" s="11"/>
     </row>
-    <row r="617" spans="1:38" ht="13.1">
+    <row r="617" spans="1:38" ht="12.75">
       <c r="A617" s="30"/>
       <c r="B617" s="32"/>
       <c r="C617" s="30"/>
@@ -29584,7 +29606,7 @@
       <c r="AK617" s="11"/>
       <c r="AL617" s="11"/>
     </row>
-    <row r="618" spans="1:38" ht="13.1">
+    <row r="618" spans="1:38" ht="12.75">
       <c r="A618" s="30"/>
       <c r="B618" s="32"/>
       <c r="C618" s="30"/>
@@ -29624,7 +29646,7 @@
       <c r="AK618" s="11"/>
       <c r="AL618" s="11"/>
     </row>
-    <row r="619" spans="1:38" ht="13.1">
+    <row r="619" spans="1:38" ht="12.75">
       <c r="A619" s="30"/>
       <c r="B619" s="32"/>
       <c r="C619" s="30"/>
@@ -29664,7 +29686,7 @@
       <c r="AK619" s="11"/>
       <c r="AL619" s="11"/>
     </row>
-    <row r="620" spans="1:38" ht="13.1">
+    <row r="620" spans="1:38" ht="12.75">
       <c r="A620" s="30"/>
       <c r="B620" s="32"/>
       <c r="C620" s="30"/>
@@ -29704,7 +29726,7 @@
       <c r="AK620" s="11"/>
       <c r="AL620" s="11"/>
     </row>
-    <row r="621" spans="1:38" ht="13.1">
+    <row r="621" spans="1:38" ht="12.75">
       <c r="A621" s="30"/>
       <c r="B621" s="32"/>
       <c r="C621" s="30"/>
@@ -29744,7 +29766,7 @@
       <c r="AK621" s="11"/>
       <c r="AL621" s="11"/>
     </row>
-    <row r="622" spans="1:38" ht="13.1">
+    <row r="622" spans="1:38" ht="12.75">
       <c r="A622" s="30"/>
       <c r="B622" s="32"/>
       <c r="C622" s="30"/>
@@ -29784,7 +29806,7 @@
       <c r="AK622" s="11"/>
       <c r="AL622" s="11"/>
     </row>
-    <row r="623" spans="1:38" ht="13.1">
+    <row r="623" spans="1:38" ht="12.75">
       <c r="A623" s="30"/>
       <c r="B623" s="32"/>
       <c r="C623" s="30"/>
@@ -29824,7 +29846,7 @@
       <c r="AK623" s="11"/>
       <c r="AL623" s="11"/>
     </row>
-    <row r="624" spans="1:38" ht="13.1">
+    <row r="624" spans="1:38" ht="12.75">
       <c r="A624" s="30"/>
       <c r="B624" s="32"/>
       <c r="C624" s="30"/>
@@ -29864,7 +29886,7 @@
       <c r="AK624" s="11"/>
       <c r="AL624" s="11"/>
     </row>
-    <row r="625" spans="1:38" ht="13.1">
+    <row r="625" spans="1:38" ht="12.75">
       <c r="A625" s="30"/>
       <c r="B625" s="32"/>
       <c r="C625" s="30"/>
@@ -29904,7 +29926,7 @@
       <c r="AK625" s="11"/>
       <c r="AL625" s="11"/>
     </row>
-    <row r="626" spans="1:38" ht="13.1">
+    <row r="626" spans="1:38" ht="12.75">
       <c r="A626" s="30"/>
       <c r="B626" s="32"/>
       <c r="C626" s="30"/>
@@ -29944,7 +29966,7 @@
       <c r="AK626" s="11"/>
       <c r="AL626" s="11"/>
     </row>
-    <row r="627" spans="1:38" ht="13.1">
+    <row r="627" spans="1:38" ht="12.75">
       <c r="A627" s="30"/>
       <c r="B627" s="32"/>
       <c r="C627" s="30"/>
@@ -29984,7 +30006,7 @@
       <c r="AK627" s="11"/>
       <c r="AL627" s="11"/>
     </row>
-    <row r="628" spans="1:38" ht="13.1">
+    <row r="628" spans="1:38" ht="12.75">
       <c r="A628" s="30"/>
       <c r="B628" s="32"/>
       <c r="C628" s="30"/>
@@ -30024,7 +30046,7 @@
       <c r="AK628" s="11"/>
       <c r="AL628" s="11"/>
     </row>
-    <row r="629" spans="1:38" ht="13.1">
+    <row r="629" spans="1:38" ht="12.75">
       <c r="A629" s="30"/>
       <c r="B629" s="32"/>
       <c r="C629" s="30"/>
@@ -30064,7 +30086,7 @@
       <c r="AK629" s="11"/>
       <c r="AL629" s="11"/>
     </row>
-    <row r="630" spans="1:38" ht="13.1">
+    <row r="630" spans="1:38" ht="12.75">
       <c r="A630" s="30"/>
       <c r="B630" s="32"/>
       <c r="C630" s="30"/>
@@ -30104,7 +30126,7 @@
       <c r="AK630" s="11"/>
       <c r="AL630" s="11"/>
     </row>
-    <row r="631" spans="1:38" ht="13.1">
+    <row r="631" spans="1:38" ht="12.75">
       <c r="A631" s="30"/>
       <c r="B631" s="32"/>
       <c r="C631" s="30"/>
@@ -30144,7 +30166,7 @@
       <c r="AK631" s="11"/>
       <c r="AL631" s="11"/>
     </row>
-    <row r="632" spans="1:38" ht="13.1">
+    <row r="632" spans="1:38" ht="12.75">
       <c r="A632" s="30"/>
       <c r="B632" s="32"/>
       <c r="C632" s="30"/>
@@ -30184,7 +30206,7 @@
       <c r="AK632" s="11"/>
       <c r="AL632" s="11"/>
     </row>
-    <row r="633" spans="1:38" ht="13.1">
+    <row r="633" spans="1:38" ht="12.75">
       <c r="A633" s="30"/>
       <c r="B633" s="32"/>
       <c r="C633" s="30"/>
@@ -30224,7 +30246,7 @@
       <c r="AK633" s="11"/>
       <c r="AL633" s="11"/>
     </row>
-    <row r="634" spans="1:38" ht="13.1">
+    <row r="634" spans="1:38" ht="12.75">
       <c r="A634" s="30"/>
       <c r="B634" s="32"/>
       <c r="C634" s="30"/>
@@ -30264,7 +30286,7 @@
       <c r="AK634" s="11"/>
       <c r="AL634" s="11"/>
     </row>
-    <row r="635" spans="1:38" ht="13.1">
+    <row r="635" spans="1:38" ht="12.75">
       <c r="A635" s="30"/>
       <c r="B635" s="32"/>
       <c r="C635" s="30"/>
@@ -30304,7 +30326,7 @@
       <c r="AK635" s="11"/>
       <c r="AL635" s="11"/>
     </row>
-    <row r="636" spans="1:38" ht="13.1">
+    <row r="636" spans="1:38" ht="12.75">
       <c r="A636" s="30"/>
       <c r="B636" s="32"/>
       <c r="C636" s="30"/>
@@ -30344,7 +30366,7 @@
       <c r="AK636" s="11"/>
       <c r="AL636" s="11"/>
     </row>
-    <row r="637" spans="1:38" ht="13.1">
+    <row r="637" spans="1:38" ht="12.75">
       <c r="A637" s="30"/>
       <c r="B637" s="32"/>
       <c r="C637" s="30"/>
@@ -30384,7 +30406,7 @@
       <c r="AK637" s="11"/>
       <c r="AL637" s="11"/>
     </row>
-    <row r="638" spans="1:38" ht="13.1">
+    <row r="638" spans="1:38" ht="12.75">
       <c r="A638" s="30"/>
       <c r="B638" s="32"/>
       <c r="C638" s="30"/>
@@ -30424,7 +30446,7 @@
       <c r="AK638" s="11"/>
       <c r="AL638" s="11"/>
     </row>
-    <row r="639" spans="1:38" ht="13.1">
+    <row r="639" spans="1:38" ht="12.75">
       <c r="A639" s="30"/>
       <c r="B639" s="32"/>
       <c r="C639" s="30"/>
@@ -30464,7 +30486,7 @@
       <c r="AK639" s="11"/>
       <c r="AL639" s="11"/>
     </row>
-    <row r="640" spans="1:38" ht="13.1">
+    <row r="640" spans="1:38" ht="12.75">
       <c r="A640" s="30"/>
       <c r="B640" s="32"/>
       <c r="C640" s="30"/>
@@ -30504,7 +30526,7 @@
       <c r="AK640" s="11"/>
       <c r="AL640" s="11"/>
     </row>
-    <row r="641" spans="1:38" ht="13.1">
+    <row r="641" spans="1:38" ht="12.75">
       <c r="A641" s="30"/>
       <c r="B641" s="32"/>
       <c r="C641" s="30"/>
@@ -30544,7 +30566,7 @@
       <c r="AK641" s="11"/>
       <c r="AL641" s="11"/>
     </row>
-    <row r="642" spans="1:38" ht="13.1">
+    <row r="642" spans="1:38" ht="12.75">
       <c r="A642" s="30"/>
       <c r="B642" s="32"/>
       <c r="C642" s="30"/>
@@ -30584,7 +30606,7 @@
       <c r="AK642" s="11"/>
       <c r="AL642" s="11"/>
     </row>
-    <row r="643" spans="1:38" ht="13.1">
+    <row r="643" spans="1:38" ht="12.75">
       <c r="A643" s="30"/>
       <c r="B643" s="32"/>
       <c r="C643" s="30"/>
@@ -30624,7 +30646,7 @@
       <c r="AK643" s="11"/>
       <c r="AL643" s="11"/>
     </row>
-    <row r="644" spans="1:38" ht="13.1">
+    <row r="644" spans="1:38" ht="12.75">
       <c r="A644" s="30"/>
       <c r="B644" s="32"/>
       <c r="C644" s="30"/>
@@ -30664,7 +30686,7 @@
       <c r="AK644" s="11"/>
       <c r="AL644" s="11"/>
     </row>
-    <row r="645" spans="1:38" ht="13.1">
+    <row r="645" spans="1:38" ht="12.75">
       <c r="A645" s="30"/>
       <c r="B645" s="32"/>
       <c r="C645" s="30"/>
@@ -30704,7 +30726,7 @@
       <c r="AK645" s="11"/>
       <c r="AL645" s="11"/>
     </row>
-    <row r="646" spans="1:38" ht="13.1">
+    <row r="646" spans="1:38" ht="12.75">
       <c r="A646" s="30"/>
       <c r="B646" s="32"/>
       <c r="C646" s="30"/>
@@ -30744,7 +30766,7 @@
       <c r="AK646" s="11"/>
       <c r="AL646" s="11"/>
     </row>
-    <row r="647" spans="1:38" ht="13.1">
+    <row r="647" spans="1:38" ht="12.75">
       <c r="A647" s="30"/>
       <c r="B647" s="32"/>
       <c r="C647" s="30"/>
@@ -30784,7 +30806,7 @@
       <c r="AK647" s="11"/>
       <c r="AL647" s="11"/>
     </row>
-    <row r="648" spans="1:38" ht="13.1">
+    <row r="648" spans="1:38" ht="12.75">
       <c r="A648" s="30"/>
       <c r="B648" s="32"/>
       <c r="C648" s="30"/>
@@ -30824,7 +30846,7 @@
       <c r="AK648" s="11"/>
       <c r="AL648" s="11"/>
     </row>
-    <row r="649" spans="1:38" ht="13.1">
+    <row r="649" spans="1:38" ht="12.75">
       <c r="A649" s="30"/>
       <c r="B649" s="32"/>
       <c r="C649" s="30"/>
@@ -30864,7 +30886,7 @@
       <c r="AK649" s="11"/>
       <c r="AL649" s="11"/>
     </row>
-    <row r="650" spans="1:38" ht="13.1">
+    <row r="650" spans="1:38" ht="12.75">
       <c r="A650" s="30"/>
       <c r="B650" s="32"/>
       <c r="C650" s="30"/>
@@ -30904,7 +30926,7 @@
       <c r="AK650" s="11"/>
       <c r="AL650" s="11"/>
     </row>
-    <row r="651" spans="1:38" ht="13.1">
+    <row r="651" spans="1:38" ht="12.75">
       <c r="A651" s="30"/>
       <c r="B651" s="32"/>
       <c r="C651" s="30"/>
@@ -30944,7 +30966,7 @@
       <c r="AK651" s="11"/>
       <c r="AL651" s="11"/>
     </row>
-    <row r="652" spans="1:38" ht="13.1">
+    <row r="652" spans="1:38" ht="12.75">
       <c r="A652" s="30"/>
       <c r="B652" s="32"/>
       <c r="C652" s="30"/>
@@ -30984,7 +31006,7 @@
       <c r="AK652" s="11"/>
       <c r="AL652" s="11"/>
     </row>
-    <row r="653" spans="1:38" ht="13.1">
+    <row r="653" spans="1:38" ht="12.75">
       <c r="A653" s="30"/>
       <c r="B653" s="32"/>
       <c r="C653" s="30"/>
@@ -31024,7 +31046,7 @@
       <c r="AK653" s="11"/>
       <c r="AL653" s="11"/>
     </row>
-    <row r="654" spans="1:38" ht="13.1">
+    <row r="654" spans="1:38" ht="12.75">
       <c r="A654" s="30"/>
       <c r="B654" s="32"/>
       <c r="C654" s="30"/>
@@ -31064,7 +31086,7 @@
       <c r="AK654" s="11"/>
       <c r="AL654" s="11"/>
     </row>
-    <row r="655" spans="1:38" ht="13.1">
+    <row r="655" spans="1:38" ht="12.75">
       <c r="A655" s="30"/>
       <c r="B655" s="32"/>
       <c r="C655" s="30"/>
@@ -31104,7 +31126,7 @@
       <c r="AK655" s="11"/>
       <c r="AL655" s="11"/>
     </row>
-    <row r="656" spans="1:38" ht="13.1">
+    <row r="656" spans="1:38" ht="12.75">
       <c r="A656" s="30"/>
       <c r="B656" s="32"/>
       <c r="C656" s="30"/>
@@ -31144,7 +31166,7 @@
       <c r="AK656" s="11"/>
       <c r="AL656" s="11"/>
     </row>
-    <row r="657" spans="1:38" ht="13.1">
+    <row r="657" spans="1:38" ht="12.75">
       <c r="A657" s="30"/>
       <c r="B657" s="32"/>
       <c r="C657" s="30"/>
@@ -31184,7 +31206,7 @@
       <c r="AK657" s="11"/>
       <c r="AL657" s="11"/>
     </row>
-    <row r="658" spans="1:38" ht="13.1">
+    <row r="658" spans="1:38" ht="12.75">
       <c r="A658" s="30"/>
       <c r="B658" s="32"/>
       <c r="C658" s="30"/>
@@ -31224,7 +31246,7 @@
       <c r="AK658" s="11"/>
       <c r="AL658" s="11"/>
     </row>
-    <row r="659" spans="1:38" ht="13.1">
+    <row r="659" spans="1:38" ht="12.75">
       <c r="A659" s="30"/>
       <c r="B659" s="32"/>
       <c r="C659" s="30"/>
@@ -31264,7 +31286,7 @@
       <c r="AK659" s="11"/>
       <c r="AL659" s="11"/>
     </row>
-    <row r="660" spans="1:38" ht="13.1">
+    <row r="660" spans="1:38" ht="12.75">
       <c r="A660" s="30"/>
       <c r="B660" s="32"/>
       <c r="C660" s="30"/>
@@ -31304,7 +31326,7 @@
       <c r="AK660" s="11"/>
       <c r="AL660" s="11"/>
     </row>
-    <row r="661" spans="1:38" ht="13.1">
+    <row r="661" spans="1:38" ht="12.75">
       <c r="A661" s="30"/>
       <c r="B661" s="32"/>
       <c r="C661" s="30"/>
@@ -31344,7 +31366,7 @@
       <c r="AK661" s="11"/>
       <c r="AL661" s="11"/>
     </row>
-    <row r="662" spans="1:38" ht="13.1">
+    <row r="662" spans="1:38" ht="12.75">
       <c r="A662" s="30"/>
       <c r="B662" s="32"/>
       <c r="C662" s="30"/>
@@ -31384,7 +31406,7 @@
       <c r="AK662" s="11"/>
       <c r="AL662" s="11"/>
     </row>
-    <row r="663" spans="1:38" ht="13.1">
+    <row r="663" spans="1:38" ht="12.75">
       <c r="A663" s="30"/>
       <c r="B663" s="32"/>
       <c r="C663" s="30"/>
@@ -31424,7 +31446,7 @@
       <c r="AK663" s="11"/>
       <c r="AL663" s="11"/>
     </row>
-    <row r="664" spans="1:38" ht="13.1">
+    <row r="664" spans="1:38" ht="12.75">
       <c r="A664" s="30"/>
       <c r="B664" s="32"/>
       <c r="C664" s="30"/>
@@ -31464,7 +31486,7 @@
       <c r="AK664" s="11"/>
       <c r="AL664" s="11"/>
     </row>
-    <row r="665" spans="1:38" ht="13.1">
+    <row r="665" spans="1:38" ht="12.75">
       <c r="A665" s="30"/>
       <c r="B665" s="32"/>
       <c r="C665" s="30"/>
@@ -31504,7 +31526,7 @@
       <c r="AK665" s="11"/>
       <c r="AL665" s="11"/>
     </row>
-    <row r="666" spans="1:38" ht="13.1">
+    <row r="666" spans="1:38" ht="12.75">
       <c r="A666" s="30"/>
       <c r="B666" s="32"/>
       <c r="C666" s="30"/>
@@ -31544,7 +31566,7 @@
       <c r="AK666" s="11"/>
       <c r="AL666" s="11"/>
     </row>
-    <row r="667" spans="1:38" ht="13.1">
+    <row r="667" spans="1:38" ht="12.75">
       <c r="A667" s="30"/>
       <c r="B667" s="32"/>
       <c r="C667" s="30"/>
@@ -31584,7 +31606,7 @@
       <c r="AK667" s="11"/>
       <c r="AL667" s="11"/>
     </row>
-    <row r="668" spans="1:38" ht="13.1">
+    <row r="668" spans="1:38" ht="12.75">
       <c r="A668" s="30"/>
       <c r="B668" s="32"/>
       <c r="C668" s="30"/>
@@ -31624,7 +31646,7 @@
       <c r="AK668" s="11"/>
       <c r="AL668" s="11"/>
     </row>
-    <row r="669" spans="1:38" ht="13.1">
+    <row r="669" spans="1:38" ht="12.75">
       <c r="A669" s="30"/>
       <c r="B669" s="32"/>
       <c r="C669" s="30"/>
@@ -31664,7 +31686,7 @@
       <c r="AK669" s="11"/>
       <c r="AL669" s="11"/>
     </row>
-    <row r="670" spans="1:38" ht="13.1">
+    <row r="670" spans="1:38" ht="12.75">
       <c r="A670" s="30"/>
       <c r="B670" s="32"/>
       <c r="C670" s="30"/>
@@ -31704,7 +31726,7 @@
       <c r="AK670" s="11"/>
       <c r="AL670" s="11"/>
     </row>
-    <row r="671" spans="1:38" ht="13.1">
+    <row r="671" spans="1:38" ht="12.75">
       <c r="A671" s="30"/>
       <c r="B671" s="32"/>
       <c r="C671" s="30"/>
@@ -31744,7 +31766,7 @@
       <c r="AK671" s="11"/>
       <c r="AL671" s="11"/>
     </row>
-    <row r="672" spans="1:38" ht="13.1">
+    <row r="672" spans="1:38" ht="12.75">
       <c r="A672" s="30"/>
       <c r="B672" s="32"/>
       <c r="C672" s="30"/>
@@ -31784,7 +31806,7 @@
       <c r="AK672" s="11"/>
       <c r="AL672" s="11"/>
     </row>
-    <row r="673" spans="1:38" ht="13.1">
+    <row r="673" spans="1:38" ht="12.75">
       <c r="A673" s="30"/>
       <c r="B673" s="32"/>
       <c r="C673" s="30"/>
@@ -31824,7 +31846,7 @@
       <c r="AK673" s="11"/>
       <c r="AL673" s="11"/>
     </row>
-    <row r="674" spans="1:38" ht="13.1">
+    <row r="674" spans="1:38" ht="12.75">
       <c r="A674" s="30"/>
       <c r="B674" s="32"/>
       <c r="C674" s="30"/>
@@ -31864,7 +31886,7 @@
       <c r="AK674" s="11"/>
       <c r="AL674" s="11"/>
     </row>
-    <row r="675" spans="1:38" ht="13.1">
+    <row r="675" spans="1:38" ht="12.75">
       <c r="A675" s="30"/>
       <c r="B675" s="32"/>
       <c r="C675" s="30"/>
@@ -31904,7 +31926,7 @@
       <c r="AK675" s="11"/>
       <c r="AL675" s="11"/>
     </row>
-    <row r="676" spans="1:38" ht="13.1">
+    <row r="676" spans="1:38" ht="12.75">
       <c r="A676" s="30"/>
       <c r="B676" s="32"/>
       <c r="C676" s="30"/>
@@ -31944,7 +31966,7 @@
       <c r="AK676" s="11"/>
       <c r="AL676" s="11"/>
     </row>
-    <row r="677" spans="1:38" ht="13.1">
+    <row r="677" spans="1:38" ht="12.75">
       <c r="A677" s="30"/>
       <c r="B677" s="32"/>
       <c r="C677" s="30"/>
@@ -31984,7 +32006,7 @@
       <c r="AK677" s="11"/>
       <c r="AL677" s="11"/>
     </row>
-    <row r="678" spans="1:38" ht="13.1">
+    <row r="678" spans="1:38" ht="12.75">
       <c r="A678" s="30"/>
       <c r="B678" s="32"/>
       <c r="C678" s="30"/>
@@ -32024,7 +32046,7 @@
       <c r="AK678" s="11"/>
       <c r="AL678" s="11"/>
     </row>
-    <row r="679" spans="1:38" ht="13.1">
+    <row r="679" spans="1:38" ht="12.75">
       <c r="A679" s="30"/>
       <c r="B679" s="32"/>
       <c r="C679" s="30"/>
@@ -32064,7 +32086,7 @@
       <c r="AK679" s="11"/>
       <c r="AL679" s="11"/>
     </row>
-    <row r="680" spans="1:38" ht="13.1">
+    <row r="680" spans="1:38" ht="12.75">
       <c r="A680" s="30"/>
       <c r="B680" s="32"/>
       <c r="C680" s="30"/>
@@ -32104,7 +32126,7 @@
       <c r="AK680" s="11"/>
       <c r="AL680" s="11"/>
     </row>
-    <row r="681" spans="1:38" ht="13.1">
+    <row r="681" spans="1:38" ht="12.75">
       <c r="A681" s="30"/>
       <c r="B681" s="32"/>
       <c r="C681" s="30"/>
@@ -32144,7 +32166,7 @@
       <c r="AK681" s="11"/>
       <c r="AL681" s="11"/>
     </row>
-    <row r="682" spans="1:38" ht="13.1">
+    <row r="682" spans="1:38" ht="12.75">
       <c r="A682" s="30"/>
       <c r="B682" s="32"/>
       <c r="C682" s="30"/>
@@ -32184,7 +32206,7 @@
       <c r="AK682" s="11"/>
       <c r="AL682" s="11"/>
     </row>
-    <row r="683" spans="1:38" ht="13.1">
+    <row r="683" spans="1:38" ht="12.75">
       <c r="A683" s="30"/>
       <c r="B683" s="32"/>
       <c r="C683" s="30"/>
@@ -32224,7 +32246,7 @@
       <c r="AK683" s="11"/>
       <c r="AL683" s="11"/>
     </row>
-    <row r="684" spans="1:38" ht="13.1">
+    <row r="684" spans="1:38" ht="12.75">
       <c r="A684" s="30"/>
       <c r="B684" s="32"/>
       <c r="C684" s="30"/>
@@ -32264,7 +32286,7 @@
       <c r="AK684" s="11"/>
       <c r="AL684" s="11"/>
     </row>
-    <row r="685" spans="1:38" ht="13.1">
+    <row r="685" spans="1:38" ht="12.75">
       <c r="A685" s="30"/>
       <c r="B685" s="32"/>
       <c r="C685" s="30"/>
@@ -32304,7 +32326,7 @@
       <c r="AK685" s="11"/>
       <c r="AL685" s="11"/>
     </row>
-    <row r="686" spans="1:38" ht="13.1">
+    <row r="686" spans="1:38" ht="12.75">
       <c r="A686" s="30"/>
       <c r="B686" s="32"/>
       <c r="C686" s="30"/>
@@ -32344,7 +32366,7 @@
       <c r="AK686" s="11"/>
       <c r="AL686" s="11"/>
     </row>
-    <row r="687" spans="1:38" ht="13.1">
+    <row r="687" spans="1:38" ht="12.75">
       <c r="A687" s="30"/>
       <c r="B687" s="32"/>
       <c r="C687" s="30"/>
@@ -32384,7 +32406,7 @@
       <c r="AK687" s="11"/>
       <c r="AL687" s="11"/>
     </row>
-    <row r="688" spans="1:38" ht="13.1">
+    <row r="688" spans="1:38" ht="12.75">
       <c r="A688" s="30"/>
       <c r="B688" s="32"/>
       <c r="C688" s="30"/>
@@ -32424,7 +32446,7 @@
       <c r="AK688" s="11"/>
       <c r="AL688" s="11"/>
     </row>
-    <row r="689" spans="1:38" ht="13.1">
+    <row r="689" spans="1:38" ht="12.75">
       <c r="A689" s="30"/>
       <c r="B689" s="32"/>
       <c r="C689" s="30"/>
@@ -32464,7 +32486,7 @@
       <c r="AK689" s="11"/>
       <c r="AL689" s="11"/>
     </row>
-    <row r="690" spans="1:38" ht="13.1">
+    <row r="690" spans="1:38" ht="12.75">
       <c r="A690" s="30"/>
       <c r="B690" s="32"/>
       <c r="C690" s="30"/>
@@ -32504,7 +32526,7 @@
       <c r="AK690" s="11"/>
       <c r="AL690" s="11"/>
     </row>
-    <row r="691" spans="1:38" ht="13.1">
+    <row r="691" spans="1:38" ht="12.75">
       <c r="A691" s="30"/>
       <c r="B691" s="32"/>
       <c r="C691" s="30"/>
@@ -32544,7 +32566,7 @@
       <c r="AK691" s="11"/>
       <c r="AL691" s="11"/>
     </row>
-    <row r="692" spans="1:38" ht="13.1">
+    <row r="692" spans="1:38" ht="12.75">
       <c r="A692" s="30"/>
       <c r="B692" s="32"/>
       <c r="C692" s="30"/>
@@ -32584,7 +32606,7 @@
       <c r="AK692" s="11"/>
       <c r="AL692" s="11"/>
     </row>
-    <row r="693" spans="1:38" ht="13.1">
+    <row r="693" spans="1:38" ht="12.75">
       <c r="A693" s="30"/>
       <c r="B693" s="32"/>
       <c r="C693" s="30"/>
@@ -32624,7 +32646,7 @@
       <c r="AK693" s="11"/>
       <c r="AL693" s="11"/>
     </row>
-    <row r="694" spans="1:38" ht="13.1">
+    <row r="694" spans="1:38" ht="12.75">
       <c r="A694" s="30"/>
       <c r="B694" s="32"/>
       <c r="C694" s="30"/>
@@ -32664,7 +32686,7 @@
       <c r="AK694" s="11"/>
       <c r="AL694" s="11"/>
     </row>
-    <row r="695" spans="1:38" ht="13.1">
+    <row r="695" spans="1:38" ht="12.75">
       <c r="A695" s="30"/>
       <c r="B695" s="32"/>
       <c r="C695" s="30"/>
@@ -32704,7 +32726,7 @@
       <c r="AK695" s="11"/>
       <c r="AL695" s="11"/>
     </row>
-    <row r="696" spans="1:38" ht="13.1">
+    <row r="696" spans="1:38" ht="12.75">
       <c r="A696" s="30"/>
       <c r="B696" s="32"/>
       <c r="C696" s="30"/>
@@ -32744,7 +32766,7 @@
       <c r="AK696" s="11"/>
       <c r="AL696" s="11"/>
     </row>
-    <row r="697" spans="1:38" ht="13.1">
+    <row r="697" spans="1:38" ht="12.75">
       <c r="A697" s="30"/>
       <c r="B697" s="32"/>
       <c r="C697" s="30"/>
@@ -32784,7 +32806,7 @@
       <c r="AK697" s="11"/>
       <c r="AL697" s="11"/>
     </row>
-    <row r="698" spans="1:38" ht="13.1">
+    <row r="698" spans="1:38" ht="12.75">
       <c r="A698" s="30"/>
       <c r="B698" s="32"/>
       <c r="C698" s="30"/>
@@ -32824,7 +32846,7 @@
       <c r="AK698" s="11"/>
       <c r="AL698" s="11"/>
     </row>
-    <row r="699" spans="1:38" ht="13.1">
+    <row r="699" spans="1:38" ht="12.75">
       <c r="A699" s="30"/>
       <c r="B699" s="32"/>
       <c r="C699" s="30"/>
@@ -32864,7 +32886,7 @@
       <c r="AK699" s="11"/>
       <c r="AL699" s="11"/>
     </row>
-    <row r="700" spans="1:38" ht="13.1">
+    <row r="700" spans="1:38" ht="12.75">
       <c r="A700" s="30"/>
       <c r="B700" s="32"/>
       <c r="C700" s="30"/>
@@ -32904,7 +32926,7 @@
       <c r="AK700" s="11"/>
       <c r="AL700" s="11"/>
     </row>
-    <row r="701" spans="1:38" ht="13.1">
+    <row r="701" spans="1:38" ht="12.75">
       <c r="A701" s="30"/>
       <c r="B701" s="32"/>
       <c r="C701" s="30"/>
@@ -32944,7 +32966,7 @@
       <c r="AK701" s="11"/>
       <c r="AL701" s="11"/>
     </row>
-    <row r="702" spans="1:38" ht="13.1">
+    <row r="702" spans="1:38" ht="12.75">
       <c r="A702" s="30"/>
       <c r="B702" s="32"/>
       <c r="C702" s="30"/>
@@ -32984,7 +33006,7 @@
       <c r="AK702" s="11"/>
       <c r="AL702" s="11"/>
     </row>
-    <row r="703" spans="1:38" ht="13.1">
+    <row r="703" spans="1:38" ht="12.75">
       <c r="A703" s="30"/>
       <c r="B703" s="32"/>
       <c r="C703" s="30"/>
@@ -33024,7 +33046,7 @@
       <c r="AK703" s="11"/>
       <c r="AL703" s="11"/>
     </row>
-    <row r="704" spans="1:38" ht="13.1">
+    <row r="704" spans="1:38" ht="12.75">
       <c r="A704" s="30"/>
       <c r="B704" s="32"/>
       <c r="C704" s="30"/>
@@ -33064,7 +33086,7 @@
       <c r="AK704" s="11"/>
       <c r="AL704" s="11"/>
     </row>
-    <row r="705" spans="1:38" ht="13.1">
+    <row r="705" spans="1:38" ht="12.75">
       <c r="A705" s="30"/>
       <c r="B705" s="32"/>
       <c r="C705" s="30"/>
@@ -33104,7 +33126,7 @@
       <c r="AK705" s="11"/>
       <c r="AL705" s="11"/>
     </row>
-    <row r="706" spans="1:38" ht="13.1">
+    <row r="706" spans="1:38" ht="12.75">
       <c r="A706" s="30"/>
       <c r="B706" s="32"/>
       <c r="C706" s="30"/>
@@ -33144,7 +33166,7 @@
       <c r="AK706" s="11"/>
       <c r="AL706" s="11"/>
     </row>
-    <row r="707" spans="1:38" ht="13.1">
+    <row r="707" spans="1:38" ht="12.75">
       <c r="A707" s="30"/>
       <c r="B707" s="32"/>
       <c r="C707" s="30"/>
@@ -33184,7 +33206,7 @@
       <c r="AK707" s="11"/>
       <c r="AL707" s="11"/>
     </row>
-    <row r="708" spans="1:38" ht="13.1">
+    <row r="708" spans="1:38" ht="12.75">
       <c r="A708" s="30"/>
       <c r="B708" s="32"/>
       <c r="C708" s="30"/>
@@ -33224,7 +33246,7 @@
       <c r="AK708" s="11"/>
       <c r="AL708" s="11"/>
     </row>
-    <row r="709" spans="1:38" ht="13.1">
+    <row r="709" spans="1:38" ht="12.75">
       <c r="A709" s="30"/>
       <c r="B709" s="32"/>
       <c r="C709" s="30"/>
@@ -33264,7 +33286,7 @@
       <c r="AK709" s="11"/>
       <c r="AL709" s="11"/>
     </row>
-    <row r="710" spans="1:38" ht="13.1">
+    <row r="710" spans="1:38" ht="12.75">
       <c r="A710" s="30"/>
       <c r="B710" s="32"/>
       <c r="C710" s="30"/>
@@ -33304,7 +33326,7 @@
       <c r="AK710" s="11"/>
       <c r="AL710" s="11"/>
     </row>
-    <row r="711" spans="1:38" ht="13.1">
+    <row r="711" spans="1:38" ht="12.75">
       <c r="A711" s="30"/>
       <c r="B711" s="32"/>
       <c r="C711" s="30"/>
@@ -33344,7 +33366,7 @@
       <c r="AK711" s="11"/>
       <c r="AL711" s="11"/>
     </row>
-    <row r="712" spans="1:38" ht="13.1">
+    <row r="712" spans="1:38" ht="12.75">
       <c r="A712" s="30"/>
       <c r="B712" s="32"/>
       <c r="C712" s="30"/>
@@ -33384,7 +33406,7 @@
       <c r="AK712" s="11"/>
       <c r="AL712" s="11"/>
     </row>
-    <row r="713" spans="1:38" ht="13.1">
+    <row r="713" spans="1:38" ht="12.75">
       <c r="A713" s="30"/>
       <c r="B713" s="32"/>
       <c r="C713" s="30"/>
@@ -33424,7 +33446,7 @@
       <c r="AK713" s="11"/>
       <c r="AL713" s="11"/>
     </row>
-    <row r="714" spans="1:38" ht="13.1">
+    <row r="714" spans="1:38" ht="12.75">
       <c r="A714" s="30"/>
       <c r="B714" s="32"/>
       <c r="C714" s="30"/>
@@ -33464,7 +33486,7 @@
       <c r="AK714" s="11"/>
       <c r="AL714" s="11"/>
     </row>
-    <row r="715" spans="1:38" ht="13.1">
+    <row r="715" spans="1:38" ht="12.75">
       <c r="A715" s="30"/>
       <c r="B715" s="32"/>
       <c r="C715" s="30"/>
@@ -33504,7 +33526,7 @@
       <c r="AK715" s="11"/>
       <c r="AL715" s="11"/>
     </row>
-    <row r="716" spans="1:38" ht="13.1">
+    <row r="716" spans="1:38" ht="12.75">
       <c r="A716" s="30"/>
       <c r="B716" s="32"/>
       <c r="C716" s="30"/>
@@ -33544,7 +33566,7 @@
       <c r="AK716" s="11"/>
       <c r="AL716" s="11"/>
     </row>
-    <row r="717" spans="1:38" ht="13.1">
+    <row r="717" spans="1:38" ht="12.75">
       <c r="A717" s="30"/>
       <c r="B717" s="32"/>
       <c r="C717" s="30"/>
@@ -33584,7 +33606,7 @@
       <c r="AK717" s="11"/>
       <c r="AL717" s="11"/>
     </row>
-    <row r="718" spans="1:38" ht="13.1">
+    <row r="718" spans="1:38" ht="12.75">
       <c r="A718" s="30"/>
       <c r="B718" s="32"/>
       <c r="C718" s="30"/>
@@ -33624,7 +33646,7 @@
       <c r="AK718" s="11"/>
       <c r="AL718" s="11"/>
     </row>
-    <row r="719" spans="1:38" ht="13.1">
+    <row r="719" spans="1:38" ht="12.75">
       <c r="A719" s="30"/>
       <c r="B719" s="32"/>
       <c r="C719" s="30"/>
@@ -33664,7 +33686,7 @@
       <c r="AK719" s="11"/>
       <c r="AL719" s="11"/>
     </row>
-    <row r="720" spans="1:38" ht="13.1">
+    <row r="720" spans="1:38" ht="12.75">
       <c r="A720" s="30"/>
       <c r="B720" s="32"/>
       <c r="C720" s="30"/>
@@ -33704,7 +33726,7 @@
       <c r="AK720" s="11"/>
       <c r="AL720" s="11"/>
     </row>
-    <row r="721" spans="1:38" ht="13.1">
+    <row r="721" spans="1:38" ht="12.75">
       <c r="A721" s="30"/>
       <c r="B721" s="32"/>
       <c r="C721" s="30"/>
@@ -33744,7 +33766,7 @@
       <c r="AK721" s="11"/>
       <c r="AL721" s="11"/>
     </row>
-    <row r="722" spans="1:38" ht="13.1">
+    <row r="722" spans="1:38" ht="12.75">
       <c r="A722" s="30"/>
       <c r="B722" s="32"/>
       <c r="C722" s="30"/>
@@ -33784,7 +33806,7 @@
       <c r="AK722" s="11"/>
       <c r="AL722" s="11"/>
     </row>
-    <row r="723" spans="1:38" ht="13.1">
+    <row r="723" spans="1:38" ht="12.75">
       <c r="A723" s="30"/>
       <c r="B723" s="32"/>
       <c r="C723" s="30"/>
@@ -33824,7 +33846,7 @@
       <c r="AK723" s="11"/>
       <c r="AL723" s="11"/>
     </row>
-    <row r="724" spans="1:38" ht="13.1">
+    <row r="724" spans="1:38" ht="12.75">
       <c r="A724" s="30"/>
       <c r="B724" s="32"/>
       <c r="C724" s="30"/>
@@ -33864,7 +33886,7 @@
       <c r="AK724" s="11"/>
       <c r="AL724" s="11"/>
     </row>
-    <row r="725" spans="1:38" ht="13.1">
+    <row r="725" spans="1:38" ht="12.75">
       <c r="A725" s="30"/>
       <c r="B725" s="32"/>
       <c r="C725" s="30"/>
@@ -33904,7 +33926,7 @@
       <c r="AK725" s="11"/>
       <c r="AL725" s="11"/>
     </row>
-    <row r="726" spans="1:38" ht="13.1">
+    <row r="726" spans="1:38" ht="12.75">
       <c r="A726" s="30"/>
       <c r="B726" s="32"/>
       <c r="C726" s="30"/>
@@ -33944,7 +33966,7 @@
       <c r="AK726" s="11"/>
       <c r="AL726" s="11"/>
     </row>
-    <row r="727" spans="1:38" ht="13.1">
+    <row r="727" spans="1:38" ht="12.75">
       <c r="A727" s="30"/>
       <c r="B727" s="32"/>
       <c r="C727" s="30"/>
@@ -33984,7 +34006,7 @@
       <c r="AK727" s="11"/>
       <c r="AL727" s="11"/>
     </row>
-    <row r="728" spans="1:38" ht="13.1">
+    <row r="728" spans="1:38" ht="12.75">
       <c r="A728" s="30"/>
       <c r="B728" s="32"/>
       <c r="C728" s="30"/>
@@ -34024,7 +34046,7 @@
       <c r="AK728" s="11"/>
       <c r="AL728" s="11"/>
     </row>
-    <row r="729" spans="1:38" ht="13.1">
+    <row r="729" spans="1:38" ht="12.75">
       <c r="A729" s="30"/>
       <c r="B729" s="32"/>
       <c r="C729" s="30"/>
@@ -34064,7 +34086,7 @@
       <c r="AK729" s="11"/>
       <c r="AL729" s="11"/>
     </row>
-    <row r="730" spans="1:38" ht="13.1">
+    <row r="730" spans="1:38" ht="12.75">
       <c r="A730" s="30"/>
       <c r="B730" s="32"/>
       <c r="C730" s="30"/>
@@ -34104,7 +34126,7 @@
       <c r="AK730" s="11"/>
       <c r="AL730" s="11"/>
     </row>
-    <row r="731" spans="1:38" ht="13.1">
+    <row r="731" spans="1:38" ht="12.75">
       <c r="A731" s="30"/>
       <c r="B731" s="32"/>
       <c r="C731" s="30"/>
@@ -34144,7 +34166,7 @@
       <c r="AK731" s="11"/>
       <c r="AL731" s="11"/>
     </row>
-    <row r="732" spans="1:38" ht="13.1">
+    <row r="732" spans="1:38" ht="12.75">
       <c r="A732" s="30"/>
       <c r="B732" s="32"/>
       <c r="C732" s="30"/>
@@ -34184,7 +34206,7 @@
       <c r="AK732" s="11"/>
       <c r="AL732" s="11"/>
     </row>
-    <row r="733" spans="1:38" ht="13.1">
+    <row r="733" spans="1:38" ht="12.75">
       <c r="A733" s="30"/>
       <c r="B733" s="32"/>
       <c r="C733" s="30"/>
@@ -34224,7 +34246,7 @@
       <c r="AK733" s="11"/>
       <c r="AL733" s="11"/>
     </row>
-    <row r="734" spans="1:38" ht="13.1">
+    <row r="734" spans="1:38" ht="12.75">
       <c r="A734" s="30"/>
       <c r="B734" s="32"/>
       <c r="C734" s="30"/>
@@ -34264,7 +34286,7 @@
       <c r="AK734" s="11"/>
       <c r="AL734" s="11"/>
     </row>
-    <row r="735" spans="1:38" ht="13.1">
+    <row r="735" spans="1:38" ht="12.75">
       <c r="A735" s="30"/>
       <c r="B735" s="32"/>
       <c r="C735" s="30"/>
@@ -34304,7 +34326,7 @@
       <c r="AK735" s="11"/>
       <c r="AL735" s="11"/>
     </row>
-    <row r="736" spans="1:38" ht="13.1">
+    <row r="736" spans="1:38" ht="12.75">
       <c r="A736" s="30"/>
       <c r="B736" s="32"/>
       <c r="C736" s="30"/>
@@ -34344,7 +34366,7 @@
       <c r="AK736" s="11"/>
       <c r="AL736" s="11"/>
     </row>
-    <row r="737" spans="1:38" ht="13.1">
+    <row r="737" spans="1:38" ht="12.75">
       <c r="A737" s="30"/>
       <c r="B737" s="32"/>
       <c r="C737" s="30"/>
@@ -34384,7 +34406,7 @@
       <c r="AK737" s="11"/>
       <c r="AL737" s="11"/>
     </row>
-    <row r="738" spans="1:38" ht="13.1">
+    <row r="738" spans="1:38" ht="12.75">
       <c r="A738" s="30"/>
       <c r="B738" s="32"/>
       <c r="C738" s="30"/>
@@ -34424,7 +34446,7 @@
       <c r="AK738" s="11"/>
       <c r="AL738" s="11"/>
     </row>
-    <row r="739" spans="1:38" ht="13.1">
+    <row r="739" spans="1:38" ht="12.75">
       <c r="A739" s="30"/>
       <c r="B739" s="32"/>
       <c r="C739" s="30"/>
@@ -34464,7 +34486,7 @@
       <c r="AK739" s="11"/>
       <c r="AL739" s="11"/>
     </row>
-    <row r="740" spans="1:38" ht="13.1">
+    <row r="740" spans="1:38" ht="12.75">
       <c r="A740" s="30"/>
       <c r="B740" s="32"/>
       <c r="C740" s="30"/>
@@ -34504,7 +34526,7 @@
       <c r="AK740" s="11"/>
       <c r="AL740" s="11"/>
     </row>
-    <row r="741" spans="1:38" ht="13.1">
+    <row r="741" spans="1:38" ht="12.75">
       <c r="A741" s="30"/>
       <c r="B741" s="32"/>
       <c r="C741" s="30"/>
@@ -34544,7 +34566,7 @@
       <c r="AK741" s="11"/>
       <c r="AL741" s="11"/>
     </row>
-    <row r="742" spans="1:38" ht="13.1">
+    <row r="742" spans="1:38" ht="12.75">
       <c r="A742" s="30"/>
       <c r="B742" s="32"/>
       <c r="C742" s="30"/>
@@ -34584,7 +34606,7 @@
       <c r="AK742" s="11"/>
       <c r="AL742" s="11"/>
     </row>
-    <row r="743" spans="1:38" ht="13.1">
+    <row r="743" spans="1:38" ht="12.75">
       <c r="A743" s="30"/>
       <c r="B743" s="32"/>
       <c r="C743" s="30"/>
@@ -34624,7 +34646,7 @@
       <c r="AK743" s="11"/>
       <c r="AL743" s="11"/>
     </row>
-    <row r="744" spans="1:38" ht="13.1">
+    <row r="744" spans="1:38" ht="12.75">
       <c r="A744" s="30"/>
       <c r="B744" s="32"/>
       <c r="C744" s="30"/>
@@ -34664,7 +34686,7 @@
       <c r="AK744" s="11"/>
       <c r="AL744" s="11"/>
     </row>
-    <row r="745" spans="1:38" ht="13.1">
+    <row r="745" spans="1:38" ht="12.75">
       <c r="A745" s="30"/>
       <c r="B745" s="32"/>
       <c r="C745" s="30"/>
@@ -34704,7 +34726,7 @@
       <c r="AK745" s="11"/>
       <c r="AL745" s="11"/>
     </row>
-    <row r="746" spans="1:38" ht="13.1">
+    <row r="746" spans="1:38" ht="12.75">
       <c r="A746" s="30"/>
       <c r="B746" s="32"/>
       <c r="C746" s="30"/>
@@ -34744,7 +34766,7 @@
       <c r="AK746" s="11"/>
       <c r="AL746" s="11"/>
     </row>
-    <row r="747" spans="1:38" ht="13.1">
+    <row r="747" spans="1:38" ht="12.75">
       <c r="A747" s="30"/>
       <c r="B747" s="32"/>
       <c r="C747" s="30"/>
@@ -34784,7 +34806,7 @@
       <c r="AK747" s="11"/>
       <c r="AL747" s="11"/>
     </row>
-    <row r="748" spans="1:38" ht="13.1">
+    <row r="748" spans="1:38" ht="12.75">
       <c r="A748" s="30"/>
       <c r="B748" s="32"/>
       <c r="C748" s="30"/>
@@ -34824,7 +34846,7 @@
       <c r="AK748" s="11"/>
       <c r="AL748" s="11"/>
     </row>
-    <row r="749" spans="1:38" ht="13.1">
+    <row r="749" spans="1:38" ht="12.75">
       <c r="A749" s="30"/>
       <c r="B749" s="32"/>
       <c r="C749" s="30"/>
@@ -34864,7 +34886,7 @@
       <c r="AK749" s="11"/>
       <c r="AL749" s="11"/>
     </row>
-    <row r="750" spans="1:38" ht="13.1">
+    <row r="750" spans="1:38" ht="12.75">
       <c r="A750" s="30"/>
       <c r="B750" s="32"/>
       <c r="C750" s="30"/>
@@ -34904,7 +34926,7 @@
       <c r="AK750" s="11"/>
       <c r="AL750" s="11"/>
     </row>
-    <row r="751" spans="1:38" ht="13.1">
+    <row r="751" spans="1:38" ht="12.75">
       <c r="A751" s="30"/>
       <c r="B751" s="32"/>
       <c r="C751" s="30"/>
@@ -34944,7 +34966,7 @@
       <c r="AK751" s="11"/>
       <c r="AL751" s="11"/>
     </row>
-    <row r="752" spans="1:38" ht="13.1">
+    <row r="752" spans="1:38" ht="12.75">
       <c r="A752" s="30"/>
       <c r="B752" s="32"/>
       <c r="C752" s="30"/>
@@ -34984,7 +35006,7 @@
       <c r="AK752" s="11"/>
       <c r="AL752" s="11"/>
     </row>
-    <row r="753" spans="1:38" ht="13.1">
+    <row r="753" spans="1:38" ht="12.75">
       <c r="A753" s="30"/>
       <c r="B753" s="32"/>
       <c r="C753" s="30"/>
@@ -35024,7 +35046,7 @@
       <c r="AK753" s="11"/>
       <c r="AL753" s="11"/>
     </row>
-    <row r="754" spans="1:38" ht="13.1">
+    <row r="754" spans="1:38" ht="12.75">
       <c r="A754" s="30"/>
       <c r="B754" s="32"/>
       <c r="C754" s="30"/>
@@ -35064,7 +35086,7 @@
       <c r="AK754" s="11"/>
       <c r="AL754" s="11"/>
     </row>
-    <row r="755" spans="1:38" ht="13.1">
+    <row r="755" spans="1:38" ht="12.75">
       <c r="A755" s="30"/>
       <c r="B755" s="32"/>
       <c r="C755" s="30"/>
@@ -35104,7 +35126,7 @@
       <c r="AK755" s="11"/>
       <c r="AL755" s="11"/>
     </row>
-    <row r="756" spans="1:38" ht="13.1">
+    <row r="756" spans="1:38" ht="12.75">
       <c r="A756" s="30"/>
       <c r="B756" s="32"/>
       <c r="C756" s="30"/>
@@ -35144,7 +35166,7 @@
       <c r="AK756" s="11"/>
       <c r="AL756" s="11"/>
     </row>
-    <row r="757" spans="1:38" ht="13.1">
+    <row r="757" spans="1:38" ht="12.75">
       <c r="A757" s="30"/>
       <c r="B757" s="32"/>
       <c r="C757" s="30"/>
@@ -35184,7 +35206,7 @@
       <c r="AK757" s="11"/>
       <c r="AL757" s="11"/>
     </row>
-    <row r="758" spans="1:38" ht="13.1">
+    <row r="758" spans="1:38" ht="12.75">
       <c r="A758" s="30"/>
       <c r="B758" s="32"/>
       <c r="C758" s="30"/>
@@ -35224,7 +35246,7 @@
       <c r="AK758" s="11"/>
       <c r="AL758" s="11"/>
     </row>
-    <row r="759" spans="1:38" ht="13.1">
+    <row r="759" spans="1:38" ht="12.75">
       <c r="A759" s="30"/>
       <c r="B759" s="32"/>
       <c r="C759" s="30"/>
@@ -35264,7 +35286,7 @@
       <c r="AK759" s="11"/>
       <c r="AL759" s="11"/>
     </row>
-    <row r="760" spans="1:38" ht="13.1">
+    <row r="760" spans="1:38" ht="12.75">
       <c r="A760" s="30"/>
       <c r="B760" s="32"/>
       <c r="C760" s="30"/>
@@ -35304,7 +35326,7 @@
       <c r="AK760" s="11"/>
       <c r="AL760" s="11"/>
     </row>
-    <row r="761" spans="1:38" ht="13.1">
+    <row r="761" spans="1:38" ht="12.75">
       <c r="A761" s="30"/>
       <c r="B761" s="32"/>
       <c r="C761" s="30"/>
@@ -35344,7 +35366,7 @@
       <c r="AK761" s="11"/>
       <c r="AL761" s="11"/>
     </row>
-    <row r="762" spans="1:38" ht="13.1">
+    <row r="762" spans="1:38" ht="12.75">
       <c r="A762" s="30"/>
       <c r="B762" s="32"/>
       <c r="C762" s="30"/>
@@ -35384,7 +35406,7 @@
       <c r="AK762" s="11"/>
       <c r="AL762" s="11"/>
     </row>
-    <row r="763" spans="1:38" ht="13.1">
+    <row r="763" spans="1:38" ht="12.75">
       <c r="A763" s="30"/>
       <c r="B763" s="32"/>
       <c r="C763" s="30"/>
@@ -35424,7 +35446,7 @@
       <c r="AK763" s="11"/>
       <c r="AL763" s="11"/>
     </row>
-    <row r="764" spans="1:38" ht="13.1">
+    <row r="764" spans="1:38" ht="12.75">
       <c r="A764" s="30"/>
       <c r="B764" s="32"/>
       <c r="C764" s="30"/>
@@ -35464,7 +35486,7 @@
       <c r="AK764" s="11"/>
       <c r="AL764" s="11"/>
     </row>
-    <row r="765" spans="1:38" ht="13.1">
+    <row r="765" spans="1:38" ht="12.75">
       <c r="A765" s="30"/>
       <c r="B765" s="32"/>
       <c r="C765" s="30"/>
@@ -35504,7 +35526,7 @@
       <c r="AK765" s="11"/>
       <c r="AL765" s="11"/>
     </row>
-    <row r="766" spans="1:38" ht="13.1">
+    <row r="766" spans="1:38" ht="12.75">
       <c r="A766" s="30"/>
       <c r="B766" s="32"/>
       <c r="C766" s="30"/>
@@ -35544,7 +35566,7 @@
       <c r="AK766" s="11"/>
       <c r="AL766" s="11"/>
     </row>
-    <row r="767" spans="1:38" ht="13.1">
+    <row r="767" spans="1:38" ht="12.75">
       <c r="A767" s="30"/>
       <c r="B767" s="32"/>
       <c r="C767" s="30"/>
@@ -35584,7 +35606,7 @@
       <c r="AK767" s="11"/>
       <c r="AL767" s="11"/>
     </row>
-    <row r="768" spans="1:38" ht="13.1">
+    <row r="768" spans="1:38" ht="12.75">
       <c r="A768" s="30"/>
       <c r="B768" s="32"/>
       <c r="C768" s="30"/>
@@ -35624,7 +35646,7 @@
       <c r="AK768" s="11"/>
       <c r="AL768" s="11"/>
     </row>
-    <row r="769" spans="1:38" ht="13.1">
+    <row r="769" spans="1:38" ht="12.75">
       <c r="A769" s="30"/>
       <c r="B769" s="32"/>
       <c r="C769" s="30"/>
@@ -35664,7 +35686,7 @@
       <c r="AK769" s="11"/>
       <c r="AL769" s="11"/>
     </row>
-    <row r="770" spans="1:38" ht="13.1">
+    <row r="770" spans="1:38" ht="12.75">
       <c r="A770" s="30"/>
       <c r="B770" s="32"/>
       <c r="C770" s="30"/>
@@ -35704,7 +35726,7 @@
       <c r="AK770" s="11"/>
       <c r="AL770" s="11"/>
     </row>
-    <row r="771" spans="1:38" ht="13.1">
+    <row r="771" spans="1:38" ht="12.75">
       <c r="A771" s="30"/>
       <c r="B771" s="32"/>
       <c r="C771" s="30"/>
@@ -35744,7 +35766,7 @@
       <c r="AK771" s="11"/>
       <c r="AL771" s="11"/>
     </row>
-    <row r="772" spans="1:38" ht="13.1">
+    <row r="772" spans="1:38" ht="12.75">
       <c r="A772" s="30"/>
       <c r="B772" s="32"/>
       <c r="C772" s="30"/>
@@ -35784,7 +35806,7 @@
       <c r="AK772" s="11"/>
       <c r="AL772" s="11"/>
     </row>
-    <row r="773" spans="1:38" ht="13.1">
+    <row r="773" spans="1:38" ht="12.75">
       <c r="A773" s="30"/>
       <c r="B773" s="32"/>
       <c r="C773" s="30"/>
@@ -35824,7 +35846,7 @@
       <c r="AK773" s="11"/>
       <c r="AL773" s="11"/>
     </row>
-    <row r="774" spans="1:38" ht="13.1">
+    <row r="774" spans="1:38" ht="12.75">
       <c r="A774" s="30"/>
       <c r="B774" s="32"/>
       <c r="C774" s="30"/>
@@ -35864,7 +35886,7 @@
       <c r="AK774" s="11"/>
       <c r="AL774" s="11"/>
     </row>
-    <row r="775" spans="1:38" ht="13.1">
+    <row r="775" spans="1:38" ht="12.75">
       <c r="A775" s="30"/>
       <c r="B775" s="32"/>
       <c r="C775" s="30"/>
@@ -35904,7 +35926,7 @@
       <c r="AK775" s="11"/>
       <c r="AL775" s="11"/>
     </row>
-    <row r="776" spans="1:38" ht="13.1">
+    <row r="776" spans="1:38" ht="12.75">
       <c r="A776" s="30"/>
       <c r="B776" s="32"/>
       <c r="C776" s="30"/>
@@ -35944,7 +35966,7 @@
       <c r="AK776" s="11"/>
       <c r="AL776" s="11"/>
     </row>
-    <row r="777" spans="1:38" ht="13.1">
+    <row r="777" spans="1:38" ht="12.75">
       <c r="A777" s="30"/>
       <c r="B777" s="32"/>
       <c r="C777" s="30"/>
@@ -35984,7 +36006,7 @@
       <c r="AK777" s="11"/>
       <c r="AL777" s="11"/>
     </row>
-    <row r="778" spans="1:38" ht="13.1">
+    <row r="778" spans="1:38" ht="12.75">
       <c r="A778" s="30"/>
       <c r="B778" s="32"/>
       <c r="C778" s="30"/>
@@ -36024,7 +36046,7 @@
       <c r="AK778" s="11"/>
       <c r="AL778" s="11"/>
     </row>
-    <row r="779" spans="1:38" ht="13.1">
+    <row r="779" spans="1:38" ht="12.75">
       <c r="A779" s="30"/>
       <c r="B779" s="32"/>
       <c r="C779" s="30"/>
@@ -36064,7 +36086,7 @@
       <c r="AK779" s="11"/>
       <c r="AL779" s="11"/>
     </row>
-    <row r="780" spans="1:38" ht="13.1">
+    <row r="780" spans="1:38" ht="12.75">
       <c r="A780" s="30"/>
       <c r="B780" s="32"/>
       <c r="C780" s="30"/>
@@ -36104,7 +36126,7 @@
       <c r="AK780" s="11"/>
       <c r="AL780" s="11"/>
     </row>
-    <row r="781" spans="1:38" ht="13.1">
+    <row r="781" spans="1:38" ht="12.75">
       <c r="A781" s="30"/>
       <c r="B781" s="32"/>
       <c r="C781" s="30"/>
@@ -36144,7 +36166,7 @@
       <c r="AK781" s="11"/>
       <c r="AL781" s="11"/>
     </row>
-    <row r="782" spans="1:38" ht="13.1">
+    <row r="782" spans="1:38" ht="12.75">
       <c r="A782" s="30"/>
       <c r="B782" s="32"/>
       <c r="C782" s="30"/>
@@ -36184,7 +36206,7 @@
       <c r="AK782" s="11"/>
       <c r="AL782" s="11"/>
     </row>
-    <row r="783" spans="1:38" ht="13.1">
+    <row r="783" spans="1:38" ht="12.75">
       <c r="A783" s="30"/>
       <c r="B783" s="32"/>
       <c r="C783" s="30"/>
@@ -36224,7 +36246,7 @@
       <c r="AK783" s="11"/>
       <c r="AL783" s="11"/>
     </row>
-    <row r="784" spans="1:38" ht="13.1">
+    <row r="784" spans="1:38" ht="12.75">
       <c r="A784" s="30"/>
       <c r="B784" s="32"/>
       <c r="C784" s="30"/>
@@ -36264,7 +36286,7 @@
       <c r="AK784" s="11"/>
       <c r="AL784" s="11"/>
     </row>
-    <row r="785" spans="1:38" ht="13.1">
+    <row r="785" spans="1:38" ht="12.75">
       <c r="A785" s="30"/>
       <c r="B785" s="32"/>
       <c r="C785" s="30"/>
@@ -36304,7 +36326,7 @@
       <c r="AK785" s="11"/>
       <c r="AL785" s="11"/>
     </row>
-    <row r="786" spans="1:38" ht="13.1">
+    <row r="786" spans="1:38" ht="12.75">
       <c r="A786" s="30"/>
       <c r="B786" s="32"/>
       <c r="C786" s="30"/>
@@ -36344,7 +36366,7 @@
       <c r="AK786" s="11"/>
       <c r="AL786" s="11"/>
     </row>
-    <row r="787" spans="1:38" ht="13.1">
+    <row r="787" spans="1:38" ht="12.75">
       <c r="A787" s="30"/>
       <c r="B787" s="32"/>
       <c r="C787" s="30"/>
@@ -36384,7 +36406,7 @@
       <c r="AK787" s="11"/>
       <c r="AL787" s="11"/>
     </row>
-    <row r="788" spans="1:38" ht="13.1">
+    <row r="788" spans="1:38" ht="12.75">
       <c r="A788" s="30"/>
       <c r="B788" s="32"/>
       <c r="C788" s="30"/>
@@ -36424,7 +36446,7 @@
       <c r="AK788" s="11"/>
       <c r="AL788" s="11"/>
     </row>
-    <row r="789" spans="1:38" ht="13.1">
+    <row r="789" spans="1:38" ht="12.75">
       <c r="A789" s="30"/>
       <c r="B789" s="32"/>
       <c r="C789" s="30"/>
@@ -36464,7 +36486,7 @@
       <c r="AK789" s="11"/>
       <c r="AL789" s="11"/>
     </row>
-    <row r="790" spans="1:38" ht="13.1">
+    <row r="790" spans="1:38" ht="12.75">
       <c r="A790" s="30"/>
       <c r="B790" s="32"/>
       <c r="C790" s="30"/>
@@ -36504,7 +36526,7 @@
       <c r="AK790" s="11"/>
       <c r="AL790" s="11"/>
     </row>
-    <row r="791" spans="1:38" ht="13.1">
+    <row r="791" spans="1:38" ht="12.75">
       <c r="A791" s="30"/>
       <c r="B791" s="32"/>
       <c r="C791" s="30"/>
@@ -36544,7 +36566,7 @@
       <c r="AK791" s="11"/>
       <c r="AL791" s="11"/>
     </row>
-    <row r="792" spans="1:38" ht="13.1">
+    <row r="792" spans="1:38" ht="12.75">
       <c r="A792" s="30"/>
       <c r="B792" s="32"/>
       <c r="C792" s="30"/>
@@ -36584,7 +36606,7 @@
       <c r="AK792" s="11"/>
       <c r="AL792" s="11"/>
     </row>
-    <row r="793" spans="1:38" ht="13.1">
+    <row r="793" spans="1:38" ht="12.75">
       <c r="A793" s="30"/>
       <c r="B793" s="32"/>
       <c r="C793" s="30"/>
@@ -36624,7 +36646,7 @@
       <c r="AK793" s="11"/>
       <c r="AL793" s="11"/>
     </row>
-    <row r="794" spans="1:38" ht="13.1">
+    <row r="794" spans="1:38" ht="12.75">
       <c r="A794" s="30"/>
       <c r="B794" s="32"/>
       <c r="C794" s="30"/>
@@ -36664,7 +36686,7 @@
       <c r="AK794" s="11"/>
       <c r="AL794" s="11"/>
     </row>
-    <row r="795" spans="1:38" ht="13.1">
+    <row r="795" spans="1:38" ht="12.75">
       <c r="A795" s="30"/>
       <c r="B795" s="32"/>
       <c r="C795" s="30"/>
@@ -36704,7 +36726,7 @@
       <c r="AK795" s="11"/>
       <c r="AL795" s="11"/>
     </row>
-    <row r="796" spans="1:38" ht="13.1">
+    <row r="796" spans="1:38" ht="12.75">
       <c r="A796" s="30"/>
       <c r="B796" s="32"/>
       <c r="C796" s="30"/>
@@ -36744,7 +36766,7 @@
       <c r="AK796" s="11"/>
       <c r="AL796" s="11"/>
     </row>
-    <row r="797" spans="1:38" ht="13.1">
+    <row r="797" spans="1:38" ht="12.75">
       <c r="A797" s="30"/>
       <c r="B797" s="32"/>
       <c r="C797" s="30"/>
@@ -36784,7 +36806,7 @@
       <c r="AK797" s="11"/>
       <c r="AL797" s="11"/>
     </row>
-    <row r="798" spans="1:38" ht="13.1">
+    <row r="798" spans="1:38" ht="12.75">
       <c r="A798" s="30"/>
       <c r="B798" s="32"/>
       <c r="C798" s="30"/>
@@ -36824,7 +36846,7 @@
       <c r="AK798" s="11"/>
       <c r="AL798" s="11"/>
     </row>
-    <row r="799" spans="1:38" ht="13.1">
+    <row r="799" spans="1:38" ht="12.75">
       <c r="A799" s="30"/>
       <c r="B799" s="32"/>
       <c r="C799" s="30"/>
@@ -36864,7 +36886,7 @@
       <c r="AK799" s="11"/>
       <c r="AL799" s="11"/>
     </row>
-    <row r="800" spans="1:38" ht="13.1">
+    <row r="800" spans="1:38" ht="12.75">
       <c r="A800" s="30"/>
       <c r="B800" s="32"/>
       <c r="C800" s="30"/>
@@ -36904,7 +36926,7 @@
       <c r="AK800" s="11"/>
       <c r="AL800" s="11"/>
     </row>
-    <row r="801" spans="1:38" ht="13.1">
+    <row r="801" spans="1:38" ht="12.75">
       <c r="A801" s="30"/>
       <c r="B801" s="32"/>
       <c r="C801" s="30"/>
@@ -36944,7 +36966,7 @@
       <c r="AK801" s="11"/>
       <c r="AL801" s="11"/>
     </row>
-    <row r="802" spans="1:38" ht="13.1">
+    <row r="802" spans="1:38" ht="12.75">
       <c r="A802" s="30"/>
       <c r="B802" s="32"/>
       <c r="C802" s="30"/>
@@ -36984,7 +37006,7 @@
       <c r="AK802" s="11"/>
       <c r="AL802" s="11"/>
     </row>
-    <row r="803" spans="1:38" ht="13.1">
+    <row r="803" spans="1:38" ht="12.75">
       <c r="A803" s="30"/>
       <c r="B803" s="32"/>
       <c r="C803" s="30"/>
@@ -37024,7 +37046,7 @@
       <c r="AK803" s="11"/>
       <c r="AL803" s="11"/>
     </row>
-    <row r="804" spans="1:38" ht="13.1">
+    <row r="804" spans="1:38" ht="12.75">
       <c r="A804" s="30"/>
       <c r="B804" s="32"/>
       <c r="C804" s="30"/>
@@ -37064,7 +37086,7 @@
       <c r="AK804" s="11"/>
       <c r="AL804" s="11"/>
     </row>
-    <row r="805" spans="1:38" ht="13.1">
+    <row r="805" spans="1:38" ht="12.75">
       <c r="A805" s="30"/>
       <c r="B805" s="32"/>
       <c r="C805" s="30"/>
@@ -37104,7 +37126,7 @@
       <c r="AK805" s="11"/>
       <c r="AL805" s="11"/>
     </row>
-    <row r="806" spans="1:38" ht="13.1">
+    <row r="806" spans="1:38" ht="12.75">
       <c r="A806" s="30"/>
       <c r="B806" s="32"/>
       <c r="C806" s="30"/>
@@ -37144,7 +37166,7 @@
       <c r="AK806" s="11"/>
       <c r="AL806" s="11"/>
     </row>
-    <row r="807" spans="1:38" ht="13.1">
+    <row r="807" spans="1:38" ht="12.75">
       <c r="A807" s="30"/>
       <c r="B807" s="32"/>
       <c r="C807" s="30"/>
@@ -37184,7 +37206,7 @@
       <c r="AK807" s="11"/>
       <c r="AL807" s="11"/>
     </row>
-    <row r="808" spans="1:38" ht="13.1">
+    <row r="808" spans="1:38" ht="12.75">
       <c r="A808" s="30"/>
       <c r="B808" s="32"/>
       <c r="C808" s="30"/>
@@ -37224,7 +37246,7 @@
       <c r="AK808" s="11"/>
       <c r="AL808" s="11"/>
     </row>
-    <row r="809" spans="1:38" ht="13.1">
+    <row r="809" spans="1:38" ht="12.75">
       <c r="A809" s="30"/>
       <c r="B809" s="32"/>
       <c r="C809" s="30"/>
@@ -37264,7 +37286,7 @@
       <c r="AK809" s="11"/>
       <c r="AL809" s="11"/>
     </row>
-    <row r="810" spans="1:38" ht="13.1">
+    <row r="810" spans="1:38" ht="12.75">
       <c r="A810" s="30"/>
       <c r="B810" s="32"/>
       <c r="C810" s="30"/>
@@ -37304,7 +37326,7 @@
       <c r="AK810" s="11"/>
       <c r="AL810" s="11"/>
     </row>
-    <row r="811" spans="1:38" ht="13.1">
+    <row r="811" spans="1:38" ht="12.75">
       <c r="A811" s="30"/>
       <c r="B811" s="32"/>
       <c r="C811" s="30"/>
@@ -37344,7 +37366,7 @@
       <c r="AK811" s="11"/>
       <c r="AL811" s="11"/>
     </row>
-    <row r="812" spans="1:38" ht="13.1">
+    <row r="812" spans="1:38" ht="12.75">
       <c r="A812" s="30"/>
       <c r="B812" s="32"/>
       <c r="C812" s="30"/>
@@ -37384,7 +37406,7 @@
       <c r="AK812" s="11"/>
       <c r="AL812" s="11"/>
     </row>
-    <row r="813" spans="1:38" ht="13.1">
+    <row r="813" spans="1:38" ht="12.75">
       <c r="A813" s="30"/>
       <c r="B813" s="32"/>
       <c r="C813" s="30"/>
@@ -37424,7 +37446,7 @@
       <c r="AK813" s="11"/>
       <c r="AL813" s="11"/>
     </row>
-    <row r="814" spans="1:38" ht="13.1">
+    <row r="814" spans="1:38" ht="12.75">
       <c r="A814" s="30"/>
       <c r="B814" s="32"/>
       <c r="C814" s="30"/>
@@ -37464,7 +37486,7 @@
       <c r="AK814" s="11"/>
       <c r="AL814" s="11"/>
     </row>
-    <row r="815" spans="1:38" ht="13.1">
+    <row r="815" spans="1:38" ht="12.75">
       <c r="A815" s="30"/>
       <c r="B815" s="32"/>
       <c r="C815" s="30"/>
@@ -37504,7 +37526,7 @@
       <c r="AK815" s="11"/>
       <c r="AL815" s="11"/>
     </row>
-    <row r="816" spans="1:38" ht="13.1">
+    <row r="816" spans="1:38" ht="12.75">
       <c r="A816" s="30"/>
       <c r="B816" s="32"/>
       <c r="C816" s="30"/>
@@ -37544,7 +37566,7 @@
       <c r="AK816" s="11"/>
       <c r="AL816" s="11"/>
     </row>
-    <row r="817" spans="1:38" ht="13.1">
+    <row r="817" spans="1:38" ht="12.75">
       <c r="A817" s="30"/>
       <c r="B817" s="32"/>
       <c r="C817" s="30"/>
@@ -37584,7 +37606,7 @@
       <c r="AK817" s="11"/>
       <c r="AL817" s="11"/>
     </row>
-    <row r="818" spans="1:38" ht="13.1">
+    <row r="818" spans="1:38" ht="12.75">
       <c r="A818" s="30"/>
       <c r="B818" s="32"/>
       <c r="C818" s="30"/>
@@ -37624,7 +37646,7 @@
       <c r="AK818" s="11"/>
       <c r="AL818" s="11"/>
     </row>
-    <row r="819" spans="1:38" ht="13.1">
+    <row r="819" spans="1:38" ht="12.75">
       <c r="A819" s="30"/>
       <c r="B819" s="32"/>
       <c r="C819" s="30"/>
@@ -37664,7 +37686,7 @@
       <c r="AK819" s="11"/>
       <c r="AL819" s="11"/>
     </row>
-    <row r="820" spans="1:38" ht="13.1">
+    <row r="820" spans="1:38" ht="12.75">
       <c r="A820" s="30"/>
       <c r="B820" s="32"/>
       <c r="C820" s="30"/>
@@ -37704,7 +37726,7 @@
       <c r="AK820" s="11"/>
       <c r="AL820" s="11"/>
     </row>
-    <row r="821" spans="1:38" ht="13.1">
+    <row r="821" spans="1:38" ht="12.75">
       <c r="A821" s="30"/>
       <c r="B821" s="32"/>
       <c r="C821" s="30"/>
@@ -37744,7 +37766,7 @@
       <c r="AK821" s="11"/>
       <c r="AL821" s="11"/>
     </row>
-    <row r="822" spans="1:38" ht="13.1">
+    <row r="822" spans="1:38" ht="12.75">
       <c r="A822" s="30"/>
       <c r="B822" s="32"/>
       <c r="C822" s="30"/>
@@ -37784,7 +37806,7 @@
       <c r="AK822" s="11"/>
       <c r="AL822" s="11"/>
     </row>
-    <row r="823" spans="1:38" ht="13.1">
+    <row r="823" spans="1:38" ht="12.75">
       <c r="A823" s="30"/>
       <c r="B823" s="32"/>
       <c r="C823" s="30"/>
@@ -37824,7 +37846,7 @@
       <c r="AK823" s="11"/>
       <c r="AL823" s="11"/>
     </row>
-    <row r="824" spans="1:38" ht="13.1">
+    <row r="824" spans="1:38" ht="12.75">
       <c r="A824" s="30"/>
       <c r="B824" s="32"/>
       <c r="C824" s="30"/>
@@ -37864,7 +37886,7 @@
       <c r="AK824" s="11"/>
       <c r="AL824" s="11"/>
     </row>
-    <row r="825" spans="1:38" ht="13.1">
+    <row r="825" spans="1:38" ht="12.75">
       <c r="A825" s="30"/>
       <c r="B825" s="32"/>
       <c r="C825" s="30"/>
@@ -37904,7 +37926,7 @@
       <c r="AK825" s="11"/>
       <c r="AL825" s="11"/>
     </row>
-    <row r="826" spans="1:38" ht="13.1">
+    <row r="826" spans="1:38" ht="12.75">
       <c r="A826" s="30"/>
       <c r="B826" s="32"/>
       <c r="C826" s="30"/>
@@ -37944,7 +37966,7 @@
       <c r="AK826" s="11"/>
       <c r="AL826" s="11"/>
     </row>
-    <row r="827" spans="1:38" ht="13.1">
+    <row r="827" spans="1:38" ht="12.75">
       <c r="A827" s="30"/>
       <c r="B827" s="32"/>
       <c r="C827" s="30"/>
@@ -37984,7 +38006,7 @@
       <c r="AK827" s="11"/>
       <c r="AL827" s="11"/>
     </row>
-    <row r="828" spans="1:38" ht="13.1">
+    <row r="828" spans="1:38" ht="12.75">
       <c r="A828" s="30"/>
       <c r="B828" s="32"/>
       <c r="C828" s="30"/>
@@ -38024,7 +38046,7 @@
       <c r="AK828" s="11"/>
       <c r="AL828" s="11"/>
     </row>
-    <row r="829" spans="1:38" ht="13.1">
+    <row r="829" spans="1:38" ht="12.75">
       <c r="A829" s="30"/>
       <c r="B829" s="32"/>
       <c r="C829" s="30"/>
@@ -38064,7 +38086,7 @@
       <c r="AK829" s="11"/>
       <c r="AL829" s="11"/>
     </row>
-    <row r="830" spans="1:38" ht="13.1">
+    <row r="830" spans="1:38" ht="12.75">
       <c r="A830" s="30"/>
       <c r="B830" s="32"/>
       <c r="C830" s="30"/>
@@ -38104,7 +38126,7 @@
       <c r="AK830" s="11"/>
       <c r="AL830" s="11"/>
     </row>
-    <row r="831" spans="1:38" ht="13.1">
+    <row r="831" spans="1:38" ht="12.75">
       <c r="A831" s="30"/>
       <c r="B831" s="32"/>
       <c r="C831" s="30"/>
@@ -38144,7 +38166,7 @@
       <c r="AK831" s="11"/>
       <c r="AL831" s="11"/>
     </row>
-    <row r="832" spans="1:38" ht="13.1">
+    <row r="832" spans="1:38" ht="12.75">
       <c r="A832" s="30"/>
       <c r="B832" s="32"/>
       <c r="C832" s="30"/>
@@ -38184,7 +38206,7 @@
       <c r="AK832" s="11"/>
       <c r="AL832" s="11"/>
     </row>
-    <row r="833" spans="1:38" ht="13.1">
+    <row r="833" spans="1:38" ht="12.75">
       <c r="A833" s="30"/>
       <c r="B833" s="32"/>
       <c r="C833" s="30"/>
@@ -38224,7 +38246,7 @@
       <c r="AK833" s="11"/>
       <c r="AL833" s="11"/>
     </row>
-    <row r="834" spans="1:38" ht="13.1">
+    <row r="834" spans="1:38" ht="12.75">
       <c r="A834" s="30"/>
       <c r="B834" s="32"/>
       <c r="C834" s="30"/>
@@ -38264,7 +38286,7 @@
       <c r="AK834" s="11"/>
       <c r="AL834" s="11"/>
     </row>
-    <row r="835" spans="1:38" ht="13.1">
+    <row r="835" spans="1:38" ht="12.75">
       <c r="A835" s="30"/>
       <c r="B835" s="32"/>
       <c r="C835" s="30"/>
@@ -38304,7 +38326,7 @@
       <c r="AK835" s="11"/>
       <c r="AL835" s="11"/>
     </row>
-    <row r="836" spans="1:38" ht="13.1">
+    <row r="836" spans="1:38" ht="12.75">
       <c r="A836" s="30"/>
       <c r="B836" s="32"/>
       <c r="C836" s="30"/>
@@ -38344,7 +38366,7 @@
       <c r="AK836" s="11"/>
       <c r="AL836" s="11"/>
     </row>
-    <row r="837" spans="1:38" ht="13.1">
+    <row r="837" spans="1:38" ht="12.75">
       <c r="A837" s="30"/>
       <c r="B837" s="32"/>
       <c r="C837" s="30"/>
@@ -38384,7 +38406,7 @@
       <c r="AK837" s="11"/>
       <c r="AL837" s="11"/>
     </row>
-    <row r="838" spans="1:38" ht="13.1">
+    <row r="838" spans="1:38" ht="12.75">
       <c r="A838" s="30"/>
       <c r="B838" s="32"/>
       <c r="C838" s="30"/>
@@ -38424,7 +38446,7 @@
       <c r="AK838" s="11"/>
       <c r="AL838" s="11"/>
     </row>
-    <row r="839" spans="1:38" ht="13.1">
+    <row r="839" spans="1:38" ht="12.75">
       <c r="A839" s="30"/>
       <c r="B839" s="32"/>
       <c r="C839" s="30"/>
@@ -38464,7 +38486,7 @@
       <c r="AK839" s="11"/>
       <c r="AL839" s="11"/>
     </row>
-    <row r="840" spans="1:38" ht="13.1">
+    <row r="840" spans="1:38" ht="12.75">
       <c r="A840" s="30"/>
       <c r="B840" s="32"/>
       <c r="C840" s="30"/>
@@ -38504,7 +38526,7 @@
       <c r="AK840" s="11"/>
       <c r="AL840" s="11"/>
     </row>
-    <row r="841" spans="1:38" ht="13.1">
+    <row r="841" spans="1:38" ht="12.75">
       <c r="A841" s="30"/>
       <c r="B841" s="32"/>
       <c r="C841" s="30"/>
@@ -38544,7 +38566,7 @@
       <c r="AK841" s="11"/>
       <c r="AL841" s="11"/>
     </row>
-    <row r="842" spans="1:38" ht="13.1">
+    <row r="842" spans="1:38" ht="12.75">
       <c r="A842" s="30"/>
       <c r="B842" s="32"/>
       <c r="C842" s="30"/>
@@ -38584,7 +38606,7 @@
       <c r="AK842" s="11"/>
       <c r="AL842" s="11"/>
     </row>
-    <row r="843" spans="1:38" ht="13.1">
+    <row r="843" spans="1:38" ht="12.75">
       <c r="A843" s="30"/>
       <c r="B843" s="32"/>
       <c r="C843" s="30"/>
@@ -38624,7 +38646,7 @@
       <c r="AK843" s="11"/>
       <c r="AL843" s="11"/>
     </row>
-    <row r="844" spans="1:38" ht="13.1">
+    <row r="844" spans="1:38" ht="12.75">
       <c r="A844" s="30"/>
       <c r="B844" s="32"/>
       <c r="C844" s="30"/>
@@ -38664,7 +38686,7 @@
       <c r="AK844" s="11"/>
       <c r="AL844" s="11"/>
     </row>
-    <row r="845" spans="1:38" ht="13.1">
+    <row r="845" spans="1:38" ht="12.75">
       <c r="A845" s="30"/>
       <c r="B845" s="32"/>
       <c r="C845" s="30"/>
@@ -38704,7 +38726,7 @@
       <c r="AK845" s="11"/>
       <c r="AL845" s="11"/>
     </row>
-    <row r="846" spans="1:38" ht="13.1">
+    <row r="846" spans="1:38" ht="12.75">
       <c r="A846" s="30"/>
       <c r="B846" s="32"/>
       <c r="C846" s="30"/>
@@ -38744,7 +38766,7 @@
       <c r="AK846" s="11"/>
       <c r="AL846" s="11"/>
     </row>
-    <row r="847" spans="1:38" ht="13.1">
+    <row r="847" spans="1:38" ht="12.75">
       <c r="A847" s="30"/>
       <c r="B847" s="32"/>
       <c r="C847" s="30"/>
@@ -38784,7 +38806,7 @@
       <c r="AK847" s="11"/>
       <c r="AL847" s="11"/>
     </row>
-    <row r="848" spans="1:38" ht="13.1">
+    <row r="848" spans="1:38" ht="12.75">
       <c r="A848" s="30"/>
       <c r="B848" s="32"/>
       <c r="C848" s="30"/>
@@ -38824,7 +38846,7 @@
       <c r="AK848" s="11"/>
       <c r="AL848" s="11"/>
     </row>
-    <row r="849" spans="1:38" ht="13.1">
+    <row r="849" spans="1:38" ht="12.75">
       <c r="A849" s="30"/>
       <c r="B849" s="32"/>
       <c r="C849" s="30"/>
@@ -38864,7 +38886,7 @@
       <c r="AK849" s="11"/>
       <c r="AL849" s="11"/>
     </row>
-    <row r="850" spans="1:38" ht="13.1">
+    <row r="850" spans="1:38" ht="12.75">
       <c r="A850" s="30"/>
       <c r="B850" s="32"/>
       <c r="C850" s="30"/>
@@ -38904,7 +38926,7 @@
       <c r="AK850" s="11"/>
       <c r="AL850" s="11"/>
     </row>
-    <row r="851" spans="1:38" ht="13.1">
+    <row r="851" spans="1:38" ht="12.75">
       <c r="A851" s="30"/>
       <c r="B851" s="32"/>
       <c r="C851" s="30"/>
@@ -38944,7 +38966,7 @@
       <c r="AK851" s="11"/>
       <c r="AL851" s="11"/>
     </row>
-    <row r="852" spans="1:38" ht="13.1">
+    <row r="852" spans="1:38" ht="12.75">
       <c r="A852" s="30"/>
       <c r="B852" s="32"/>
       <c r="C852" s="30"/>
@@ -38984,7 +39006,7 @@
       <c r="AK852" s="11"/>
       <c r="AL852" s="11"/>
     </row>
-    <row r="853" spans="1:38" ht="13.1">
+    <row r="853" spans="1:38" ht="12.75">
       <c r="A853" s="30"/>
       <c r="B853" s="32"/>
       <c r="C853" s="30"/>
@@ -39024,7 +39046,7 @@
       <c r="AK853" s="11"/>
       <c r="AL853" s="11"/>
     </row>
-    <row r="854" spans="1:38" ht="13.1">
+    <row r="854" spans="1:38" ht="12.75">
       <c r="A854" s="30"/>
       <c r="B854" s="32"/>
       <c r="C854" s="30"/>
@@ -39064,7 +39086,7 @@
       <c r="AK854" s="11"/>
       <c r="AL854" s="11"/>
     </row>
-    <row r="855" spans="1:38" ht="13.1">
+    <row r="855" spans="1:38" ht="12.75">
       <c r="A855" s="30"/>
       <c r="B855" s="32"/>
       <c r="C855" s="30"/>
@@ -39104,7 +39126,7 @@
       <c r="AK855" s="11"/>
       <c r="AL855" s="11"/>
     </row>
-    <row r="856" spans="1:38" ht="13.1">
+    <row r="856" spans="1:38" ht="12.75">
       <c r="A856" s="30"/>
       <c r="B856" s="32"/>
       <c r="C856" s="30"/>
@@ -39144,7 +39166,7 @@
       <c r="AK856" s="11"/>
       <c r="AL856" s="11"/>
     </row>
-    <row r="857" spans="1:38" ht="13.1">
+    <row r="857" spans="1:38" ht="12.75">
       <c r="A857" s="30"/>
       <c r="B857" s="32"/>
       <c r="C857" s="30"/>
@@ -39184,7 +39206,7 @@
       <c r="AK857" s="11"/>
       <c r="AL857" s="11"/>
     </row>
-    <row r="858" spans="1:38" ht="13.1">
+    <row r="858" spans="1:38" ht="12.75">
       <c r="A858" s="30"/>
       <c r="B858" s="32"/>
       <c r="C858" s="30"/>
@@ -39224,7 +39246,7 @@
       <c r="AK858" s="11"/>
       <c r="AL858" s="11"/>
     </row>
-    <row r="859" spans="1:38" ht="13.1">
+    <row r="859" spans="1:38" ht="12.75">
       <c r="A859" s="30"/>
       <c r="B859" s="32"/>
       <c r="C859" s="30"/>
@@ -39264,7 +39286,7 @@
       <c r="AK859" s="11"/>
       <c r="AL859" s="11"/>
     </row>
-    <row r="860" spans="1:38" ht="13.1">
+    <row r="860" spans="1:38" ht="12.75">
       <c r="A860" s="30"/>
       <c r="B860" s="32"/>
       <c r="C860" s="30"/>
@@ -39304,7 +39326,7 @@
       <c r="AK860" s="11"/>
       <c r="AL860" s="11"/>
     </row>
-    <row r="861" spans="1:38" ht="13.1">
+    <row r="861" spans="1:38" ht="12.75">
       <c r="A861" s="30"/>
       <c r="B861" s="32"/>
       <c r="C861" s="30"/>
@@ -39344,7 +39366,7 @@
       <c r="AK861" s="11"/>
       <c r="AL861" s="11"/>
     </row>
-    <row r="862" spans="1:38" ht="13.1">
+    <row r="862" spans="1:38" ht="12.75">
       <c r="A862" s="30"/>
       <c r="B862" s="32"/>
       <c r="C862" s="30"/>
@@ -39384,7 +39406,7 @@
       <c r="AK862" s="11"/>
       <c r="AL862" s="11"/>
     </row>
-    <row r="863" spans="1:38" ht="13.1">
+    <row r="863" spans="1:38" ht="12.75">
       <c r="A863" s="30"/>
       <c r="B863" s="32"/>
       <c r="C863" s="30"/>
@@ -39424,7 +39446,7 @@
       <c r="AK863" s="11"/>
       <c r="AL863" s="11"/>
     </row>
-    <row r="864" spans="1:38" ht="13.1">
+    <row r="864" spans="1:38" ht="12.75">
       <c r="A864" s="30"/>
       <c r="B864" s="32"/>
       <c r="C864" s="30"/>
@@ -39464,7 +39486,7 @@
       <c r="AK864" s="11"/>
       <c r="AL864" s="11"/>
     </row>
-    <row r="865" spans="1:38" ht="13.1">
+    <row r="865" spans="1:38" ht="12.75">
       <c r="A865" s="30"/>
       <c r="B865" s="32"/>
       <c r="C865" s="30"/>
@@ -39504,7 +39526,7 @@
       <c r="AK865" s="11"/>
       <c r="AL865" s="11"/>
     </row>
-    <row r="866" spans="1:38" ht="13.1">
+    <row r="866" spans="1:38" ht="12.75">
       <c r="A866" s="30"/>
       <c r="B866" s="32"/>
       <c r="C866" s="30"/>
@@ -39544,7 +39566,7 @@
       <c r="AK866" s="11"/>
       <c r="AL866" s="11"/>
     </row>
-    <row r="867" spans="1:38" ht="13.1">
+    <row r="867" spans="1:38" ht="12.75">
       <c r="A867" s="30"/>
       <c r="B867" s="32"/>
       <c r="C867" s="30"/>
@@ -39584,7 +39606,7 @@
       <c r="AK867" s="11"/>
       <c r="AL867" s="11"/>
     </row>
-    <row r="868" spans="1:38" ht="13.1">
+    <row r="868" spans="1:38" ht="12.75">
       <c r="A868" s="30"/>
       <c r="B868" s="32"/>
       <c r="C868" s="30"/>
@@ -39624,7 +39646,7 @@
       <c r="AK868" s="11"/>
       <c r="AL868" s="11"/>
     </row>
-    <row r="869" spans="1:38" ht="13.1">
+    <row r="869" spans="1:38" ht="12.75">
       <c r="A869" s="30"/>
       <c r="B869" s="32"/>
       <c r="C869" s="30"/>
@@ -39664,7 +39686,7 @@
       <c r="AK869" s="11"/>
       <c r="AL869" s="11"/>
     </row>
-    <row r="870" spans="1:38" ht="13.1">
+    <row r="870" spans="1:38" ht="12.75">
       <c r="A870" s="30"/>
       <c r="B870" s="32"/>
       <c r="C870" s="30"/>
@@ -39704,7 +39726,7 @@
       <c r="AK870" s="11"/>
       <c r="AL870" s="11"/>
     </row>
-    <row r="871" spans="1:38" ht="13.1">
+    <row r="871" spans="1:38" ht="12.75">
       <c r="A871" s="30"/>
       <c r="B871" s="32"/>
       <c r="C871" s="30"/>
@@ -39744,7 +39766,7 @@
       <c r="AK871" s="11"/>
       <c r="AL871" s="11"/>
     </row>
-    <row r="872" spans="1:38" ht="13.1">
+    <row r="872" spans="1:38" ht="12.75">
       <c r="A872" s="30"/>
       <c r="B872" s="32"/>
       <c r="C872" s="30"/>
@@ -39784,7 +39806,7 @@
       <c r="AK872" s="11"/>
       <c r="AL872" s="11"/>
     </row>
-    <row r="873" spans="1:38" ht="13.1">
+    <row r="873" spans="1:38" ht="12.75">
       <c r="A873" s="30"/>
       <c r="B873" s="32"/>
       <c r="C873" s="30"/>
@@ -39824,7 +39846,7 @@
       <c r="AK873" s="11"/>
       <c r="AL873" s="11"/>
     </row>
-    <row r="874" spans="1:38" ht="13.1">
+    <row r="874" spans="1:38" ht="12.75">
       <c r="A874" s="30"/>
       <c r="B874" s="32"/>
       <c r="C874" s="30"/>
@@ -39864,7 +39886,7 @@
       <c r="AK874" s="11"/>
       <c r="AL874" s="11"/>
     </row>
-    <row r="875" spans="1:38" ht="13.1">
+    <row r="875" spans="1:38" ht="12.75">
       <c r="A875" s="30"/>
       <c r="B875" s="32"/>
       <c r="C875" s="30"/>
@@ -39904,7 +39926,7 @@
       <c r="AK875" s="11"/>
       <c r="AL875" s="11"/>
     </row>
-    <row r="876" spans="1:38" ht="13.1">
+    <row r="876" spans="1:38" ht="12.75">
       <c r="A876" s="30"/>
       <c r="B876" s="32"/>
       <c r="C876" s="30"/>
@@ -39944,7 +39966,7 @@
       <c r="AK876" s="11"/>
       <c r="AL876" s="11"/>
     </row>
-    <row r="877" spans="1:38" ht="13.1">
+    <row r="877" spans="1:38" ht="12.75">
       <c r="A877" s="30"/>
       <c r="B877" s="32"/>
       <c r="C877" s="30"/>
@@ -39984,7 +40006,7 @@
       <c r="AK877" s="11"/>
       <c r="AL877" s="11"/>
     </row>
-    <row r="878" spans="1:38" ht="13.1">
+    <row r="878" spans="1:38" ht="12.75">
       <c r="A878" s="30"/>
       <c r="B878" s="32"/>
       <c r="C878" s="30"/>
@@ -40024,7 +40046,7 @@
       <c r="AK878" s="11"/>
       <c r="AL878" s="11"/>
     </row>
-    <row r="879" spans="1:38" ht="13.1">
+    <row r="879" spans="1:38" ht="12.75">
       <c r="A879" s="30"/>
       <c r="B879" s="32"/>
       <c r="C879" s="30"/>
@@ -40064,7 +40086,7 @@
       <c r="AK879" s="11"/>
       <c r="AL879" s="11"/>
     </row>
-    <row r="880" spans="1:38" ht="13.1">
+    <row r="880" spans="1:38" ht="12.75">
       <c r="A880" s="30"/>
       <c r="B880" s="32"/>
       <c r="C880" s="30"/>
@@ -40104,7 +40126,7 @@
       <c r="AK880" s="11"/>
       <c r="AL880" s="11"/>
     </row>
-    <row r="881" spans="1:38" ht="13.1">
+    <row r="881" spans="1:38" ht="12.75">
       <c r="A881" s="30"/>
       <c r="B881" s="32"/>
       <c r="C881" s="30"/>
@@ -40144,7 +40166,7 @@
       <c r="AK881" s="11"/>
       <c r="AL881" s="11"/>
     </row>
-    <row r="882" spans="1:38" ht="13.1">
+    <row r="882" spans="1:38" ht="12.75">
       <c r="A882" s="30"/>
       <c r="B882" s="32"/>
       <c r="C882" s="30"/>
@@ -40184,7 +40206,7 @@
       <c r="AK882" s="11"/>
       <c r="AL882" s="11"/>
     </row>
-    <row r="883" spans="1:38" ht="13.1">
+    <row r="883" spans="1:38" ht="12.75">
       <c r="A883" s="30"/>
       <c r="B883" s="32"/>
       <c r="C883" s="30"/>
@@ -40224,7 +40246,7 @@
       <c r="AK883" s="11"/>
       <c r="AL883" s="11"/>
     </row>
-    <row r="884" spans="1:38" ht="13.1">
+    <row r="884" spans="1:38" ht="12.75">
       <c r="A884" s="30"/>
       <c r="B884" s="32"/>
       <c r="C884" s="30"/>
@@ -40264,7 +40286,7 @@
       <c r="AK884" s="11"/>
       <c r="AL884" s="11"/>
     </row>
-    <row r="885" spans="1:38" ht="13.1">
+    <row r="885" spans="1:38" ht="12.75">
       <c r="A885" s="30"/>
       <c r="B885" s="32"/>
       <c r="C885" s="30"/>
@@ -40304,7 +40326,7 @@
       <c r="AK885" s="11"/>
       <c r="AL885" s="11"/>
     </row>
-    <row r="886" spans="1:38" ht="13.1">
+    <row r="886" spans="1:38" ht="12.75">
       <c r="A886" s="30"/>
       <c r="B886" s="32"/>
       <c r="C886" s="30"/>
@@ -40344,7 +40366,7 @@
       <c r="AK886" s="11"/>
       <c r="AL886" s="11"/>
     </row>
-    <row r="887" spans="1:38" ht="13.1">
+    <row r="887" spans="1:38" ht="12.75">
       <c r="A887" s="30"/>
       <c r="B887" s="32"/>
       <c r="C887" s="30"/>
@@ -40384,7 +40406,7 @@
       <c r="AK887" s="11"/>
       <c r="AL887" s="11"/>
     </row>
-    <row r="888" spans="1:38" ht="13.1">
+    <row r="888" spans="1:38" ht="12.75">
       <c r="A888" s="30"/>
       <c r="B888" s="32"/>
       <c r="C888" s="30"/>
@@ -40424,7 +40446,7 @@
       <c r="AK888" s="11"/>
       <c r="AL888" s="11"/>
     </row>
-    <row r="889" spans="1:38" ht="13.1">
+    <row r="889" spans="1:38" ht="12.75">
       <c r="A889" s="30"/>
       <c r="B889" s="32"/>
       <c r="C889" s="30"/>
@@ -40464,7 +40486,7 @@
       <c r="AK889" s="11"/>
       <c r="AL889" s="11"/>
     </row>
-    <row r="890" spans="1:38" ht="13.1">
+    <row r="890" spans="1:38" ht="12.75">
       <c r="A890" s="30"/>
       <c r="B890" s="32"/>
       <c r="C890" s="30"/>
@@ -40504,7 +40526,7 @@
       <c r="AK890" s="11"/>
       <c r="AL890" s="11"/>
     </row>
-    <row r="891" spans="1:38" ht="13.1">
+    <row r="891" spans="1:38" ht="12.75">
       <c r="A891" s="30"/>
       <c r="B891" s="32"/>
       <c r="C891" s="30"/>
@@ -40544,7 +40566,7 @@
       <c r="AK891" s="11"/>
       <c r="AL891" s="11"/>
     </row>
-    <row r="892" spans="1:38" ht="13.1">
+    <row r="892" spans="1:38" ht="12.75">
       <c r="A892" s="30"/>
       <c r="B892" s="32"/>
       <c r="C892" s="30"/>
@@ -40584,7 +40606,7 @@
       <c r="AK892" s="11"/>
       <c r="AL892" s="11"/>
     </row>
-    <row r="893" spans="1:38" ht="13.1">
+    <row r="893" spans="1:38" ht="12.75">
       <c r="A893" s="30"/>
       <c r="B893" s="32"/>
       <c r="C893" s="30"/>
@@ -40624,7 +40646,7 @@
       <c r="AK893" s="11"/>
       <c r="AL893" s="11"/>
     </row>
-    <row r="894" spans="1:38" ht="13.1">
+    <row r="894" spans="1:38" ht="12.75">
       <c r="A894" s="30"/>
       <c r="B894" s="32"/>
       <c r="C894" s="30"/>
@@ -40664,7 +40686,7 @@
       <c r="AK894" s="11"/>
       <c r="AL894" s="11"/>
     </row>
-    <row r="895" spans="1:38" ht="13.1">
+    <row r="895" spans="1:38" ht="12.75">
       <c r="A895" s="30"/>
       <c r="B895" s="32"/>
       <c r="C895" s="30"/>
@@ -40704,7 +40726,7 @@
       <c r="AK895" s="11"/>
       <c r="AL895" s="11"/>
     </row>
-    <row r="896" spans="1:38" ht="13.1">
+    <row r="896" spans="1:38" ht="12.75">
       <c r="A896" s="30"/>
       <c r="B896" s="32"/>
       <c r="C896" s="30"/>
@@ -40744,7 +40766,7 @@
       <c r="AK896" s="11"/>
       <c r="AL896" s="11"/>
     </row>
-    <row r="897" spans="1:38" ht="13.1">
+    <row r="897" spans="1:38" ht="12.75">
       <c r="A897" s="30"/>
       <c r="B897" s="32"/>
       <c r="C897" s="30"/>
@@ -40784,7 +40806,7 @@
       <c r="AK897" s="11"/>
       <c r="AL897" s="11"/>
     </row>
-    <row r="898" spans="1:38" ht="13.1">
+    <row r="898" spans="1:38" ht="12.75">
       <c r="A898" s="30"/>
       <c r="B898" s="32"/>
       <c r="C898" s="30"/>
@@ -40824,7 +40846,7 @@
       <c r="AK898" s="11"/>
       <c r="AL898" s="11"/>
     </row>
-    <row r="899" spans="1:38" ht="13.1">
+    <row r="899" spans="1:38" ht="12.75">
       <c r="A899" s="30"/>
       <c r="B899" s="32"/>
       <c r="C899" s="30"/>
@@ -40864,7 +40886,7 @@
       <c r="AK899" s="11"/>
       <c r="AL899" s="11"/>
     </row>
-    <row r="900" spans="1:38" ht="13.1">
+    <row r="900" spans="1:38" ht="12.75">
       <c r="A900" s="30"/>
       <c r="B900" s="32"/>
       <c r="C900" s="30"/>
@@ -40904,7 +40926,7 @@
       <c r="AK900" s="11"/>
       <c r="AL900" s="11"/>
     </row>
-    <row r="901" spans="1:38" ht="13.1">
+    <row r="901" spans="1:38" ht="12.75">
       <c r="A901" s="30"/>
       <c r="B901" s="32"/>
       <c r="C901" s="30"/>
@@ -40944,7 +40966,7 @@
       <c r="AK901" s="11"/>
       <c r="AL901" s="11"/>
     </row>
-    <row r="902" spans="1:38" ht="13.1">
+    <row r="902" spans="1:38" ht="12.75">
       <c r="A902" s="30"/>
       <c r="B902" s="32"/>
       <c r="C902" s="30"/>
@@ -40984,7 +41006,7 @@
       <c r="AK902" s="11"/>
       <c r="AL902" s="11"/>
     </row>
-    <row r="903" spans="1:38" ht="13.1">
+    <row r="903" spans="1:38" ht="12.75">
       <c r="A903" s="30"/>
       <c r="B903" s="32"/>
       <c r="C903" s="30"/>
@@ -41024,7 +41046,7 @@
       <c r="AK903" s="11"/>
       <c r="AL903" s="11"/>
     </row>
-    <row r="904" spans="1:38" ht="13.1">
+    <row r="904" spans="1:38" ht="12.75">
       <c r="A904" s="30"/>
       <c r="B904" s="32"/>
       <c r="C904" s="30"/>
@@ -41064,7 +41086,7 @@
       <c r="AK904" s="11"/>
       <c r="AL904" s="11"/>
     </row>
-    <row r="905" spans="1:38" ht="13.1">
+    <row r="905" spans="1:38" ht="12.75">
       <c r="A905" s="30"/>
       <c r="B905" s="32"/>
       <c r="C905" s="30"/>
@@ -41104,7 +41126,7 @@
       <c r="AK905" s="11"/>
       <c r="AL905" s="11"/>
     </row>
-    <row r="906" spans="1:38" ht="13.1">
+    <row r="906" spans="1:38" ht="12.75">
       <c r="A906" s="30"/>
       <c r="B906" s="32"/>
       <c r="C906" s="30"/>
@@ -41144,7 +41166,7 @@
       <c r="AK906" s="11"/>
       <c r="AL906" s="11"/>
     </row>
-    <row r="907" spans="1:38" ht="13.1">
+    <row r="907" spans="1:38" ht="12.75">
       <c r="A907" s="30"/>
       <c r="B907" s="32"/>
       <c r="C907" s="30"/>
@@ -41184,7 +41206,7 @@
       <c r="AK907" s="11"/>
       <c r="AL907" s="11"/>
     </row>
-    <row r="908" spans="1:38" ht="13.1">
+    <row r="908" spans="1:38" ht="12.75">
       <c r="A908" s="30"/>
       <c r="B908" s="32"/>
       <c r="C908" s="30"/>
@@ -41224,7 +41246,7 @@
       <c r="AK908" s="11"/>
       <c r="AL908" s="11"/>
     </row>
-    <row r="909" spans="1:38" ht="13.1">
+    <row r="909" spans="1:38" ht="12.75">
       <c r="A909" s="30"/>
       <c r="B909" s="32"/>
       <c r="C909" s="30"/>
@@ -41264,7 +41286,7 @@
       <c r="AK909" s="11"/>
       <c r="AL909" s="11"/>
     </row>
-    <row r="910" spans="1:38" ht="13.1">
+    <row r="910" spans="1:38" ht="12.75">
       <c r="A910" s="30"/>
       <c r="B910" s="32"/>
       <c r="C910" s="30"/>
@@ -41304,7 +41326,7 @@
       <c r="AK910" s="11"/>
       <c r="AL910" s="11"/>
     </row>
-    <row r="911" spans="1:38" ht="13.1">
+    <row r="911" spans="1:38" ht="12.75">
       <c r="A911" s="30"/>
       <c r="B911" s="32"/>
       <c r="C911" s="30"/>
@@ -41344,7 +41366,7 @@
       <c r="AK911" s="11"/>
       <c r="AL911" s="11"/>
     </row>
-    <row r="912" spans="1:38" ht="13.1">
+    <row r="912" spans="1:38" ht="12.75">
       <c r="A912" s="30"/>
       <c r="B912" s="32"/>
       <c r="C912" s="30"/>
@@ -41384,7 +41406,7 @@
       <c r="AK912" s="11"/>
       <c r="AL912" s="11"/>
     </row>
-    <row r="913" spans="1:38" ht="13.1">
+    <row r="913" spans="1:38" ht="12.75">
       <c r="A913" s="30"/>
       <c r="B913" s="32"/>
       <c r="C913" s="30"/>
@@ -41424,7 +41446,7 @@
       <c r="AK913" s="11"/>
       <c r="AL913" s="11"/>
     </row>
-    <row r="914" spans="1:38" ht="13.1">
+    <row r="914" spans="1:38" ht="12.75">
       <c r="A914" s="30"/>
       <c r="B914" s="32"/>
       <c r="C914" s="30"/>
@@ -41464,7 +41486,7 @@
       <c r="AK914" s="11"/>
       <c r="AL914" s="11"/>
     </row>
-    <row r="915" spans="1:38" ht="13.1">
+    <row r="915" spans="1:38" ht="12.75">
       <c r="A915" s="30"/>
       <c r="B915" s="32"/>
       <c r="C915" s="30"/>
@@ -41504,7 +41526,7 @@
       <c r="AK915" s="11"/>
       <c r="AL915" s="11"/>
     </row>
-    <row r="916" spans="1:38" ht="13.1">
+    <row r="916" spans="1:38" ht="12.75">
       <c r="A916" s="30"/>
       <c r="B916" s="32"/>
       <c r="C916" s="30"/>
@@ -41544,7 +41566,7 @@
       <c r="AK916" s="11"/>
       <c r="AL916" s="11"/>
     </row>
-    <row r="917" spans="1:38" ht="13.1">
+    <row r="917" spans="1:38" ht="12.75">
       <c r="A917" s="30"/>
       <c r="B917" s="32"/>
       <c r="C917" s="30"/>
@@ -41584,7 +41606,7 @@
       <c r="AK917" s="11"/>
       <c r="AL917" s="11"/>
     </row>
-    <row r="918" spans="1:38" ht="13.1">
+    <row r="918" spans="1:38" ht="12.75">
       <c r="A918" s="30"/>
       <c r="B918" s="32"/>
       <c r="C918" s="30"/>
@@ -41624,7 +41646,7 @@
       <c r="AK918" s="11"/>
       <c r="AL918" s="11"/>
     </row>
-    <row r="919" spans="1:38" ht="13.1">
+    <row r="919" spans="1:38" ht="12.75">
       <c r="A919" s="30"/>
       <c r="B919" s="32"/>
       <c r="C919" s="30"/>
@@ -41664,7 +41686,7 @@
       <c r="AK919" s="11"/>
       <c r="AL919" s="11"/>
     </row>
-    <row r="920" spans="1:38" ht="13.1">
+    <row r="920" spans="1:38" ht="12.75">
       <c r="A920" s="30"/>
       <c r="B920" s="32"/>
       <c r="C920" s="30"/>
@@ -41704,7 +41726,7 @@
       <c r="AK920" s="11"/>
       <c r="AL920" s="11"/>
     </row>
-    <row r="921" spans="1:38" ht="13.1">
+    <row r="921" spans="1:38" ht="12.75">
       <c r="A921" s="30"/>
       <c r="B921" s="32"/>
       <c r="C921" s="30"/>
@@ -41744,7 +41766,7 @@
       <c r="AK921" s="11"/>
       <c r="AL921" s="11"/>
     </row>
-    <row r="922" spans="1:38" ht="13.1">
+    <row r="922" spans="1:38" ht="12.75">
       <c r="A922" s="30"/>
       <c r="B922" s="32"/>
       <c r="C922" s="30"/>
@@ -41784,7 +41806,7 @@
       <c r="AK922" s="11"/>
       <c r="AL922" s="11"/>
     </row>
-    <row r="923" spans="1:38" ht="13.1">
+    <row r="923" spans="1:38" ht="12.75">
       <c r="A923" s="30"/>
       <c r="B923" s="32"/>
       <c r="C923" s="30"/>
@@ -41824,7 +41846,7 @@
       <c r="AK923" s="11"/>
       <c r="AL923" s="11"/>
     </row>
-    <row r="924" spans="1:38" ht="13.1">
+    <row r="924" spans="1:38" ht="12.75">
       <c r="A924" s="30"/>
       <c r="B924" s="32"/>
       <c r="C924" s="30"/>
@@ -41864,7 +41886,7 @@
       <c r="AK924" s="11"/>
       <c r="AL924" s="11"/>
     </row>
-    <row r="925" spans="1:38" ht="13.1">
+    <row r="925" spans="1:38" ht="12.75">
       <c r="A925" s="30"/>
       <c r="B925" s="32"/>
       <c r="C925" s="30"/>
@@ -41904,7 +41926,7 @@
       <c r="AK925" s="11"/>
       <c r="AL925" s="11"/>
     </row>
-    <row r="926" spans="1:38" ht="13.1">
+    <row r="926" spans="1:38" ht="12.75">
       <c r="A926" s="30"/>
       <c r="B926" s="32"/>
       <c r="C926" s="30"/>
@@ -41944,7 +41966,7 @@
       <c r="AK926" s="11"/>
       <c r="AL926" s="11"/>
     </row>
-    <row r="927" spans="1:38" ht="13.1">
+    <row r="927" spans="1:38" ht="12.75">
       <c r="A927" s="30"/>
       <c r="B927" s="32"/>
       <c r="C927" s="30"/>
@@ -41984,7 +42006,7 @@
       <c r="AK927" s="11"/>
       <c r="AL927" s="11"/>
     </row>
-    <row r="928" spans="1:38" ht="13.1">
+    <row r="928" spans="1:38" ht="12.75">
       <c r="A928" s="30"/>
       <c r="B928" s="32"/>
       <c r="C928" s="30"/>
@@ -42024,7 +42046,7 @@
       <c r="AK928" s="11"/>
       <c r="AL928" s="11"/>
     </row>
-    <row r="929" spans="1:38" ht="13.1">
+    <row r="929" spans="1:38" ht="12.75">
       <c r="A929" s="30"/>
       <c r="B929" s="32"/>
       <c r="C929" s="30"/>
@@ -42064,7 +42086,7 @@
       <c r="AK929" s="11"/>
       <c r="AL929" s="11"/>
     </row>
-    <row r="930" spans="1:38" ht="13.1">
+    <row r="930" spans="1:38" ht="12.75">
       <c r="A930" s="30"/>
       <c r="B930" s="32"/>
       <c r="C930" s="30"/>
@@ -42104,7 +42126,7 @@
       <c r="AK930" s="11"/>
       <c r="AL930" s="11"/>
     </row>
-    <row r="931" spans="1:38" ht="13.1">
+    <row r="931" spans="1:38" ht="12.75">
       <c r="A931" s="30"/>
       <c r="B931" s="32"/>
       <c r="C931" s="30"/>
@@ -42144,7 +42166,7 @@
       <c r="AK931" s="11"/>
       <c r="AL931" s="11"/>
     </row>
-    <row r="932" spans="1:38" ht="13.1">
+    <row r="932" spans="1:38" ht="12.75">
       <c r="A932" s="30"/>
       <c r="B932" s="32"/>
       <c r="C932" s="30"/>
@@ -42184,7 +42206,7 @@
       <c r="AK932" s="11"/>
       <c r="AL932" s="11"/>
     </row>
-    <row r="933" spans="1:38" ht="13.1">
+    <row r="933" spans="1:38" ht="12.75">
       <c r="A933" s="30"/>
       <c r="B933" s="32"/>
       <c r="C933" s="30"/>
@@ -42224,7 +42246,7 @@
       <c r="AK933" s="11"/>
       <c r="AL933" s="11"/>
     </row>
-    <row r="934" spans="1:38" ht="13.1">
+    <row r="934" spans="1:38" ht="12.75">
       <c r="A934" s="30"/>
       <c r="B934" s="32"/>
       <c r="C934" s="30"/>
@@ -42264,7 +42286,7 @@
       <c r="AK934" s="11"/>
       <c r="AL934" s="11"/>
     </row>
-    <row r="935" spans="1:38" ht="13.1">
+    <row r="935" spans="1:38" ht="12.75">
       <c r="A935" s="30"/>
       <c r="B935" s="32"/>
       <c r="C935" s="30"/>
@@ -42304,7 +42326,7 @@
       <c r="AK935" s="11"/>
       <c r="AL935" s="11"/>
     </row>
-    <row r="936" spans="1:38" ht="13.1">
+    <row r="936" spans="1:38" ht="12.75">
       <c r="A936" s="30"/>
       <c r="B936" s="32"/>
       <c r="C936" s="30"/>
@@ -42344,7 +42366,7 @@
       <c r="AK936" s="11"/>
       <c r="AL936" s="11"/>
     </row>
-    <row r="937" spans="1:38" ht="13.1">
+    <row r="937" spans="1:38" ht="12.75">
       <c r="A937" s="30"/>
       <c r="B937" s="32"/>
       <c r="C937" s="30"/>
@@ -42384,7 +42406,7 @@
       <c r="AK937" s="11"/>
       <c r="AL937" s="11"/>
     </row>
-    <row r="938" spans="1:38" ht="13.1">
+    <row r="938" spans="1:38" ht="12.75">
       <c r="A938" s="30"/>
       <c r="B938" s="32"/>
       <c r="C938" s="30"/>
@@ -42424,7 +42446,7 @@
       <c r="AK938" s="11"/>
       <c r="AL938" s="11"/>
     </row>
-    <row r="939" spans="1:38" ht="13.1">
+    <row r="939" spans="1:38" ht="12.75">
       <c r="A939" s="30"/>
       <c r="B939" s="32"/>
       <c r="C939" s="30"/>
@@ -42464,7 +42486,7 @@
       <c r="AK939" s="11"/>
       <c r="AL939" s="11"/>
     </row>
-    <row r="940" spans="1:38" ht="13.1">
+    <row r="940" spans="1:38" ht="12.75">
       <c r="A940" s="30"/>
       <c r="B940" s="32"/>
       <c r="C940" s="30"/>
@@ -42504,7 +42526,7 @@
       <c r="AK940" s="11"/>
       <c r="AL940" s="11"/>
     </row>
-    <row r="941" spans="1:38" ht="13.1">
+    <row r="941" spans="1:38" ht="12.75">
       <c r="A941" s="30"/>
       <c r="B941" s="32"/>
       <c r="C941" s="30"/>
@@ -42544,7 +42566,7 @@
       <c r="AK941" s="11"/>
       <c r="AL941" s="11"/>
     </row>
-    <row r="942" spans="1:38" ht="13.1">
+    <row r="942" spans="1:38" ht="12.75">
       <c r="A942" s="30"/>
       <c r="B942" s="32"/>
       <c r="C942" s="30"/>
@@ -42584,7 +42606,7 @@
       <c r="AK942" s="11"/>
       <c r="AL942" s="11"/>
     </row>
-    <row r="943" spans="1:38" ht="13.1">
+    <row r="943" spans="1:38" ht="12.75">
       <c r="A943" s="30"/>
       <c r="B943" s="32"/>
       <c r="C943" s="30"/>
@@ -42624,7 +42646,7 @@
       <c r="AK943" s="11"/>
       <c r="AL943" s="11"/>
     </row>
-    <row r="944" spans="1:38" ht="13.1">
+    <row r="944" spans="1:38" ht="12.75">
       <c r="A944" s="30"/>
       <c r="B944" s="32"/>
       <c r="C944" s="30"/>
@@ -42664,7 +42686,7 @@
       <c r="AK944" s="11"/>
       <c r="AL944" s="11"/>
     </row>
-    <row r="945" spans="1:38" ht="13.1">
+    <row r="945" spans="1:38" ht="12.75">
       <c r="A945" s="30"/>
       <c r="B945" s="32"/>
       <c r="C945" s="30"/>
@@ -42704,7 +42726,7 @@
       <c r="AK945" s="11"/>
       <c r="AL945" s="11"/>
     </row>
-    <row r="946" spans="1:38" ht="13.1">
+    <row r="946" spans="1:38" ht="12.75">
       <c r="A946" s="30"/>
       <c r="B946" s="32"/>
       <c r="C946" s="30"/>
@@ -42744,7 +42766,7 @@
       <c r="AK946" s="11"/>
       <c r="AL946" s="11"/>
     </row>
-    <row r="947" spans="1:38" ht="13.1">
+    <row r="947" spans="1:38" ht="12.75">
       <c r="A947" s="30"/>
       <c r="B947" s="32"/>
       <c r="C947" s="30"/>
@@ -42784,7 +42806,7 @@
       <c r="AK947" s="11"/>
       <c r="AL947" s="11"/>
     </row>
-    <row r="948" spans="1:38" ht="13.1">
+    <row r="948" spans="1:38" ht="12.75">
       <c r="A948" s="30"/>
       <c r="B948" s="32"/>
       <c r="C948" s="30"/>
@@ -42824,7 +42846,7 @@
       <c r="AK948" s="11"/>
       <c r="AL948" s="11"/>
     </row>
-    <row r="949" spans="1:38" ht="13.1">
+    <row r="949" spans="1:38" ht="12.75">
       <c r="A949" s="30"/>
       <c r="B949" s="32"/>
       <c r="C949" s="30"/>
@@ -42864,7 +42886,7 @@
       <c r="AK949" s="11"/>
       <c r="AL949" s="11"/>
     </row>
-    <row r="950" spans="1:38" ht="13.1">
+    <row r="950" spans="1:38" ht="12.75">
       <c r="A950" s="30"/>
       <c r="B950" s="32"/>
       <c r="C950" s="30"/>
@@ -42904,7 +42926,7 @@
       <c r="AK950" s="11"/>
       <c r="AL950" s="11"/>
     </row>
-    <row r="951" spans="1:38" ht="13.1">
+    <row r="951" spans="1:38" ht="12.75">
       <c r="A951" s="30"/>
       <c r="B951" s="32"/>
       <c r="C951" s="30"/>
@@ -42944,7 +42966,7 @@
       <c r="AK951" s="11"/>
       <c r="AL951" s="11"/>
     </row>
-    <row r="952" spans="1:38" ht="13.1">
+    <row r="952" spans="1:38" ht="12.75">
       <c r="A952" s="30"/>
       <c r="B952" s="32"/>
       <c r="C952" s="30"/>
@@ -42984,7 +43006,7 @@
       <c r="AK952" s="11"/>
       <c r="AL952" s="11"/>
     </row>
-    <row r="953" spans="1:38" ht="13.1">
+    <row r="953" spans="1:38" ht="12.75">
       <c r="A953" s="30"/>
       <c r="B953" s="32"/>
       <c r="C953" s="30"/>
@@ -43024,7 +43046,7 @@
       <c r="AK953" s="11"/>
       <c r="AL953" s="11"/>
     </row>
-    <row r="954" spans="1:38" ht="13.1">
+    <row r="954" spans="1:38" ht="12.75">
       <c r="A954" s="30"/>
       <c r="B954" s="32"/>
       <c r="C954" s="30"/>
@@ -43064,7 +43086,7 @@
       <c r="AK954" s="11"/>
       <c r="AL954" s="11"/>
     </row>
-    <row r="955" spans="1:38" ht="13.1">
+    <row r="955" spans="1:38" ht="12.75">
       <c r="A955" s="30"/>
       <c r="B955" s="32"/>
       <c r="C955" s="30"/>
@@ -43104,7 +43126,7 @@
       <c r="AK955" s="11"/>
       <c r="AL955" s="11"/>
     </row>
-    <row r="956" spans="1:38" ht="13.1">
+    <row r="956" spans="1:38" ht="12.75">
       <c r="A956" s="30"/>
       <c r="B956" s="32"/>
       <c r="C956" s="30"/>
@@ -43144,7 +43166,7 @@
       <c r="AK956" s="11"/>
       <c r="AL956" s="11"/>
     </row>
-    <row r="957" spans="1:38" ht="13.1">
+    <row r="957" spans="1:38" ht="12.75">
       <c r="A957" s="30"/>
       <c r="B957" s="32"/>
       <c r="C957" s="30"/>
@@ -43184,7 +43206,7 @@
       <c r="AK957" s="11"/>
       <c r="AL957" s="11"/>
     </row>
-    <row r="958" spans="1:38" ht="13.1">
+    <row r="958" spans="1:38" ht="12.75">
       <c r="A958" s="30"/>
       <c r="B958" s="32"/>
       <c r="C958" s="30"/>
@@ -43224,7 +43246,7 @@
       <c r="AK958" s="11"/>
       <c r="AL958" s="11"/>
     </row>
-    <row r="959" spans="1:38" ht="13.1">
+    <row r="959" spans="1:38" ht="12.75">
       <c r="A959" s="30"/>
       <c r="B959" s="32"/>
       <c r="C959" s="30"/>
@@ -43264,7 +43286,7 @@
       <c r="AK959" s="11"/>
       <c r="AL959" s="11"/>
     </row>
-    <row r="960" spans="1:38" ht="13.1">
+    <row r="960" spans="1:38" ht="12.75">
       <c r="A960" s="30"/>
       <c r="B960" s="32"/>
       <c r="C960" s="30"/>
@@ -43304,7 +43326,7 @@
       <c r="AK960" s="11"/>
       <c r="AL960" s="11"/>
     </row>
-    <row r="961" spans="1:38" ht="13.1">
+    <row r="961" spans="1:38" ht="12.75">
       <c r="A961" s="30"/>
       <c r="B961" s="32"/>
       <c r="C961" s="30"/>
@@ -43344,7 +43366,7 @@
       <c r="AK961" s="11"/>
       <c r="AL961" s="11"/>
     </row>
-    <row r="962" spans="1:38" ht="13.1">
+    <row r="962" spans="1:38" ht="12.75">
       <c r="A962" s="30"/>
       <c r="B962" s="32"/>
       <c r="C962" s="30"/>
@@ -43384,7 +43406,7 @@
       <c r="AK962" s="11"/>
       <c r="AL962" s="11"/>
     </row>
-    <row r="963" spans="1:38" ht="13.1">
+    <row r="963" spans="1:38" ht="12.75">
       <c r="A963" s="30"/>
       <c r="B963" s="32"/>
       <c r="C963" s="30"/>
@@ -43424,7 +43446,7 @@
       <c r="AK963" s="11"/>
       <c r="AL963" s="11"/>
     </row>
-    <row r="964" spans="1:38" ht="13.1">
+    <row r="964" spans="1:38" ht="12.75">
       <c r="A964" s="30"/>
       <c r="B964" s="32"/>
       <c r="C964" s="30"/>
@@ -43464,7 +43486,7 @@
       <c r="AK964" s="11"/>
       <c r="AL964" s="11"/>
     </row>
-    <row r="965" spans="1:38" ht="13.1">
+    <row r="965" spans="1:38" ht="12.75">
       <c r="A965" s="30"/>
       <c r="B965" s="32"/>
       <c r="C965" s="30"/>
@@ -43504,7 +43526,7 @@
       <c r="AK965" s="11"/>
       <c r="AL965" s="11"/>
     </row>
-    <row r="966" spans="1:38" ht="13.1">
+    <row r="966" spans="1:38" ht="12.75">
       <c r="A966" s="30"/>
       <c r="B966" s="32"/>
       <c r="C966" s="30"/>
@@ -43544,7 +43566,7 @@
       <c r="AK966" s="11"/>
       <c r="AL966" s="11"/>
     </row>
-    <row r="967" spans="1:38" ht="13.1">
+    <row r="967" spans="1:38" ht="12.75">
       <c r="A967" s="30"/>
       <c r="B967" s="32"/>
       <c r="C967" s="30"/>
@@ -43584,7 +43606,7 @@
       <c r="AK967" s="11"/>
       <c r="AL967" s="11"/>
     </row>
-    <row r="968" spans="1:38" ht="13.1">
+    <row r="968" spans="1:38" ht="12.75">
       <c r="A968" s="30"/>
       <c r="B968" s="32"/>
       <c r="C968" s="30"/>
@@ -43624,7 +43646,7 @@
       <c r="AK968" s="11"/>
       <c r="AL968" s="11"/>
     </row>
-    <row r="969" spans="1:38" ht="13.1">
+    <row r="969" spans="1:38" ht="12.75">
       <c r="A969" s="30"/>
       <c r="B969" s="32"/>
       <c r="C969" s="30"/>
@@ -43664,7 +43686,7 @@
       <c r="AK969" s="11"/>
       <c r="AL969" s="11"/>
     </row>
-    <row r="970" spans="1:38" ht="13.1">
+    <row r="970" spans="1:38" ht="12.75">
       <c r="A970" s="30"/>
       <c r="B970" s="32"/>
       <c r="C970" s="30"/>
@@ -43704,7 +43726,7 @@
       <c r="AK970" s="11"/>
       <c r="AL970" s="11"/>
     </row>
-    <row r="971" spans="1:38" ht="13.1">
+    <row r="971" spans="1:38" ht="12.75">
       <c r="A971" s="30"/>
       <c r="B971" s="32"/>
       <c r="C971" s="30"/>
@@ -43744,7 +43766,7 @@
       <c r="AK971" s="11"/>
       <c r="AL971" s="11"/>
     </row>
-    <row r="972" spans="1:38" ht="13.1">
+    <row r="972" spans="1:38" ht="12.75">
       <c r="A972" s="30"/>
       <c r="B972" s="32"/>
       <c r="C972" s="30"/>
@@ -43784,7 +43806,7 @@
       <c r="AK972" s="11"/>
       <c r="AL972" s="11"/>
     </row>
-    <row r="973" spans="1:38" ht="13.1">
+    <row r="973" spans="1:38" ht="12.75">
       <c r="A973" s="30"/>
       <c r="B973" s="32"/>
       <c r="C973" s="30"/>
@@ -43824,7 +43846,7 @@
       <c r="AK973" s="11"/>
       <c r="AL973" s="11"/>
     </row>
-    <row r="974" spans="1:38" ht="13.1">
+    <row r="974" spans="1:38" ht="12.75">
       <c r="A974" s="30"/>
       <c r="B974" s="32"/>
       <c r="C974" s="30"/>
@@ -43864,7 +43886,7 @@
       <c r="AK974" s="11"/>
       <c r="AL974" s="11"/>
     </row>
-    <row r="975" spans="1:38" ht="13.1">
+    <row r="975" spans="1:38" ht="12.75">
       <c r="A975" s="30"/>
       <c r="B975" s="32"/>
       <c r="C975" s="30"/>
@@ -43904,7 +43926,7 @@
       <c r="AK975" s="11"/>
       <c r="AL975" s="11"/>
     </row>
-    <row r="976" spans="1:38" ht="13.1">
+    <row r="976" spans="1:38" ht="12.75">
       <c r="A976" s="30"/>
       <c r="B976" s="32"/>
       <c r="C976" s="30"/>
@@ -43944,7 +43966,7 @@
       <c r="AK976" s="11"/>
       <c r="AL976" s="11"/>
     </row>
-    <row r="977" spans="1:38" ht="13.1">
+    <row r="977" spans="1:38" ht="12.75">
       <c r="A977" s="30"/>
       <c r="B977" s="32"/>
       <c r="C977" s="30"/>
@@ -43984,7 +44006,7 @@
       <c r="AK977" s="11"/>
       <c r="AL977" s="11"/>
     </row>
-    <row r="978" spans="1:38" ht="13.1">
+    <row r="978" spans="1:38" ht="12.75">
       <c r="A978" s="30"/>
       <c r="B978" s="32"/>
       <c r="C978" s="30"/>
@@ -44024,7 +44046,7 @@
       <c r="AK978" s="11"/>
       <c r="AL978" s="11"/>
     </row>
-    <row r="979" spans="1:38" ht="13.1">
+    <row r="979" spans="1:38" ht="12.75">
       <c r="A979" s="30"/>
       <c r="B979" s="32"/>
       <c r="C979" s="30"/>
@@ -44064,7 +44086,7 @@
       <c r="AK979" s="11"/>
       <c r="AL979" s="11"/>
     </row>
-    <row r="980" spans="1:38" ht="13.1">
+    <row r="980" spans="1:38" ht="12.75">
       <c r="A980" s="30"/>
       <c r="B980" s="32"/>
       <c r="C980" s="30"/>
@@ -44104,7 +44126,7 @@
       <c r="AK980" s="11"/>
       <c r="AL980" s="11"/>
     </row>
-    <row r="981" spans="1:38" ht="13.1">
+    <row r="981" spans="1:38" ht="12.75">
       <c r="A981" s="30"/>
       <c r="B981" s="32"/>
       <c r="C981" s="30"/>
@@ -44144,7 +44166,7 @@
       <c r="AK981" s="11"/>
       <c r="AL981" s="11"/>
     </row>
-    <row r="982" spans="1:38" ht="13.1">
+    <row r="982" spans="1:38" ht="12.75">
       <c r="A982" s="30"/>
       <c r="B982" s="32"/>
       <c r="C982" s="30"/>
@@ -44184,7 +44206,7 @@
       <c r="AK982" s="11"/>
       <c r="AL982" s="11"/>
     </row>
-    <row r="983" spans="1:38" ht="13.1">
+    <row r="983" spans="1:38" ht="12.75">
       <c r="A983" s="30"/>
       <c r="B983" s="32"/>
       <c r="C983" s="30"/>
@@ -44224,7 +44246,7 @@
       <c r="AK983" s="11"/>
       <c r="AL983" s="11"/>
     </row>
-    <row r="984" spans="1:38" ht="13.1">
+    <row r="984" spans="1:38" ht="12.75">
       <c r="A984" s="30"/>
       <c r="B984" s="32"/>
       <c r="C984" s="30"/>
@@ -44264,7 +44286,7 @@
       <c r="AK984" s="11"/>
       <c r="AL984" s="11"/>
     </row>
-    <row r="985" spans="1:38" ht="13.1">
+    <row r="985" spans="1:38" ht="12.75">
       <c r="A985" s="30"/>
       <c r="B985" s="32"/>
       <c r="C985" s="30"/>
@@ -44304,7 +44326,7 @@
       <c r="AK985" s="11"/>
       <c r="AL985" s="11"/>
     </row>
-    <row r="986" spans="1:38" ht="13.1">
+    <row r="986" spans="1:38" ht="12.75">
       <c r="A986" s="30"/>
       <c r="B986" s="32"/>
       <c r="C986" s="30"/>
@@ -44344,7 +44366,7 @@
       <c r="AK986" s="11"/>
       <c r="AL986" s="11"/>
     </row>
-    <row r="987" spans="1:38" ht="13.1">
+    <row r="987" spans="1:38" ht="12.75">
       <c r="A987" s="30"/>
       <c r="B987" s="32"/>
       <c r="C987" s="30"/>
@@ -44384,7 +44406,7 @@
       <c r="AK987" s="11"/>
       <c r="AL987" s="11"/>
     </row>
-    <row r="988" spans="1:38" ht="13.1">
+    <row r="988" spans="1:38" ht="12.75">
       <c r="A988" s="30"/>
       <c r="B988" s="32"/>
       <c r="C988" s="30"/>
@@ -44424,7 +44446,7 @@
       <c r="AK988" s="11"/>
       <c r="AL988" s="11"/>
     </row>
-    <row r="989" spans="1:38" ht="13.1">
+    <row r="989" spans="1:38" ht="12.75">
       <c r="A989" s="30"/>
       <c r="B989" s="32"/>
       <c r="C989" s="30"/>
@@ -44464,7 +44486,7 @@
       <c r="AK989" s="11"/>
       <c r="AL989" s="11"/>
     </row>
-    <row r="990" spans="1:38" ht="13.1">
+    <row r="990" spans="1:38" ht="12.75">
       <c r="A990" s="30"/>
       <c r="B990" s="32"/>
       <c r="C990" s="30"/>
@@ -44504,7 +44526,7 @@
       <c r="AK990" s="11"/>
       <c r="AL990" s="11"/>
     </row>
-    <row r="991" spans="1:38" ht="13.1">
+    <row r="991" spans="1:38" ht="12.75">
       <c r="A991" s="30"/>
       <c r="B991" s="32"/>
       <c r="C991" s="30"/>
@@ -44545,56 +44567,57 @@
       <c r="AL991" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA181" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="17">
-    <dataValidation type="list" allowBlank="1" sqref="V2:V258 AE259 V260:V481">
+    <dataValidation type="list" allowBlank="1" sqref="V2:V258 AE259 V260:V481" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Marihuana,Alcohol,Cocaína,Pegamento,Psicofármacos,Otras"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I2:I38 G2:G481 I40:I481">
+    <dataValidation type="list" allowBlank="1" sqref="I2:I38 G2:G481 I40:I481" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Presente,Ausente,No asignada"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="T2:T258 AC259 T260:T481">
+    <dataValidation type="list" allowBlank="1" sqref="T2:T258 AC259 T260:T481" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Marihuana,Alcohol,Cocaína,Crack,Psicofármacos,Policonsumo,Marihuana y alcohol,Cocaína y alcohol,Cocaína y marihuana,Crack y alcohol,Crack y marihuana,Alcohol y psicofármacos,Cocaína y psicofármacos,Otras"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y2:Y579 Y580:Z614">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Y2:Y579 Y580:Z614" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Salario formal,PNC nacional,PNC provincial,AUH,AUHD,AUH + AlimentAR,AUHD + AlimentAR,Jubilación,Otro subsidio,Salario informal,Salario informal + subsidio,Sin ingresos"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2 E4 E72:E121 E190:E301 E372:E481">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2 E4 E72:E121 E190:E301 E372:E481" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Presente ,Ausente,No asignada"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="Q2:Q249 Q250:R258 AB259 Q260:R481">
+    <dataValidation type="list" allowBlank="1" sqref="Q2:Q249 Q250:R258 AB259 Q260:R481" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Referencia sin seguimiento,Referencia con seguimiento,No está referenciado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="U2:U258 AD259 U260:U481">
+    <dataValidation type="list" allowBlank="1" sqref="U2:U258 AD259 U260:U481" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Antes de los 11,entre 12/13/14,entre 15/16/17,de 18 en adelante"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="P2:P258 AG259 P260:P481">
+    <dataValidation type="list" allowBlank="1" sqref="P2:P258 AG259 P260:P481" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"Familia,Amistades,Institucionales,Familia + Amistades,Familia + Institucionales,Amistades + Institucionales,Sin vínculos actualmente"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="X2:X258 AH259 X260:X481">
+    <dataValidation type="list" allowBlank="1" sqref="X2:X258 AH259 X260:X481" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"Esporádico,Estable,No tiene"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J481">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J481" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"CENTRO DE DÍA ZEBALLOS,INTERNACIÓN CRISTALERÍA,DERIVADO,RECHAZA TTO.,NO FINALIZÓ ADMISIÓN,CDD BUEN PASTOR,INTERNACION B.P / Baig"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="O2:O258 AA259 O260:O481">
+    <dataValidation type="list" allowBlank="1" sqref="O2:O258 AA259 O260:O481" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>"Situación de calle,Refugio,Pensión,Casa/depto propio,Casa/depto cedido,Casa/depto alquilado,En inst. penal,En inst. de SM,En inst. terapéutica"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Z2:Z579">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Z2:Z579" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>"Sin causas Judiciales,Con causa cerrada,Con causa abierta,Desconoce"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3 E5:E71 E302:E371">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3 E5:E71 E302:E371" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>"Presente,Ausente,No asignada"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="N2:N258 X259 N260:N481">
+    <dataValidation type="list" allowBlank="1" sqref="N2:N258 X259 N260:N481" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>"Ningún nivel educativo,Primaria incompleta,Primaria en curso,Primaria completa,Secundaria incompleta,Secundaria en curso,Secundaria completa,Nivel superior incompleto,Nivel superior en curso,Nivel superior completo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E122:E189">
+    <dataValidation type="list" allowBlank="1" sqref="E122:E189" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>"GISE,MORE,BRUNO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="W2:W258 AF259 W260:W481">
+    <dataValidation type="list" allowBlank="1" sqref="W2:W258 AF259 W260:W481" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>"No,entre 1 y 2,más de 3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="S2:S991">
+    <dataValidation type="list" allowBlank="1" sqref="S2:S991" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>"Si,No,En trámite"</formula1>
     </dataValidation>
   </dataValidations>
